--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -58,10 +58,10 @@
     <t>find Largest sum contiguous Subarray [V. IMP]</t>
   </si>
   <si>
+    <t>Minimise the maximum difference between heights [V.IMP]</t>
+  </si>
+  <si>
     <t>&lt;-&gt;</t>
-  </si>
-  <si>
-    <t>Minimise the maximum difference between heights [V.IMP]</t>
   </si>
   <si>
     <t>Minimum no. of Jumps to reach end of an array</t>
@@ -1416,10 +1416,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -1493,6 +1493,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1507,8 +1508,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1516,14 +1525,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1538,10 +1539,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1553,10 +1554,25 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1565,14 +1581,6 @@
       <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1614,9 +1622,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1624,13 +1631,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1651,7 +1651,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1663,7 +1681,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1675,13 +1693,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1693,13 +1705,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1729,25 +1735,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1765,7 +1753,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1789,13 +1777,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1825,7 +1825,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1841,9 +1841,20 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1859,15 +1870,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1928,18 +1930,16 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1958,127 +1958,127 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2429,7 +2429,7 @@
   <dimension ref="A1:D481"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" outlineLevelCol="3"/>
@@ -2560,11 +2560,11 @@
       <c r="A13" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D13">
         <v>8</v>
@@ -2575,10 +2575,10 @@
         <v>4</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D14">
         <v>9</v>
@@ -2592,7 +2592,7 @@
         <v>16</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D15">
         <v>10</v>
@@ -2606,7 +2606,7 @@
         <v>17</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D16">
         <v>11</v>
@@ -2620,7 +2620,7 @@
         <v>18</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D17">
         <v>12</v>
@@ -2630,11 +2630,11 @@
       <c r="A18" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D18">
         <v>13</v>
@@ -2648,7 +2648,7 @@
         <v>20</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D19">
         <v>14</v>
@@ -2662,7 +2662,7 @@
         <v>21</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D20">
         <v>15</v>
@@ -2676,7 +2676,7 @@
         <v>22</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D21">
         <v>16</v>
@@ -2690,7 +2690,7 @@
         <v>23</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D22">
         <v>17</v>
@@ -2704,7 +2704,7 @@
         <v>24</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D23">
         <v>18</v>
@@ -2718,7 +2718,7 @@
         <v>25</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D24">
         <v>19</v>
@@ -2732,7 +2732,7 @@
         <v>26</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D25">
         <v>20</v>
@@ -2746,7 +2746,7 @@
         <v>27</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D26">
         <v>21</v>
@@ -2760,7 +2760,7 @@
         <v>28</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D27">
         <v>22</v>
@@ -2774,7 +2774,7 @@
         <v>29</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D28">
         <v>23</v>
@@ -2788,7 +2788,7 @@
         <v>30</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D29">
         <v>24</v>
@@ -2802,7 +2802,7 @@
         <v>31</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D30">
         <v>25</v>
@@ -2816,7 +2816,7 @@
         <v>32</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D31">
         <v>26</v>
@@ -2830,7 +2830,7 @@
         <v>33</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D32">
         <v>27</v>
@@ -2844,7 +2844,7 @@
         <v>34</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D33">
         <v>28</v>
@@ -2858,7 +2858,7 @@
         <v>35</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D34">
         <v>29</v>
@@ -2872,7 +2872,7 @@
         <v>36</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D35">
         <v>30</v>
@@ -2886,7 +2886,7 @@
         <v>37</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D36">
         <v>31</v>
@@ -2900,7 +2900,7 @@
         <v>38</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D37">
         <v>32</v>
@@ -2914,7 +2914,7 @@
         <v>39</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D38">
         <v>33</v>
@@ -2928,7 +2928,7 @@
         <v>40</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D39">
         <v>34</v>
@@ -2942,7 +2942,7 @@
         <v>41</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D40">
         <v>35</v>
@@ -2956,7 +2956,7 @@
         <v>42</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D41">
         <v>36</v>
@@ -2965,7 +2965,7 @@
     <row r="42" ht="21" spans="2:4">
       <c r="B42" s="9"/>
       <c r="C42" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D42">
         <v>37</v>
@@ -2975,7 +2975,7 @@
       <c r="A43" s="5"/>
       <c r="B43" s="9"/>
       <c r="C43" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D43">
         <v>38</v>
@@ -2989,7 +2989,7 @@
         <v>44</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D44">
         <v>39</v>
@@ -3003,7 +3003,7 @@
         <v>45</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D45">
         <v>40</v>
@@ -3017,7 +3017,7 @@
         <v>46</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D46">
         <v>41</v>
@@ -3031,7 +3031,7 @@
         <v>47</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D47">
         <v>42</v>
@@ -3045,7 +3045,7 @@
         <v>48</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D48">
         <v>43</v>
@@ -3059,7 +3059,7 @@
         <v>49</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D49">
         <v>44</v>
@@ -3073,7 +3073,7 @@
         <v>50</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D50">
         <v>45</v>
@@ -3087,7 +3087,7 @@
         <v>51</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D51">
         <v>46</v>
@@ -3101,7 +3101,7 @@
         <v>52</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D52">
         <v>47</v>
@@ -3115,7 +3115,7 @@
         <v>53</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D53">
         <v>48</v>
@@ -3142,7 +3142,7 @@
         <v>55</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D56">
         <v>51</v>
@@ -3156,7 +3156,7 @@
         <v>56</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D57">
         <v>52</v>
@@ -3170,7 +3170,7 @@
         <v>57</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D58">
         <v>53</v>
@@ -3184,7 +3184,7 @@
         <v>58</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D59">
         <v>54</v>
@@ -3198,7 +3198,7 @@
         <v>59</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D60">
         <v>55</v>
@@ -3212,7 +3212,7 @@
         <v>60</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D61">
         <v>56</v>
@@ -3226,7 +3226,7 @@
         <v>61</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D62">
         <v>57</v>
@@ -3240,7 +3240,7 @@
         <v>62</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D63">
         <v>58</v>
@@ -3254,7 +3254,7 @@
         <v>63</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D64">
         <v>59</v>
@@ -3268,7 +3268,7 @@
         <v>64</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D65">
         <v>60</v>
@@ -3282,7 +3282,7 @@
         <v>65</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D66">
         <v>61</v>
@@ -3296,7 +3296,7 @@
         <v>66</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D67">
         <v>62</v>
@@ -3310,7 +3310,7 @@
         <v>67</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D68">
         <v>63</v>
@@ -3324,7 +3324,7 @@
         <v>68</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D69">
         <v>64</v>
@@ -3338,7 +3338,7 @@
         <v>69</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D70">
         <v>65</v>
@@ -3352,7 +3352,7 @@
         <v>70</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D71">
         <v>66</v>
@@ -3366,7 +3366,7 @@
         <v>71</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D72">
         <v>67</v>
@@ -3380,7 +3380,7 @@
         <v>72</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D73">
         <v>68</v>
@@ -3394,7 +3394,7 @@
         <v>73</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D74">
         <v>69</v>
@@ -3408,7 +3408,7 @@
         <v>74</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D75">
         <v>70</v>
@@ -3422,7 +3422,7 @@
         <v>75</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D76">
         <v>71</v>
@@ -3436,7 +3436,7 @@
         <v>76</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D77">
         <v>72</v>
@@ -3450,7 +3450,7 @@
         <v>77</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D78">
         <v>73</v>
@@ -3464,7 +3464,7 @@
         <v>78</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D79">
         <v>74</v>
@@ -3478,7 +3478,7 @@
         <v>79</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D80">
         <v>75</v>
@@ -3492,7 +3492,7 @@
         <v>80</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D81">
         <v>76</v>
@@ -3506,7 +3506,7 @@
         <v>81</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D82">
         <v>77</v>
@@ -3520,7 +3520,7 @@
         <v>82</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D83">
         <v>78</v>
@@ -3534,7 +3534,7 @@
         <v>83</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D84">
         <v>79</v>
@@ -3548,7 +3548,7 @@
         <v>84</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D85">
         <v>80</v>
@@ -3562,7 +3562,7 @@
         <v>85</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D86">
         <v>81</v>
@@ -3576,7 +3576,7 @@
         <v>86</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D87">
         <v>82</v>
@@ -3590,7 +3590,7 @@
         <v>87</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D88">
         <v>83</v>
@@ -3604,7 +3604,7 @@
         <v>88</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D89">
         <v>84</v>
@@ -3618,7 +3618,7 @@
         <v>89</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D90">
         <v>85</v>
@@ -3632,7 +3632,7 @@
         <v>90</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D91">
         <v>86</v>
@@ -3646,7 +3646,7 @@
         <v>91</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D92">
         <v>87</v>
@@ -3660,7 +3660,7 @@
         <v>92</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D93">
         <v>88</v>
@@ -3674,7 +3674,7 @@
         <v>93</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D94">
         <v>89</v>
@@ -3688,7 +3688,7 @@
         <v>94</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D95">
         <v>90</v>
@@ -3702,7 +3702,7 @@
         <v>95</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D96">
         <v>91</v>
@@ -3716,7 +3716,7 @@
         <v>96</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D97">
         <v>92</v>
@@ -3730,7 +3730,7 @@
         <v>97</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D98">
         <v>93</v>
@@ -3757,7 +3757,7 @@
         <v>99</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D101">
         <v>96</v>
@@ -3771,7 +3771,7 @@
         <v>100</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D102">
         <v>97</v>
@@ -3785,7 +3785,7 @@
         <v>101</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D103">
         <v>98</v>
@@ -3799,7 +3799,7 @@
         <v>102</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D104">
         <v>99</v>
@@ -3813,7 +3813,7 @@
         <v>103</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D105">
         <v>100</v>
@@ -3827,7 +3827,7 @@
         <v>104</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D106">
         <v>101</v>
@@ -3841,7 +3841,7 @@
         <v>105</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D107">
         <v>102</v>
@@ -3855,7 +3855,7 @@
         <v>106</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D108">
         <v>103</v>
@@ -3869,7 +3869,7 @@
         <v>107</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D109">
         <v>104</v>
@@ -3883,7 +3883,7 @@
         <v>108</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D110">
         <v>105</v>
@@ -3897,7 +3897,7 @@
         <v>109</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D111">
         <v>106</v>
@@ -3911,7 +3911,7 @@
         <v>110</v>
       </c>
       <c r="C112" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D112">
         <v>107</v>
@@ -3925,7 +3925,7 @@
         <v>111</v>
       </c>
       <c r="C113" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D113">
         <v>108</v>
@@ -3939,7 +3939,7 @@
         <v>112</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D114">
         <v>109</v>
@@ -3953,7 +3953,7 @@
         <v>113</v>
       </c>
       <c r="C115" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D115">
         <v>110</v>
@@ -3967,7 +3967,7 @@
         <v>114</v>
       </c>
       <c r="C116" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D116">
         <v>111</v>
@@ -3981,7 +3981,7 @@
         <v>115</v>
       </c>
       <c r="C117" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D117">
         <v>112</v>
@@ -3995,7 +3995,7 @@
         <v>116</v>
       </c>
       <c r="C118" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D118">
         <v>113</v>
@@ -4009,7 +4009,7 @@
         <v>117</v>
       </c>
       <c r="C119" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D119">
         <v>114</v>
@@ -4023,7 +4023,7 @@
         <v>118</v>
       </c>
       <c r="C120" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D120">
         <v>115</v>
@@ -4037,7 +4037,7 @@
         <v>119</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D121">
         <v>116</v>
@@ -4051,7 +4051,7 @@
         <v>120</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D122">
         <v>117</v>
@@ -4065,7 +4065,7 @@
         <v>121</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D123">
         <v>118</v>
@@ -4079,7 +4079,7 @@
         <v>122</v>
       </c>
       <c r="C124" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D124">
         <v>119</v>
@@ -4093,7 +4093,7 @@
         <v>123</v>
       </c>
       <c r="C125" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D125">
         <v>120</v>
@@ -4107,7 +4107,7 @@
         <v>124</v>
       </c>
       <c r="C126" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D126">
         <v>121</v>
@@ -4121,7 +4121,7 @@
         <v>125</v>
       </c>
       <c r="C127" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D127">
         <v>122</v>
@@ -4135,7 +4135,7 @@
         <v>126</v>
       </c>
       <c r="C128" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D128">
         <v>123</v>
@@ -4149,7 +4149,7 @@
         <v>127</v>
       </c>
       <c r="C129" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D129">
         <v>124</v>
@@ -4163,7 +4163,7 @@
         <v>128</v>
       </c>
       <c r="C130" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D130">
         <v>125</v>
@@ -4177,7 +4177,7 @@
         <v>129</v>
       </c>
       <c r="C131" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D131">
         <v>126</v>
@@ -4191,7 +4191,7 @@
         <v>130</v>
       </c>
       <c r="C132" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D132">
         <v>127</v>
@@ -4205,7 +4205,7 @@
         <v>131</v>
       </c>
       <c r="C133" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D133">
         <v>128</v>
@@ -4219,7 +4219,7 @@
         <v>132</v>
       </c>
       <c r="C134" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D134">
         <v>129</v>
@@ -4233,7 +4233,7 @@
         <v>133</v>
       </c>
       <c r="C135" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D135">
         <v>130</v>
@@ -4247,7 +4247,7 @@
         <v>134</v>
       </c>
       <c r="C136" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D136">
         <v>131</v>
@@ -4273,7 +4273,7 @@
         <v>136</v>
       </c>
       <c r="C139" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D139">
         <v>134</v>
@@ -4287,7 +4287,7 @@
         <v>137</v>
       </c>
       <c r="C140" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D140">
         <v>135</v>
@@ -4301,7 +4301,7 @@
         <v>138</v>
       </c>
       <c r="C141" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D141">
         <v>136</v>
@@ -4315,7 +4315,7 @@
         <v>139</v>
       </c>
       <c r="C142" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D142">
         <v>137</v>
@@ -4329,7 +4329,7 @@
         <v>140</v>
       </c>
       <c r="C143" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D143">
         <v>138</v>
@@ -4343,7 +4343,7 @@
         <v>141</v>
       </c>
       <c r="C144" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D144">
         <v>139</v>
@@ -4357,7 +4357,7 @@
         <v>142</v>
       </c>
       <c r="C145" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D145">
         <v>140</v>
@@ -4371,7 +4371,7 @@
         <v>143</v>
       </c>
       <c r="C146" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D146">
         <v>141</v>
@@ -4385,7 +4385,7 @@
         <v>144</v>
       </c>
       <c r="C147" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D147">
         <v>142</v>
@@ -4399,7 +4399,7 @@
         <v>145</v>
       </c>
       <c r="C148" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D148">
         <v>143</v>
@@ -4413,7 +4413,7 @@
         <v>146</v>
       </c>
       <c r="C149" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D149">
         <v>144</v>
@@ -4427,7 +4427,7 @@
         <v>147</v>
       </c>
       <c r="C150" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D150">
         <v>145</v>
@@ -4441,7 +4441,7 @@
         <v>148</v>
       </c>
       <c r="C151" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D151">
         <v>146</v>
@@ -4455,7 +4455,7 @@
         <v>149</v>
       </c>
       <c r="C152" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D152">
         <v>147</v>
@@ -4469,7 +4469,7 @@
         <v>150</v>
       </c>
       <c r="C153" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D153">
         <v>148</v>
@@ -4483,7 +4483,7 @@
         <v>151</v>
       </c>
       <c r="C154" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D154">
         <v>149</v>
@@ -4497,7 +4497,7 @@
         <v>152</v>
       </c>
       <c r="C155" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D155">
         <v>150</v>
@@ -4511,7 +4511,7 @@
         <v>153</v>
       </c>
       <c r="C156" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D156">
         <v>151</v>
@@ -4525,7 +4525,7 @@
         <v>154</v>
       </c>
       <c r="C157" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D157">
         <v>152</v>
@@ -4539,7 +4539,7 @@
         <v>155</v>
       </c>
       <c r="C158" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D158">
         <v>153</v>
@@ -4553,7 +4553,7 @@
         <v>156</v>
       </c>
       <c r="C159" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D159">
         <v>154</v>
@@ -4567,7 +4567,7 @@
         <v>157</v>
       </c>
       <c r="C160" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D160">
         <v>155</v>
@@ -4581,7 +4581,7 @@
         <v>158</v>
       </c>
       <c r="C161" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D161">
         <v>156</v>
@@ -4595,7 +4595,7 @@
         <v>159</v>
       </c>
       <c r="C162" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D162">
         <v>157</v>
@@ -4609,7 +4609,7 @@
         <v>160</v>
       </c>
       <c r="C163" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D163">
         <v>158</v>
@@ -4623,7 +4623,7 @@
         <v>161</v>
       </c>
       <c r="C164" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D164">
         <v>159</v>
@@ -4637,7 +4637,7 @@
         <v>162</v>
       </c>
       <c r="C165" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D165">
         <v>160</v>
@@ -4651,7 +4651,7 @@
         <v>163</v>
       </c>
       <c r="C166" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D166">
         <v>161</v>
@@ -4665,7 +4665,7 @@
         <v>164</v>
       </c>
       <c r="C167" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D167">
         <v>162</v>
@@ -4679,7 +4679,7 @@
         <v>165</v>
       </c>
       <c r="C168" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D168">
         <v>163</v>
@@ -4693,7 +4693,7 @@
         <v>166</v>
       </c>
       <c r="C169" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D169">
         <v>164</v>
@@ -4707,7 +4707,7 @@
         <v>167</v>
       </c>
       <c r="C170" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D170">
         <v>165</v>
@@ -4721,7 +4721,7 @@
         <v>168</v>
       </c>
       <c r="C171" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D171">
         <v>166</v>
@@ -4735,7 +4735,7 @@
         <v>169</v>
       </c>
       <c r="C172" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D172">
         <v>167</v>
@@ -4749,7 +4749,7 @@
         <v>170</v>
       </c>
       <c r="C173" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D173">
         <v>168</v>
@@ -4763,7 +4763,7 @@
         <v>171</v>
       </c>
       <c r="C174" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D174">
         <v>169</v>
@@ -4789,7 +4789,7 @@
         <v>173</v>
       </c>
       <c r="C177" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D177">
         <v>172</v>
@@ -4803,7 +4803,7 @@
         <v>174</v>
       </c>
       <c r="C178" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D178">
         <v>173</v>
@@ -4817,7 +4817,7 @@
         <v>175</v>
       </c>
       <c r="C179" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D179">
         <v>174</v>
@@ -4831,7 +4831,7 @@
         <v>176</v>
       </c>
       <c r="C180" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D180">
         <v>175</v>
@@ -4845,7 +4845,7 @@
         <v>177</v>
       </c>
       <c r="C181" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D181">
         <v>176</v>
@@ -4859,7 +4859,7 @@
         <v>178</v>
       </c>
       <c r="C182" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D182">
         <v>177</v>
@@ -4873,7 +4873,7 @@
         <v>179</v>
       </c>
       <c r="C183" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D183">
         <v>178</v>
@@ -4887,7 +4887,7 @@
         <v>180</v>
       </c>
       <c r="C184" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D184">
         <v>179</v>
@@ -4901,7 +4901,7 @@
         <v>181</v>
       </c>
       <c r="C185" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D185">
         <v>180</v>
@@ -4915,7 +4915,7 @@
         <v>182</v>
       </c>
       <c r="C186" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D186">
         <v>181</v>
@@ -4929,7 +4929,7 @@
         <v>183</v>
       </c>
       <c r="C187" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D187">
         <v>182</v>
@@ -4943,7 +4943,7 @@
         <v>184</v>
       </c>
       <c r="C188" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D188">
         <v>183</v>
@@ -4957,7 +4957,7 @@
         <v>185</v>
       </c>
       <c r="C189" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D189">
         <v>184</v>
@@ -4971,7 +4971,7 @@
         <v>186</v>
       </c>
       <c r="C190" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D190">
         <v>185</v>
@@ -4985,7 +4985,7 @@
         <v>187</v>
       </c>
       <c r="C191" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D191">
         <v>186</v>
@@ -4999,7 +4999,7 @@
         <v>188</v>
       </c>
       <c r="C192" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D192">
         <v>187</v>
@@ -5013,7 +5013,7 @@
         <v>189</v>
       </c>
       <c r="C193" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D193">
         <v>188</v>
@@ -5027,7 +5027,7 @@
         <v>190</v>
       </c>
       <c r="C194" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D194">
         <v>189</v>
@@ -5041,7 +5041,7 @@
         <v>191</v>
       </c>
       <c r="C195" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D195">
         <v>190</v>
@@ -5055,7 +5055,7 @@
         <v>192</v>
       </c>
       <c r="C196" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D196">
         <v>191</v>
@@ -5069,7 +5069,7 @@
         <v>193</v>
       </c>
       <c r="C197" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D197">
         <v>192</v>
@@ -5083,7 +5083,7 @@
         <v>194</v>
       </c>
       <c r="C198" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D198">
         <v>193</v>
@@ -5097,7 +5097,7 @@
         <v>195</v>
       </c>
       <c r="C199" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D199">
         <v>194</v>
@@ -5111,7 +5111,7 @@
         <v>196</v>
       </c>
       <c r="C200" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D200">
         <v>195</v>
@@ -5125,7 +5125,7 @@
         <v>197</v>
       </c>
       <c r="C201" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D201">
         <v>196</v>
@@ -5139,7 +5139,7 @@
         <v>198</v>
       </c>
       <c r="C202" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D202">
         <v>197</v>
@@ -5153,7 +5153,7 @@
         <v>199</v>
       </c>
       <c r="C203" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D203">
         <v>198</v>
@@ -5167,7 +5167,7 @@
         <v>200</v>
       </c>
       <c r="C204" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D204">
         <v>199</v>
@@ -5181,7 +5181,7 @@
         <v>201</v>
       </c>
       <c r="C205" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D205">
         <v>200</v>
@@ -5195,7 +5195,7 @@
         <v>202</v>
       </c>
       <c r="C206" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D206">
         <v>201</v>
@@ -5209,7 +5209,7 @@
         <v>203</v>
       </c>
       <c r="C207" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D207">
         <v>202</v>
@@ -5223,7 +5223,7 @@
         <v>204</v>
       </c>
       <c r="C208" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D208">
         <v>203</v>
@@ -5237,7 +5237,7 @@
         <v>205</v>
       </c>
       <c r="C209" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D209">
         <v>204</v>
@@ -5251,7 +5251,7 @@
         <v>206</v>
       </c>
       <c r="C210" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D210">
         <v>205</v>
@@ -5265,7 +5265,7 @@
         <v>207</v>
       </c>
       <c r="C211" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D211">
         <v>206</v>
@@ -5295,7 +5295,7 @@
         <v>209</v>
       </c>
       <c r="C214" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D214">
         <v>209</v>
@@ -5309,7 +5309,7 @@
         <v>210</v>
       </c>
       <c r="C215" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D215">
         <v>210</v>
@@ -5323,7 +5323,7 @@
         <v>211</v>
       </c>
       <c r="C216" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D216">
         <v>211</v>
@@ -5337,7 +5337,7 @@
         <v>212</v>
       </c>
       <c r="C217" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D217">
         <v>212</v>
@@ -5351,7 +5351,7 @@
         <v>213</v>
       </c>
       <c r="C218" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D218">
         <v>213</v>
@@ -5365,7 +5365,7 @@
         <v>214</v>
       </c>
       <c r="C219" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D219">
         <v>214</v>
@@ -5379,7 +5379,7 @@
         <v>215</v>
       </c>
       <c r="C220" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D220">
         <v>215</v>
@@ -5393,7 +5393,7 @@
         <v>216</v>
       </c>
       <c r="C221" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D221">
         <v>216</v>
@@ -5407,7 +5407,7 @@
         <v>217</v>
       </c>
       <c r="C222" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D222">
         <v>217</v>
@@ -5421,7 +5421,7 @@
         <v>218</v>
       </c>
       <c r="C223" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D223">
         <v>218</v>
@@ -5435,7 +5435,7 @@
         <v>219</v>
       </c>
       <c r="C224" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D224">
         <v>219</v>
@@ -5449,7 +5449,7 @@
         <v>220</v>
       </c>
       <c r="C225" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D225">
         <v>220</v>
@@ -5463,7 +5463,7 @@
         <v>221</v>
       </c>
       <c r="C226" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D226">
         <v>221</v>
@@ -5477,7 +5477,7 @@
         <v>222</v>
       </c>
       <c r="C227" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D227">
         <v>222</v>
@@ -5491,7 +5491,7 @@
         <v>223</v>
       </c>
       <c r="C228" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D228">
         <v>223</v>
@@ -5505,7 +5505,7 @@
         <v>224</v>
       </c>
       <c r="C229" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D229">
         <v>224</v>
@@ -5519,7 +5519,7 @@
         <v>225</v>
       </c>
       <c r="C230" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D230">
         <v>225</v>
@@ -5533,7 +5533,7 @@
         <v>226</v>
       </c>
       <c r="C231" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D231">
         <v>226</v>
@@ -5547,7 +5547,7 @@
         <v>227</v>
       </c>
       <c r="C232" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D232">
         <v>227</v>
@@ -5561,7 +5561,7 @@
         <v>228</v>
       </c>
       <c r="C233" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D233">
         <v>228</v>
@@ -5575,7 +5575,7 @@
         <v>229</v>
       </c>
       <c r="C234" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D234">
         <v>229</v>
@@ -5589,7 +5589,7 @@
         <v>230</v>
       </c>
       <c r="C235" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D235">
         <v>230</v>
@@ -5617,7 +5617,7 @@
         <v>232</v>
       </c>
       <c r="C238" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D238">
         <v>233</v>
@@ -5631,7 +5631,7 @@
         <v>233</v>
       </c>
       <c r="C239" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D239">
         <v>234</v>
@@ -5645,7 +5645,7 @@
         <v>234</v>
       </c>
       <c r="C240" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D240">
         <v>235</v>
@@ -5659,7 +5659,7 @@
         <v>235</v>
       </c>
       <c r="C241" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D241">
         <v>236</v>
@@ -5673,7 +5673,7 @@
         <v>236</v>
       </c>
       <c r="C242" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D242">
         <v>237</v>
@@ -5687,7 +5687,7 @@
         <v>237</v>
       </c>
       <c r="C243" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D243">
         <v>238</v>
@@ -5701,7 +5701,7 @@
         <v>238</v>
       </c>
       <c r="C244" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D244">
         <v>239</v>
@@ -5715,7 +5715,7 @@
         <v>239</v>
       </c>
       <c r="C245" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D245">
         <v>240</v>
@@ -5729,7 +5729,7 @@
         <v>240</v>
       </c>
       <c r="C246" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D246">
         <v>241</v>
@@ -5743,7 +5743,7 @@
         <v>241</v>
       </c>
       <c r="C247" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D247">
         <v>242</v>
@@ -5757,7 +5757,7 @@
         <v>242</v>
       </c>
       <c r="C248" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D248">
         <v>243</v>
@@ -5771,7 +5771,7 @@
         <v>243</v>
       </c>
       <c r="C249" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D249">
         <v>244</v>
@@ -5785,7 +5785,7 @@
         <v>244</v>
       </c>
       <c r="C250" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D250">
         <v>245</v>
@@ -5799,7 +5799,7 @@
         <v>245</v>
       </c>
       <c r="C251" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D251">
         <v>246</v>
@@ -5813,7 +5813,7 @@
         <v>246</v>
       </c>
       <c r="C252" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D252">
         <v>247</v>
@@ -5827,7 +5827,7 @@
         <v>247</v>
       </c>
       <c r="C253" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D253">
         <v>248</v>
@@ -5841,7 +5841,7 @@
         <v>248</v>
       </c>
       <c r="C254" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D254">
         <v>249</v>
@@ -5855,7 +5855,7 @@
         <v>249</v>
       </c>
       <c r="C255" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D255">
         <v>250</v>
@@ -5869,7 +5869,7 @@
         <v>250</v>
       </c>
       <c r="C256" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D256">
         <v>251</v>
@@ -5883,7 +5883,7 @@
         <v>251</v>
       </c>
       <c r="C257" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D257">
         <v>252</v>
@@ -5897,7 +5897,7 @@
         <v>252</v>
       </c>
       <c r="C258" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D258">
         <v>253</v>
@@ -5911,7 +5911,7 @@
         <v>253</v>
       </c>
       <c r="C259" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D259">
         <v>254</v>
@@ -5925,7 +5925,7 @@
         <v>254</v>
       </c>
       <c r="C260" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D260">
         <v>255</v>
@@ -5939,7 +5939,7 @@
         <v>255</v>
       </c>
       <c r="C261" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D261">
         <v>256</v>
@@ -5953,7 +5953,7 @@
         <v>256</v>
       </c>
       <c r="C262" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D262">
         <v>257</v>
@@ -5967,7 +5967,7 @@
         <v>257</v>
       </c>
       <c r="C263" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D263">
         <v>258</v>
@@ -5981,7 +5981,7 @@
         <v>258</v>
       </c>
       <c r="C264" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D264">
         <v>259</v>
@@ -5995,7 +5995,7 @@
         <v>259</v>
       </c>
       <c r="C265" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D265">
         <v>260</v>
@@ -6009,7 +6009,7 @@
         <v>260</v>
       </c>
       <c r="C266" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D266">
         <v>261</v>
@@ -6023,7 +6023,7 @@
         <v>261</v>
       </c>
       <c r="C267" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D267">
         <v>262</v>
@@ -6037,7 +6037,7 @@
         <v>262</v>
       </c>
       <c r="C268" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D268">
         <v>263</v>
@@ -6051,7 +6051,7 @@
         <v>263</v>
       </c>
       <c r="C269" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D269">
         <v>264</v>
@@ -6065,7 +6065,7 @@
         <v>264</v>
       </c>
       <c r="C270" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D270">
         <v>265</v>
@@ -6079,7 +6079,7 @@
         <v>88</v>
       </c>
       <c r="C271" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D271">
         <v>266</v>
@@ -6093,7 +6093,7 @@
         <v>265</v>
       </c>
       <c r="C272" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D272">
         <v>267</v>
@@ -6121,7 +6121,7 @@
         <v>267</v>
       </c>
       <c r="C275" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D275">
         <v>270</v>
@@ -6135,7 +6135,7 @@
         <v>268</v>
       </c>
       <c r="C276" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D276">
         <v>271</v>
@@ -6149,7 +6149,7 @@
         <v>269</v>
       </c>
       <c r="C277" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D277">
         <v>272</v>
@@ -6163,7 +6163,7 @@
         <v>270</v>
       </c>
       <c r="C278" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D278">
         <v>273</v>
@@ -6177,7 +6177,7 @@
         <v>271</v>
       </c>
       <c r="C279" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D279">
         <v>274</v>
@@ -6191,7 +6191,7 @@
         <v>272</v>
       </c>
       <c r="C280" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D280">
         <v>275</v>
@@ -6205,7 +6205,7 @@
         <v>273</v>
       </c>
       <c r="C281" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D281">
         <v>276</v>
@@ -6219,7 +6219,7 @@
         <v>274</v>
       </c>
       <c r="C282" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D282">
         <v>277</v>
@@ -6233,7 +6233,7 @@
         <v>275</v>
       </c>
       <c r="C283" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D283">
         <v>278</v>
@@ -6247,7 +6247,7 @@
         <v>276</v>
       </c>
       <c r="C284" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D284">
         <v>279</v>
@@ -6261,7 +6261,7 @@
         <v>277</v>
       </c>
       <c r="C285" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D285">
         <v>280</v>
@@ -6275,7 +6275,7 @@
         <v>278</v>
       </c>
       <c r="C286" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D286">
         <v>281</v>
@@ -6289,7 +6289,7 @@
         <v>279</v>
       </c>
       <c r="C287" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D287">
         <v>282</v>
@@ -6303,7 +6303,7 @@
         <v>280</v>
       </c>
       <c r="C288" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D288">
         <v>283</v>
@@ -6317,7 +6317,7 @@
         <v>281</v>
       </c>
       <c r="C289" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D289">
         <v>284</v>
@@ -6331,7 +6331,7 @@
         <v>282</v>
       </c>
       <c r="C290" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D290">
         <v>285</v>
@@ -6345,7 +6345,7 @@
         <v>283</v>
       </c>
       <c r="C291" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D291">
         <v>286</v>
@@ -6359,7 +6359,7 @@
         <v>284</v>
       </c>
       <c r="C292" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D292">
         <v>287</v>
@@ -6373,7 +6373,7 @@
         <v>285</v>
       </c>
       <c r="C293" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D293">
         <v>288</v>
@@ -6401,7 +6401,7 @@
         <v>287</v>
       </c>
       <c r="C296" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D296">
         <v>291</v>
@@ -6415,7 +6415,7 @@
         <v>288</v>
       </c>
       <c r="C297" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D297">
         <v>292</v>
@@ -6429,7 +6429,7 @@
         <v>289</v>
       </c>
       <c r="C298" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D298">
         <v>293</v>
@@ -6443,7 +6443,7 @@
         <v>290</v>
       </c>
       <c r="C299" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D299">
         <v>294</v>
@@ -6457,7 +6457,7 @@
         <v>291</v>
       </c>
       <c r="C300" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D300">
         <v>295</v>
@@ -6471,7 +6471,7 @@
         <v>292</v>
       </c>
       <c r="C301" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D301">
         <v>296</v>
@@ -6485,7 +6485,7 @@
         <v>293</v>
       </c>
       <c r="C302" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D302">
         <v>297</v>
@@ -6499,7 +6499,7 @@
         <v>294</v>
       </c>
       <c r="C303" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D303">
         <v>298</v>
@@ -6513,7 +6513,7 @@
         <v>295</v>
       </c>
       <c r="C304" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D304">
         <v>299</v>
@@ -6527,7 +6527,7 @@
         <v>296</v>
       </c>
       <c r="C305" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D305">
         <v>300</v>
@@ -6541,7 +6541,7 @@
         <v>297</v>
       </c>
       <c r="C306" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D306">
         <v>301</v>
@@ -6555,7 +6555,7 @@
         <v>298</v>
       </c>
       <c r="C307" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D307">
         <v>302</v>
@@ -6569,7 +6569,7 @@
         <v>299</v>
       </c>
       <c r="C308" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D308">
         <v>303</v>
@@ -6583,7 +6583,7 @@
         <v>300</v>
       </c>
       <c r="C309" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D309">
         <v>304</v>
@@ -6597,7 +6597,7 @@
         <v>301</v>
       </c>
       <c r="C310" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D310">
         <v>305</v>
@@ -6611,7 +6611,7 @@
         <v>302</v>
       </c>
       <c r="C311" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D311">
         <v>306</v>
@@ -6625,7 +6625,7 @@
         <v>303</v>
       </c>
       <c r="C312" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D312">
         <v>307</v>
@@ -6639,7 +6639,7 @@
         <v>304</v>
       </c>
       <c r="C313" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D313">
         <v>308</v>
@@ -6653,7 +6653,7 @@
         <v>305</v>
       </c>
       <c r="C314" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D314">
         <v>309</v>
@@ -6667,7 +6667,7 @@
         <v>306</v>
       </c>
       <c r="C315" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D315">
         <v>310</v>
@@ -6681,7 +6681,7 @@
         <v>307</v>
       </c>
       <c r="C316" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D316">
         <v>311</v>
@@ -6695,7 +6695,7 @@
         <v>308</v>
       </c>
       <c r="C317" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D317">
         <v>312</v>
@@ -6709,7 +6709,7 @@
         <v>309</v>
       </c>
       <c r="C318" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D318">
         <v>313</v>
@@ -6723,7 +6723,7 @@
         <v>310</v>
       </c>
       <c r="C319" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D319">
         <v>314</v>
@@ -6737,7 +6737,7 @@
         <v>311</v>
       </c>
       <c r="C320" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D320">
         <v>315</v>
@@ -6751,7 +6751,7 @@
         <v>312</v>
       </c>
       <c r="C321" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D321">
         <v>316</v>
@@ -6765,7 +6765,7 @@
         <v>313</v>
       </c>
       <c r="C322" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D322">
         <v>317</v>
@@ -6779,7 +6779,7 @@
         <v>314</v>
       </c>
       <c r="C323" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D323">
         <v>318</v>
@@ -6793,7 +6793,7 @@
         <v>315</v>
       </c>
       <c r="C324" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D324">
         <v>319</v>
@@ -6807,7 +6807,7 @@
         <v>316</v>
       </c>
       <c r="C325" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D325">
         <v>320</v>
@@ -6821,7 +6821,7 @@
         <v>317</v>
       </c>
       <c r="C326" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D326">
         <v>321</v>
@@ -6835,7 +6835,7 @@
         <v>318</v>
       </c>
       <c r="C327" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D327">
         <v>322</v>
@@ -6849,7 +6849,7 @@
         <v>319</v>
       </c>
       <c r="C328" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D328">
         <v>323</v>
@@ -6863,7 +6863,7 @@
         <v>320</v>
       </c>
       <c r="C329" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D329">
         <v>324</v>
@@ -6877,7 +6877,7 @@
         <v>321</v>
       </c>
       <c r="C330" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D330">
         <v>325</v>
@@ -6891,7 +6891,7 @@
         <v>322</v>
       </c>
       <c r="C331" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D331">
         <v>326</v>
@@ -6905,7 +6905,7 @@
         <v>323</v>
       </c>
       <c r="C332" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D332">
         <v>327</v>
@@ -6919,7 +6919,7 @@
         <v>324</v>
       </c>
       <c r="C333" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D333">
         <v>328</v>
@@ -6947,7 +6947,7 @@
         <v>326</v>
       </c>
       <c r="C336" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D336">
         <v>331</v>
@@ -6961,7 +6961,7 @@
         <v>327</v>
       </c>
       <c r="C337" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D337">
         <v>332</v>
@@ -6975,7 +6975,7 @@
         <v>328</v>
       </c>
       <c r="C338" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D338">
         <v>333</v>
@@ -6989,7 +6989,7 @@
         <v>329</v>
       </c>
       <c r="C339" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D339">
         <v>334</v>
@@ -7003,7 +7003,7 @@
         <v>330</v>
       </c>
       <c r="C340" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D340">
         <v>335</v>
@@ -7017,7 +7017,7 @@
         <v>331</v>
       </c>
       <c r="C341" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D341">
         <v>336</v>
@@ -7031,7 +7031,7 @@
         <v>332</v>
       </c>
       <c r="C342" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D342">
         <v>337</v>
@@ -7045,7 +7045,7 @@
         <v>333</v>
       </c>
       <c r="C343" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D343">
         <v>338</v>
@@ -7059,7 +7059,7 @@
         <v>334</v>
       </c>
       <c r="C344" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D344">
         <v>339</v>
@@ -7073,7 +7073,7 @@
         <v>335</v>
       </c>
       <c r="C345" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D345">
         <v>340</v>
@@ -7087,7 +7087,7 @@
         <v>336</v>
       </c>
       <c r="C346" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D346">
         <v>341</v>
@@ -7101,7 +7101,7 @@
         <v>337</v>
       </c>
       <c r="C347" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D347">
         <v>342</v>
@@ -7115,7 +7115,7 @@
         <v>338</v>
       </c>
       <c r="C348" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D348">
         <v>343</v>
@@ -7129,7 +7129,7 @@
         <v>339</v>
       </c>
       <c r="C349" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D349">
         <v>344</v>
@@ -7143,7 +7143,7 @@
         <v>340</v>
       </c>
       <c r="C350" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D350">
         <v>345</v>
@@ -7157,7 +7157,7 @@
         <v>341</v>
       </c>
       <c r="C351" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D351">
         <v>346</v>
@@ -7171,7 +7171,7 @@
         <v>342</v>
       </c>
       <c r="C352" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D352">
         <v>347</v>
@@ -7185,7 +7185,7 @@
         <v>343</v>
       </c>
       <c r="C353" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D353">
         <v>348</v>
@@ -7213,7 +7213,7 @@
         <v>345</v>
       </c>
       <c r="C356" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D356">
         <v>351</v>
@@ -7227,7 +7227,7 @@
         <v>346</v>
       </c>
       <c r="C357" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D357">
         <v>352</v>
@@ -7241,7 +7241,7 @@
         <v>347</v>
       </c>
       <c r="C358" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D358">
         <v>353</v>
@@ -7255,7 +7255,7 @@
         <v>348</v>
       </c>
       <c r="C359" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D359">
         <v>354</v>
@@ -7269,7 +7269,7 @@
         <v>349</v>
       </c>
       <c r="C360" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D360">
         <v>355</v>
@@ -7283,7 +7283,7 @@
         <v>350</v>
       </c>
       <c r="C361" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D361">
         <v>356</v>
@@ -7297,7 +7297,7 @@
         <v>351</v>
       </c>
       <c r="C362" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D362">
         <v>357</v>
@@ -7311,7 +7311,7 @@
         <v>352</v>
       </c>
       <c r="C363" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D363">
         <v>358</v>
@@ -7325,7 +7325,7 @@
         <v>353</v>
       </c>
       <c r="C364" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D364">
         <v>359</v>
@@ -7339,7 +7339,7 @@
         <v>354</v>
       </c>
       <c r="C365" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D365">
         <v>360</v>
@@ -7353,7 +7353,7 @@
         <v>355</v>
       </c>
       <c r="C366" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D366">
         <v>361</v>
@@ -7367,7 +7367,7 @@
         <v>356</v>
       </c>
       <c r="C367" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D367">
         <v>362</v>
@@ -7381,7 +7381,7 @@
         <v>357</v>
       </c>
       <c r="C368" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D368">
         <v>363</v>
@@ -7395,7 +7395,7 @@
         <v>358</v>
       </c>
       <c r="C369" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D369">
         <v>364</v>
@@ -7409,7 +7409,7 @@
         <v>359</v>
       </c>
       <c r="C370" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D370">
         <v>365</v>
@@ -7423,7 +7423,7 @@
         <v>360</v>
       </c>
       <c r="C371" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D371">
         <v>366</v>
@@ -7437,7 +7437,7 @@
         <v>361</v>
       </c>
       <c r="C372" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D372">
         <v>367</v>
@@ -7451,7 +7451,7 @@
         <v>362</v>
       </c>
       <c r="C373" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D373">
         <v>368</v>
@@ -7465,7 +7465,7 @@
         <v>363</v>
       </c>
       <c r="C374" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D374">
         <v>369</v>
@@ -7479,7 +7479,7 @@
         <v>364</v>
       </c>
       <c r="C375" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D375">
         <v>370</v>
@@ -7493,7 +7493,7 @@
         <v>365</v>
       </c>
       <c r="C376" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D376">
         <v>371</v>
@@ -7507,7 +7507,7 @@
         <v>366</v>
       </c>
       <c r="C377" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D377">
         <v>372</v>
@@ -7521,7 +7521,7 @@
         <v>367</v>
       </c>
       <c r="C378" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D378">
         <v>373</v>
@@ -7535,7 +7535,7 @@
         <v>368</v>
       </c>
       <c r="C379" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D379">
         <v>374</v>
@@ -7549,7 +7549,7 @@
         <v>369</v>
       </c>
       <c r="C380" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D380">
         <v>375</v>
@@ -7563,7 +7563,7 @@
         <v>370</v>
       </c>
       <c r="C381" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D381">
         <v>376</v>
@@ -7577,7 +7577,7 @@
         <v>371</v>
       </c>
       <c r="C382" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D382">
         <v>377</v>
@@ -7591,7 +7591,7 @@
         <v>372</v>
       </c>
       <c r="C383" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D383">
         <v>378</v>
@@ -7605,7 +7605,7 @@
         <v>373</v>
       </c>
       <c r="C384" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D384">
         <v>379</v>
@@ -7619,7 +7619,7 @@
         <v>374</v>
       </c>
       <c r="C385" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D385">
         <v>380</v>
@@ -7633,7 +7633,7 @@
         <v>375</v>
       </c>
       <c r="C386" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D386">
         <v>381</v>
@@ -7647,7 +7647,7 @@
         <v>376</v>
       </c>
       <c r="C387" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D387">
         <v>382</v>
@@ -7661,7 +7661,7 @@
         <v>377</v>
       </c>
       <c r="C388" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D388">
         <v>383</v>
@@ -7675,7 +7675,7 @@
         <v>378</v>
       </c>
       <c r="C389" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D389">
         <v>384</v>
@@ -7689,7 +7689,7 @@
         <v>378</v>
       </c>
       <c r="C390" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D390">
         <v>385</v>
@@ -7703,7 +7703,7 @@
         <v>379</v>
       </c>
       <c r="C391" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D391">
         <v>386</v>
@@ -7717,7 +7717,7 @@
         <v>380</v>
       </c>
       <c r="C392" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D392">
         <v>387</v>
@@ -7731,7 +7731,7 @@
         <v>381</v>
       </c>
       <c r="C393" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D393">
         <v>388</v>
@@ -7745,7 +7745,7 @@
         <v>382</v>
       </c>
       <c r="C394" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D394">
         <v>389</v>
@@ -7759,7 +7759,7 @@
         <v>383</v>
       </c>
       <c r="C395" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D395">
         <v>390</v>
@@ -7773,7 +7773,7 @@
         <v>384</v>
       </c>
       <c r="C396" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D396">
         <v>391</v>
@@ -7787,7 +7787,7 @@
         <v>385</v>
       </c>
       <c r="C397" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D397">
         <v>392</v>
@@ -7801,7 +7801,7 @@
         <v>386</v>
       </c>
       <c r="C398" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D398">
         <v>393</v>
@@ -7815,7 +7815,7 @@
         <v>387</v>
       </c>
       <c r="C399" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D399">
         <v>394</v>
@@ -7843,7 +7843,7 @@
         <v>389</v>
       </c>
       <c r="C402" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D402">
         <v>397</v>
@@ -7857,7 +7857,7 @@
         <v>390</v>
       </c>
       <c r="C403" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D403">
         <v>398</v>
@@ -7871,7 +7871,7 @@
         <v>391</v>
       </c>
       <c r="C404" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D404">
         <v>399</v>
@@ -7885,7 +7885,7 @@
         <v>90</v>
       </c>
       <c r="C405" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D405">
         <v>400</v>
@@ -7899,7 +7899,7 @@
         <v>392</v>
       </c>
       <c r="C406" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D406">
         <v>401</v>
@@ -7913,7 +7913,7 @@
         <v>393</v>
       </c>
       <c r="C407" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D407">
         <v>402</v>
@@ -7941,7 +7941,7 @@
         <v>395</v>
       </c>
       <c r="C410" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D410">
         <v>405</v>
@@ -7955,7 +7955,7 @@
         <v>396</v>
       </c>
       <c r="C411" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D411">
         <v>406</v>
@@ -7969,7 +7969,7 @@
         <v>397</v>
       </c>
       <c r="C412" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D412">
         <v>407</v>
@@ -7983,7 +7983,7 @@
         <v>398</v>
       </c>
       <c r="C413" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D413">
         <v>408</v>
@@ -7997,7 +7997,7 @@
         <v>399</v>
       </c>
       <c r="C414" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D414">
         <v>409</v>
@@ -8011,7 +8011,7 @@
         <v>400</v>
       </c>
       <c r="C415" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D415">
         <v>410</v>
@@ -8025,7 +8025,7 @@
         <v>401</v>
       </c>
       <c r="C416" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D416">
         <v>411</v>
@@ -8039,7 +8039,7 @@
         <v>274</v>
       </c>
       <c r="C417" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D417">
         <v>412</v>
@@ -8053,7 +8053,7 @@
         <v>402</v>
       </c>
       <c r="C418" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D418">
         <v>413</v>
@@ -8067,7 +8067,7 @@
         <v>403</v>
       </c>
       <c r="C419" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D419">
         <v>414</v>
@@ -8081,7 +8081,7 @@
         <v>404</v>
       </c>
       <c r="C420" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D420">
         <v>415</v>
@@ -8095,7 +8095,7 @@
         <v>405</v>
       </c>
       <c r="C421" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D421">
         <v>416</v>
@@ -8109,7 +8109,7 @@
         <v>406</v>
       </c>
       <c r="C422" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D422">
         <v>417</v>
@@ -8123,7 +8123,7 @@
         <v>407</v>
       </c>
       <c r="C423" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D423">
         <v>418</v>
@@ -8137,7 +8137,7 @@
         <v>408</v>
       </c>
       <c r="C424" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D424">
         <v>419</v>
@@ -8151,7 +8151,7 @@
         <v>409</v>
       </c>
       <c r="C425" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D425">
         <v>420</v>
@@ -8165,7 +8165,7 @@
         <v>410</v>
       </c>
       <c r="C426" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D426">
         <v>421</v>
@@ -8179,7 +8179,7 @@
         <v>411</v>
       </c>
       <c r="C427" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D427">
         <v>422</v>
@@ -8193,7 +8193,7 @@
         <v>412</v>
       </c>
       <c r="C428" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D428">
         <v>423</v>
@@ -8207,7 +8207,7 @@
         <v>413</v>
       </c>
       <c r="C429" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D429">
         <v>424</v>
@@ -8221,7 +8221,7 @@
         <v>414</v>
       </c>
       <c r="C430" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D430">
         <v>425</v>
@@ -8235,7 +8235,7 @@
         <v>415</v>
       </c>
       <c r="C431" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D431">
         <v>426</v>
@@ -8249,7 +8249,7 @@
         <v>416</v>
       </c>
       <c r="C432" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D432">
         <v>427</v>
@@ -8263,7 +8263,7 @@
         <v>417</v>
       </c>
       <c r="C433" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D433">
         <v>428</v>
@@ -8277,7 +8277,7 @@
         <v>418</v>
       </c>
       <c r="C434" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D434">
         <v>429</v>
@@ -8291,7 +8291,7 @@
         <v>419</v>
       </c>
       <c r="C435" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D435">
         <v>430</v>
@@ -8305,7 +8305,7 @@
         <v>420</v>
       </c>
       <c r="C436" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D436">
         <v>431</v>
@@ -8319,7 +8319,7 @@
         <v>421</v>
       </c>
       <c r="C437" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D437">
         <v>432</v>
@@ -8333,7 +8333,7 @@
         <v>422</v>
       </c>
       <c r="C438" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D438">
         <v>433</v>
@@ -8347,7 +8347,7 @@
         <v>423</v>
       </c>
       <c r="C439" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D439">
         <v>434</v>
@@ -8361,7 +8361,7 @@
         <v>424</v>
       </c>
       <c r="C440" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D440">
         <v>435</v>
@@ -8375,7 +8375,7 @@
         <v>425</v>
       </c>
       <c r="C441" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D441">
         <v>436</v>
@@ -8389,7 +8389,7 @@
         <v>426</v>
       </c>
       <c r="C442" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D442">
         <v>437</v>
@@ -8403,7 +8403,7 @@
         <v>427</v>
       </c>
       <c r="C443" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D443">
         <v>438</v>
@@ -8417,7 +8417,7 @@
         <v>428</v>
       </c>
       <c r="C444" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D444">
         <v>439</v>
@@ -8431,7 +8431,7 @@
         <v>429</v>
       </c>
       <c r="C445" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D445">
         <v>440</v>
@@ -8445,7 +8445,7 @@
         <v>430</v>
       </c>
       <c r="C446" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D446">
         <v>441</v>
@@ -8459,7 +8459,7 @@
         <v>431</v>
       </c>
       <c r="C447" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D447">
         <v>442</v>
@@ -8473,7 +8473,7 @@
         <v>432</v>
       </c>
       <c r="C448" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D448">
         <v>443</v>
@@ -8487,7 +8487,7 @@
         <v>433</v>
       </c>
       <c r="C449" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D449">
         <v>444</v>
@@ -8501,7 +8501,7 @@
         <v>434</v>
       </c>
       <c r="C450" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D450">
         <v>445</v>
@@ -8515,7 +8515,7 @@
         <v>435</v>
       </c>
       <c r="C451" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D451">
         <v>446</v>
@@ -8529,7 +8529,7 @@
         <v>436</v>
       </c>
       <c r="C452" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D452">
         <v>447</v>
@@ -8543,7 +8543,7 @@
         <v>437</v>
       </c>
       <c r="C453" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D453">
         <v>448</v>
@@ -8557,7 +8557,7 @@
         <v>438</v>
       </c>
       <c r="C454" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D454">
         <v>449</v>
@@ -8571,7 +8571,7 @@
         <v>439</v>
       </c>
       <c r="C455" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D455">
         <v>450</v>
@@ -8585,7 +8585,7 @@
         <v>440</v>
       </c>
       <c r="C456" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D456">
         <v>451</v>
@@ -8599,7 +8599,7 @@
         <v>441</v>
       </c>
       <c r="C457" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D457">
         <v>452</v>
@@ -8613,7 +8613,7 @@
         <v>442</v>
       </c>
       <c r="C458" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D458">
         <v>453</v>
@@ -8627,7 +8627,7 @@
         <v>443</v>
       </c>
       <c r="C459" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D459">
         <v>454</v>
@@ -8641,7 +8641,7 @@
         <v>444</v>
       </c>
       <c r="C460" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D460">
         <v>455</v>
@@ -8655,7 +8655,7 @@
         <v>445</v>
       </c>
       <c r="C461" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D461">
         <v>456</v>
@@ -8669,7 +8669,7 @@
         <v>446</v>
       </c>
       <c r="C462" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D462">
         <v>457</v>
@@ -8683,7 +8683,7 @@
         <v>447</v>
       </c>
       <c r="C463" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D463">
         <v>458</v>
@@ -8697,7 +8697,7 @@
         <v>448</v>
       </c>
       <c r="C464" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D464">
         <v>459</v>
@@ -8711,7 +8711,7 @@
         <v>449</v>
       </c>
       <c r="C465" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D465">
         <v>460</v>
@@ -8725,7 +8725,7 @@
         <v>450</v>
       </c>
       <c r="C466" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D466">
         <v>461</v>
@@ -8739,7 +8739,7 @@
         <v>451</v>
       </c>
       <c r="C467" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D467">
         <v>462</v>
@@ -8753,7 +8753,7 @@
         <v>452</v>
       </c>
       <c r="C468" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D468">
         <v>463</v>
@@ -8767,7 +8767,7 @@
         <v>453</v>
       </c>
       <c r="C469" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D469">
         <v>464</v>
@@ -8796,7 +8796,7 @@
         <v>455</v>
       </c>
       <c r="C472" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D472">
         <v>467</v>
@@ -8810,7 +8810,7 @@
         <v>456</v>
       </c>
       <c r="C473" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D473">
         <v>468</v>
@@ -8824,7 +8824,7 @@
         <v>457</v>
       </c>
       <c r="C474" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D474">
         <v>469</v>
@@ -8838,7 +8838,7 @@
         <v>458</v>
       </c>
       <c r="C475" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D475">
         <v>470</v>
@@ -8852,7 +8852,7 @@
         <v>459</v>
       </c>
       <c r="C476" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D476">
         <v>471</v>
@@ -8866,7 +8866,7 @@
         <v>460</v>
       </c>
       <c r="C477" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D477">
         <v>472</v>
@@ -8880,7 +8880,7 @@
         <v>461</v>
       </c>
       <c r="C478" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D478">
         <v>473</v>
@@ -8894,7 +8894,7 @@
         <v>462</v>
       </c>
       <c r="C479" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D479">
         <v>474</v>
@@ -8908,7 +8908,7 @@
         <v>463</v>
       </c>
       <c r="C480" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D480">
         <v>475</v>
@@ -8922,7 +8922,7 @@
         <v>464</v>
       </c>
       <c r="C481" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D481">
         <v>476</v>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -61,10 +61,10 @@
     <t>Minimise the maximum difference between heights [V.IMP]</t>
   </si>
   <si>
+    <t>Minimum no. of Jumps to reach end of an array</t>
+  </si>
+  <si>
     <t>&lt;-&gt;</t>
-  </si>
-  <si>
-    <t>Minimum no. of Jumps to reach end of an array</t>
   </si>
   <si>
     <t>find duplicate in an array of N+1 Integers</t>
@@ -1416,10 +1416,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -1493,9 +1493,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1509,7 +1508,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1524,7 +1523,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1546,6 +1545,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -1554,15 +1584,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1570,7 +1592,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1585,10 +1607,17 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1599,38 +1628,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1645,7 +1645,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1657,13 +1699,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1675,31 +1717,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1723,19 +1771,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1747,37 +1789,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1795,37 +1813,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1836,6 +1836,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1859,21 +1883,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1885,15 +1894,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1913,6 +1913,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1927,19 +1936,10 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1958,127 +1958,127 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2429,7 +2429,7 @@
   <dimension ref="A1:D481"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" outlineLevelCol="3"/>
@@ -2574,11 +2574,11 @@
       <c r="A14" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D14">
         <v>9</v>
@@ -2589,10 +2589,10 @@
         <v>4</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D15">
         <v>10</v>
@@ -2606,7 +2606,7 @@
         <v>17</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D16">
         <v>11</v>
@@ -2620,7 +2620,7 @@
         <v>18</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D17">
         <v>12</v>
@@ -2634,7 +2634,7 @@
         <v>19</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D18">
         <v>13</v>
@@ -2648,7 +2648,7 @@
         <v>20</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D19">
         <v>14</v>
@@ -2662,7 +2662,7 @@
         <v>21</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D20">
         <v>15</v>
@@ -2676,7 +2676,7 @@
         <v>22</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D21">
         <v>16</v>
@@ -2690,7 +2690,7 @@
         <v>23</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D22">
         <v>17</v>
@@ -2704,7 +2704,7 @@
         <v>24</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D23">
         <v>18</v>
@@ -2718,7 +2718,7 @@
         <v>25</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D24">
         <v>19</v>
@@ -2732,7 +2732,7 @@
         <v>26</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D25">
         <v>20</v>
@@ -2746,7 +2746,7 @@
         <v>27</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D26">
         <v>21</v>
@@ -2760,7 +2760,7 @@
         <v>28</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D27">
         <v>22</v>
@@ -2774,7 +2774,7 @@
         <v>29</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D28">
         <v>23</v>
@@ -2788,7 +2788,7 @@
         <v>30</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D29">
         <v>24</v>
@@ -2802,7 +2802,7 @@
         <v>31</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D30">
         <v>25</v>
@@ -2816,7 +2816,7 @@
         <v>32</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D31">
         <v>26</v>
@@ -2830,7 +2830,7 @@
         <v>33</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D32">
         <v>27</v>
@@ -2844,7 +2844,7 @@
         <v>34</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D33">
         <v>28</v>
@@ -2858,7 +2858,7 @@
         <v>35</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D34">
         <v>29</v>
@@ -2872,7 +2872,7 @@
         <v>36</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D35">
         <v>30</v>
@@ -2886,7 +2886,7 @@
         <v>37</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D36">
         <v>31</v>
@@ -2900,7 +2900,7 @@
         <v>38</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D37">
         <v>32</v>
@@ -2914,7 +2914,7 @@
         <v>39</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D38">
         <v>33</v>
@@ -2928,7 +2928,7 @@
         <v>40</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D39">
         <v>34</v>
@@ -2942,7 +2942,7 @@
         <v>41</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D40">
         <v>35</v>
@@ -2956,7 +2956,7 @@
         <v>42</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D41">
         <v>36</v>
@@ -2965,7 +2965,7 @@
     <row r="42" ht="21" spans="2:4">
       <c r="B42" s="9"/>
       <c r="C42" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D42">
         <v>37</v>
@@ -2975,7 +2975,7 @@
       <c r="A43" s="5"/>
       <c r="B43" s="9"/>
       <c r="C43" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D43">
         <v>38</v>
@@ -2989,7 +2989,7 @@
         <v>44</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D44">
         <v>39</v>
@@ -3003,7 +3003,7 @@
         <v>45</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D45">
         <v>40</v>
@@ -3017,7 +3017,7 @@
         <v>46</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D46">
         <v>41</v>
@@ -3031,7 +3031,7 @@
         <v>47</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D47">
         <v>42</v>
@@ -3045,7 +3045,7 @@
         <v>48</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D48">
         <v>43</v>
@@ -3059,7 +3059,7 @@
         <v>49</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D49">
         <v>44</v>
@@ -3073,7 +3073,7 @@
         <v>50</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D50">
         <v>45</v>
@@ -3087,7 +3087,7 @@
         <v>51</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D51">
         <v>46</v>
@@ -3101,7 +3101,7 @@
         <v>52</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D52">
         <v>47</v>
@@ -3115,7 +3115,7 @@
         <v>53</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D53">
         <v>48</v>
@@ -3142,7 +3142,7 @@
         <v>55</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D56">
         <v>51</v>
@@ -3156,7 +3156,7 @@
         <v>56</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D57">
         <v>52</v>
@@ -3170,7 +3170,7 @@
         <v>57</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D58">
         <v>53</v>
@@ -3184,7 +3184,7 @@
         <v>58</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D59">
         <v>54</v>
@@ -3198,7 +3198,7 @@
         <v>59</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D60">
         <v>55</v>
@@ -3212,7 +3212,7 @@
         <v>60</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D61">
         <v>56</v>
@@ -3226,7 +3226,7 @@
         <v>61</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D62">
         <v>57</v>
@@ -3240,7 +3240,7 @@
         <v>62</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D63">
         <v>58</v>
@@ -3254,7 +3254,7 @@
         <v>63</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D64">
         <v>59</v>
@@ -3268,7 +3268,7 @@
         <v>64</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D65">
         <v>60</v>
@@ -3282,7 +3282,7 @@
         <v>65</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D66">
         <v>61</v>
@@ -3296,7 +3296,7 @@
         <v>66</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D67">
         <v>62</v>
@@ -3310,7 +3310,7 @@
         <v>67</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D68">
         <v>63</v>
@@ -3324,7 +3324,7 @@
         <v>68</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D69">
         <v>64</v>
@@ -3338,7 +3338,7 @@
         <v>69</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D70">
         <v>65</v>
@@ -3352,7 +3352,7 @@
         <v>70</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D71">
         <v>66</v>
@@ -3366,7 +3366,7 @@
         <v>71</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D72">
         <v>67</v>
@@ -3380,7 +3380,7 @@
         <v>72</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D73">
         <v>68</v>
@@ -3394,7 +3394,7 @@
         <v>73</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D74">
         <v>69</v>
@@ -3408,7 +3408,7 @@
         <v>74</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D75">
         <v>70</v>
@@ -3422,7 +3422,7 @@
         <v>75</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D76">
         <v>71</v>
@@ -3436,7 +3436,7 @@
         <v>76</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D77">
         <v>72</v>
@@ -3450,7 +3450,7 @@
         <v>77</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D78">
         <v>73</v>
@@ -3464,7 +3464,7 @@
         <v>78</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D79">
         <v>74</v>
@@ -3478,7 +3478,7 @@
         <v>79</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D80">
         <v>75</v>
@@ -3492,7 +3492,7 @@
         <v>80</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D81">
         <v>76</v>
@@ -3506,7 +3506,7 @@
         <v>81</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D82">
         <v>77</v>
@@ -3520,7 +3520,7 @@
         <v>82</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D83">
         <v>78</v>
@@ -3534,7 +3534,7 @@
         <v>83</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D84">
         <v>79</v>
@@ -3548,7 +3548,7 @@
         <v>84</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D85">
         <v>80</v>
@@ -3562,7 +3562,7 @@
         <v>85</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D86">
         <v>81</v>
@@ -3576,7 +3576,7 @@
         <v>86</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D87">
         <v>82</v>
@@ -3590,7 +3590,7 @@
         <v>87</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D88">
         <v>83</v>
@@ -3604,7 +3604,7 @@
         <v>88</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D89">
         <v>84</v>
@@ -3618,7 +3618,7 @@
         <v>89</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D90">
         <v>85</v>
@@ -3632,7 +3632,7 @@
         <v>90</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D91">
         <v>86</v>
@@ -3646,7 +3646,7 @@
         <v>91</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D92">
         <v>87</v>
@@ -3660,7 +3660,7 @@
         <v>92</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D93">
         <v>88</v>
@@ -3674,7 +3674,7 @@
         <v>93</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D94">
         <v>89</v>
@@ -3688,7 +3688,7 @@
         <v>94</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D95">
         <v>90</v>
@@ -3702,7 +3702,7 @@
         <v>95</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D96">
         <v>91</v>
@@ -3716,7 +3716,7 @@
         <v>96</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D97">
         <v>92</v>
@@ -3730,7 +3730,7 @@
         <v>97</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D98">
         <v>93</v>
@@ -3757,7 +3757,7 @@
         <v>99</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D101">
         <v>96</v>
@@ -3771,7 +3771,7 @@
         <v>100</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D102">
         <v>97</v>
@@ -3785,7 +3785,7 @@
         <v>101</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D103">
         <v>98</v>
@@ -3799,7 +3799,7 @@
         <v>102</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D104">
         <v>99</v>
@@ -3813,7 +3813,7 @@
         <v>103</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D105">
         <v>100</v>
@@ -3827,7 +3827,7 @@
         <v>104</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D106">
         <v>101</v>
@@ -3841,7 +3841,7 @@
         <v>105</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D107">
         <v>102</v>
@@ -3855,7 +3855,7 @@
         <v>106</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D108">
         <v>103</v>
@@ -3869,7 +3869,7 @@
         <v>107</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D109">
         <v>104</v>
@@ -3883,7 +3883,7 @@
         <v>108</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D110">
         <v>105</v>
@@ -3897,7 +3897,7 @@
         <v>109</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D111">
         <v>106</v>
@@ -3911,7 +3911,7 @@
         <v>110</v>
       </c>
       <c r="C112" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D112">
         <v>107</v>
@@ -3925,7 +3925,7 @@
         <v>111</v>
       </c>
       <c r="C113" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D113">
         <v>108</v>
@@ -3939,7 +3939,7 @@
         <v>112</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D114">
         <v>109</v>
@@ -3953,7 +3953,7 @@
         <v>113</v>
       </c>
       <c r="C115" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D115">
         <v>110</v>
@@ -3967,7 +3967,7 @@
         <v>114</v>
       </c>
       <c r="C116" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D116">
         <v>111</v>
@@ -3981,7 +3981,7 @@
         <v>115</v>
       </c>
       <c r="C117" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D117">
         <v>112</v>
@@ -3995,7 +3995,7 @@
         <v>116</v>
       </c>
       <c r="C118" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D118">
         <v>113</v>
@@ -4009,7 +4009,7 @@
         <v>117</v>
       </c>
       <c r="C119" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D119">
         <v>114</v>
@@ -4023,7 +4023,7 @@
         <v>118</v>
       </c>
       <c r="C120" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D120">
         <v>115</v>
@@ -4037,7 +4037,7 @@
         <v>119</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D121">
         <v>116</v>
@@ -4051,7 +4051,7 @@
         <v>120</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D122">
         <v>117</v>
@@ -4065,7 +4065,7 @@
         <v>121</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D123">
         <v>118</v>
@@ -4079,7 +4079,7 @@
         <v>122</v>
       </c>
       <c r="C124" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D124">
         <v>119</v>
@@ -4093,7 +4093,7 @@
         <v>123</v>
       </c>
       <c r="C125" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D125">
         <v>120</v>
@@ -4107,7 +4107,7 @@
         <v>124</v>
       </c>
       <c r="C126" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D126">
         <v>121</v>
@@ -4121,7 +4121,7 @@
         <v>125</v>
       </c>
       <c r="C127" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D127">
         <v>122</v>
@@ -4135,7 +4135,7 @@
         <v>126</v>
       </c>
       <c r="C128" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D128">
         <v>123</v>
@@ -4149,7 +4149,7 @@
         <v>127</v>
       </c>
       <c r="C129" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D129">
         <v>124</v>
@@ -4163,7 +4163,7 @@
         <v>128</v>
       </c>
       <c r="C130" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D130">
         <v>125</v>
@@ -4177,7 +4177,7 @@
         <v>129</v>
       </c>
       <c r="C131" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D131">
         <v>126</v>
@@ -4191,7 +4191,7 @@
         <v>130</v>
       </c>
       <c r="C132" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D132">
         <v>127</v>
@@ -4205,7 +4205,7 @@
         <v>131</v>
       </c>
       <c r="C133" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D133">
         <v>128</v>
@@ -4219,7 +4219,7 @@
         <v>132</v>
       </c>
       <c r="C134" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D134">
         <v>129</v>
@@ -4233,7 +4233,7 @@
         <v>133</v>
       </c>
       <c r="C135" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D135">
         <v>130</v>
@@ -4247,7 +4247,7 @@
         <v>134</v>
       </c>
       <c r="C136" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D136">
         <v>131</v>
@@ -4273,7 +4273,7 @@
         <v>136</v>
       </c>
       <c r="C139" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D139">
         <v>134</v>
@@ -4287,7 +4287,7 @@
         <v>137</v>
       </c>
       <c r="C140" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D140">
         <v>135</v>
@@ -4301,7 +4301,7 @@
         <v>138</v>
       </c>
       <c r="C141" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D141">
         <v>136</v>
@@ -4315,7 +4315,7 @@
         <v>139</v>
       </c>
       <c r="C142" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D142">
         <v>137</v>
@@ -4329,7 +4329,7 @@
         <v>140</v>
       </c>
       <c r="C143" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D143">
         <v>138</v>
@@ -4343,7 +4343,7 @@
         <v>141</v>
       </c>
       <c r="C144" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D144">
         <v>139</v>
@@ -4357,7 +4357,7 @@
         <v>142</v>
       </c>
       <c r="C145" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D145">
         <v>140</v>
@@ -4371,7 +4371,7 @@
         <v>143</v>
       </c>
       <c r="C146" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D146">
         <v>141</v>
@@ -4385,7 +4385,7 @@
         <v>144</v>
       </c>
       <c r="C147" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D147">
         <v>142</v>
@@ -4399,7 +4399,7 @@
         <v>145</v>
       </c>
       <c r="C148" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D148">
         <v>143</v>
@@ -4413,7 +4413,7 @@
         <v>146</v>
       </c>
       <c r="C149" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D149">
         <v>144</v>
@@ -4427,7 +4427,7 @@
         <v>147</v>
       </c>
       <c r="C150" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D150">
         <v>145</v>
@@ -4441,7 +4441,7 @@
         <v>148</v>
       </c>
       <c r="C151" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D151">
         <v>146</v>
@@ -4455,7 +4455,7 @@
         <v>149</v>
       </c>
       <c r="C152" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D152">
         <v>147</v>
@@ -4469,7 +4469,7 @@
         <v>150</v>
       </c>
       <c r="C153" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D153">
         <v>148</v>
@@ -4483,7 +4483,7 @@
         <v>151</v>
       </c>
       <c r="C154" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D154">
         <v>149</v>
@@ -4497,7 +4497,7 @@
         <v>152</v>
       </c>
       <c r="C155" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D155">
         <v>150</v>
@@ -4511,7 +4511,7 @@
         <v>153</v>
       </c>
       <c r="C156" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D156">
         <v>151</v>
@@ -4525,7 +4525,7 @@
         <v>154</v>
       </c>
       <c r="C157" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D157">
         <v>152</v>
@@ -4539,7 +4539,7 @@
         <v>155</v>
       </c>
       <c r="C158" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D158">
         <v>153</v>
@@ -4553,7 +4553,7 @@
         <v>156</v>
       </c>
       <c r="C159" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D159">
         <v>154</v>
@@ -4567,7 +4567,7 @@
         <v>157</v>
       </c>
       <c r="C160" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D160">
         <v>155</v>
@@ -4581,7 +4581,7 @@
         <v>158</v>
       </c>
       <c r="C161" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D161">
         <v>156</v>
@@ -4595,7 +4595,7 @@
         <v>159</v>
       </c>
       <c r="C162" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D162">
         <v>157</v>
@@ -4609,7 +4609,7 @@
         <v>160</v>
       </c>
       <c r="C163" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D163">
         <v>158</v>
@@ -4623,7 +4623,7 @@
         <v>161</v>
       </c>
       <c r="C164" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D164">
         <v>159</v>
@@ -4637,7 +4637,7 @@
         <v>162</v>
       </c>
       <c r="C165" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D165">
         <v>160</v>
@@ -4651,7 +4651,7 @@
         <v>163</v>
       </c>
       <c r="C166" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D166">
         <v>161</v>
@@ -4665,7 +4665,7 @@
         <v>164</v>
       </c>
       <c r="C167" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D167">
         <v>162</v>
@@ -4679,7 +4679,7 @@
         <v>165</v>
       </c>
       <c r="C168" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D168">
         <v>163</v>
@@ -4693,7 +4693,7 @@
         <v>166</v>
       </c>
       <c r="C169" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D169">
         <v>164</v>
@@ -4707,7 +4707,7 @@
         <v>167</v>
       </c>
       <c r="C170" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D170">
         <v>165</v>
@@ -4721,7 +4721,7 @@
         <v>168</v>
       </c>
       <c r="C171" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D171">
         <v>166</v>
@@ -4735,7 +4735,7 @@
         <v>169</v>
       </c>
       <c r="C172" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D172">
         <v>167</v>
@@ -4749,7 +4749,7 @@
         <v>170</v>
       </c>
       <c r="C173" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D173">
         <v>168</v>
@@ -4763,7 +4763,7 @@
         <v>171</v>
       </c>
       <c r="C174" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D174">
         <v>169</v>
@@ -4789,7 +4789,7 @@
         <v>173</v>
       </c>
       <c r="C177" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D177">
         <v>172</v>
@@ -4803,7 +4803,7 @@
         <v>174</v>
       </c>
       <c r="C178" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D178">
         <v>173</v>
@@ -4817,7 +4817,7 @@
         <v>175</v>
       </c>
       <c r="C179" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D179">
         <v>174</v>
@@ -4831,7 +4831,7 @@
         <v>176</v>
       </c>
       <c r="C180" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D180">
         <v>175</v>
@@ -4845,7 +4845,7 @@
         <v>177</v>
       </c>
       <c r="C181" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D181">
         <v>176</v>
@@ -4859,7 +4859,7 @@
         <v>178</v>
       </c>
       <c r="C182" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D182">
         <v>177</v>
@@ -4873,7 +4873,7 @@
         <v>179</v>
       </c>
       <c r="C183" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D183">
         <v>178</v>
@@ -4887,7 +4887,7 @@
         <v>180</v>
       </c>
       <c r="C184" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D184">
         <v>179</v>
@@ -4901,7 +4901,7 @@
         <v>181</v>
       </c>
       <c r="C185" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D185">
         <v>180</v>
@@ -4915,7 +4915,7 @@
         <v>182</v>
       </c>
       <c r="C186" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D186">
         <v>181</v>
@@ -4929,7 +4929,7 @@
         <v>183</v>
       </c>
       <c r="C187" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D187">
         <v>182</v>
@@ -4943,7 +4943,7 @@
         <v>184</v>
       </c>
       <c r="C188" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D188">
         <v>183</v>
@@ -4957,7 +4957,7 @@
         <v>185</v>
       </c>
       <c r="C189" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D189">
         <v>184</v>
@@ -4971,7 +4971,7 @@
         <v>186</v>
       </c>
       <c r="C190" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D190">
         <v>185</v>
@@ -4985,7 +4985,7 @@
         <v>187</v>
       </c>
       <c r="C191" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D191">
         <v>186</v>
@@ -4999,7 +4999,7 @@
         <v>188</v>
       </c>
       <c r="C192" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D192">
         <v>187</v>
@@ -5013,7 +5013,7 @@
         <v>189</v>
       </c>
       <c r="C193" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D193">
         <v>188</v>
@@ -5027,7 +5027,7 @@
         <v>190</v>
       </c>
       <c r="C194" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D194">
         <v>189</v>
@@ -5041,7 +5041,7 @@
         <v>191</v>
       </c>
       <c r="C195" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D195">
         <v>190</v>
@@ -5055,7 +5055,7 @@
         <v>192</v>
       </c>
       <c r="C196" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D196">
         <v>191</v>
@@ -5069,7 +5069,7 @@
         <v>193</v>
       </c>
       <c r="C197" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D197">
         <v>192</v>
@@ -5083,7 +5083,7 @@
         <v>194</v>
       </c>
       <c r="C198" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D198">
         <v>193</v>
@@ -5097,7 +5097,7 @@
         <v>195</v>
       </c>
       <c r="C199" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D199">
         <v>194</v>
@@ -5111,7 +5111,7 @@
         <v>196</v>
       </c>
       <c r="C200" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D200">
         <v>195</v>
@@ -5125,7 +5125,7 @@
         <v>197</v>
       </c>
       <c r="C201" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D201">
         <v>196</v>
@@ -5139,7 +5139,7 @@
         <v>198</v>
       </c>
       <c r="C202" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D202">
         <v>197</v>
@@ -5153,7 +5153,7 @@
         <v>199</v>
       </c>
       <c r="C203" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D203">
         <v>198</v>
@@ -5167,7 +5167,7 @@
         <v>200</v>
       </c>
       <c r="C204" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D204">
         <v>199</v>
@@ -5181,7 +5181,7 @@
         <v>201</v>
       </c>
       <c r="C205" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D205">
         <v>200</v>
@@ -5195,7 +5195,7 @@
         <v>202</v>
       </c>
       <c r="C206" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D206">
         <v>201</v>
@@ -5209,7 +5209,7 @@
         <v>203</v>
       </c>
       <c r="C207" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D207">
         <v>202</v>
@@ -5223,7 +5223,7 @@
         <v>204</v>
       </c>
       <c r="C208" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D208">
         <v>203</v>
@@ -5237,7 +5237,7 @@
         <v>205</v>
       </c>
       <c r="C209" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D209">
         <v>204</v>
@@ -5251,7 +5251,7 @@
         <v>206</v>
       </c>
       <c r="C210" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D210">
         <v>205</v>
@@ -5265,7 +5265,7 @@
         <v>207</v>
       </c>
       <c r="C211" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D211">
         <v>206</v>
@@ -5295,7 +5295,7 @@
         <v>209</v>
       </c>
       <c r="C214" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D214">
         <v>209</v>
@@ -5309,7 +5309,7 @@
         <v>210</v>
       </c>
       <c r="C215" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D215">
         <v>210</v>
@@ -5323,7 +5323,7 @@
         <v>211</v>
       </c>
       <c r="C216" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D216">
         <v>211</v>
@@ -5337,7 +5337,7 @@
         <v>212</v>
       </c>
       <c r="C217" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D217">
         <v>212</v>
@@ -5351,7 +5351,7 @@
         <v>213</v>
       </c>
       <c r="C218" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D218">
         <v>213</v>
@@ -5365,7 +5365,7 @@
         <v>214</v>
       </c>
       <c r="C219" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D219">
         <v>214</v>
@@ -5379,7 +5379,7 @@
         <v>215</v>
       </c>
       <c r="C220" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D220">
         <v>215</v>
@@ -5393,7 +5393,7 @@
         <v>216</v>
       </c>
       <c r="C221" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D221">
         <v>216</v>
@@ -5407,7 +5407,7 @@
         <v>217</v>
       </c>
       <c r="C222" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D222">
         <v>217</v>
@@ -5421,7 +5421,7 @@
         <v>218</v>
       </c>
       <c r="C223" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D223">
         <v>218</v>
@@ -5435,7 +5435,7 @@
         <v>219</v>
       </c>
       <c r="C224" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D224">
         <v>219</v>
@@ -5449,7 +5449,7 @@
         <v>220</v>
       </c>
       <c r="C225" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D225">
         <v>220</v>
@@ -5463,7 +5463,7 @@
         <v>221</v>
       </c>
       <c r="C226" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D226">
         <v>221</v>
@@ -5477,7 +5477,7 @@
         <v>222</v>
       </c>
       <c r="C227" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D227">
         <v>222</v>
@@ -5491,7 +5491,7 @@
         <v>223</v>
       </c>
       <c r="C228" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D228">
         <v>223</v>
@@ -5505,7 +5505,7 @@
         <v>224</v>
       </c>
       <c r="C229" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D229">
         <v>224</v>
@@ -5519,7 +5519,7 @@
         <v>225</v>
       </c>
       <c r="C230" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D230">
         <v>225</v>
@@ -5533,7 +5533,7 @@
         <v>226</v>
       </c>
       <c r="C231" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D231">
         <v>226</v>
@@ -5547,7 +5547,7 @@
         <v>227</v>
       </c>
       <c r="C232" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D232">
         <v>227</v>
@@ -5561,7 +5561,7 @@
         <v>228</v>
       </c>
       <c r="C233" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D233">
         <v>228</v>
@@ -5575,7 +5575,7 @@
         <v>229</v>
       </c>
       <c r="C234" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D234">
         <v>229</v>
@@ -5589,7 +5589,7 @@
         <v>230</v>
       </c>
       <c r="C235" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D235">
         <v>230</v>
@@ -5617,7 +5617,7 @@
         <v>232</v>
       </c>
       <c r="C238" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D238">
         <v>233</v>
@@ -5631,7 +5631,7 @@
         <v>233</v>
       </c>
       <c r="C239" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D239">
         <v>234</v>
@@ -5645,7 +5645,7 @@
         <v>234</v>
       </c>
       <c r="C240" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D240">
         <v>235</v>
@@ -5659,7 +5659,7 @@
         <v>235</v>
       </c>
       <c r="C241" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D241">
         <v>236</v>
@@ -5673,7 +5673,7 @@
         <v>236</v>
       </c>
       <c r="C242" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D242">
         <v>237</v>
@@ -5687,7 +5687,7 @@
         <v>237</v>
       </c>
       <c r="C243" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D243">
         <v>238</v>
@@ -5701,7 +5701,7 @@
         <v>238</v>
       </c>
       <c r="C244" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D244">
         <v>239</v>
@@ -5715,7 +5715,7 @@
         <v>239</v>
       </c>
       <c r="C245" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D245">
         <v>240</v>
@@ -5729,7 +5729,7 @@
         <v>240</v>
       </c>
       <c r="C246" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D246">
         <v>241</v>
@@ -5743,7 +5743,7 @@
         <v>241</v>
       </c>
       <c r="C247" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D247">
         <v>242</v>
@@ -5757,7 +5757,7 @@
         <v>242</v>
       </c>
       <c r="C248" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D248">
         <v>243</v>
@@ -5771,7 +5771,7 @@
         <v>243</v>
       </c>
       <c r="C249" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D249">
         <v>244</v>
@@ -5785,7 +5785,7 @@
         <v>244</v>
       </c>
       <c r="C250" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D250">
         <v>245</v>
@@ -5799,7 +5799,7 @@
         <v>245</v>
       </c>
       <c r="C251" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D251">
         <v>246</v>
@@ -5813,7 +5813,7 @@
         <v>246</v>
       </c>
       <c r="C252" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D252">
         <v>247</v>
@@ -5827,7 +5827,7 @@
         <v>247</v>
       </c>
       <c r="C253" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D253">
         <v>248</v>
@@ -5841,7 +5841,7 @@
         <v>248</v>
       </c>
       <c r="C254" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D254">
         <v>249</v>
@@ -5855,7 +5855,7 @@
         <v>249</v>
       </c>
       <c r="C255" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D255">
         <v>250</v>
@@ -5869,7 +5869,7 @@
         <v>250</v>
       </c>
       <c r="C256" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D256">
         <v>251</v>
@@ -5883,7 +5883,7 @@
         <v>251</v>
       </c>
       <c r="C257" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D257">
         <v>252</v>
@@ -5897,7 +5897,7 @@
         <v>252</v>
       </c>
       <c r="C258" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D258">
         <v>253</v>
@@ -5911,7 +5911,7 @@
         <v>253</v>
       </c>
       <c r="C259" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D259">
         <v>254</v>
@@ -5925,7 +5925,7 @@
         <v>254</v>
       </c>
       <c r="C260" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D260">
         <v>255</v>
@@ -5939,7 +5939,7 @@
         <v>255</v>
       </c>
       <c r="C261" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D261">
         <v>256</v>
@@ -5953,7 +5953,7 @@
         <v>256</v>
       </c>
       <c r="C262" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D262">
         <v>257</v>
@@ -5967,7 +5967,7 @@
         <v>257</v>
       </c>
       <c r="C263" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D263">
         <v>258</v>
@@ -5981,7 +5981,7 @@
         <v>258</v>
       </c>
       <c r="C264" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D264">
         <v>259</v>
@@ -5995,7 +5995,7 @@
         <v>259</v>
       </c>
       <c r="C265" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D265">
         <v>260</v>
@@ -6009,7 +6009,7 @@
         <v>260</v>
       </c>
       <c r="C266" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D266">
         <v>261</v>
@@ -6023,7 +6023,7 @@
         <v>261</v>
       </c>
       <c r="C267" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D267">
         <v>262</v>
@@ -6037,7 +6037,7 @@
         <v>262</v>
       </c>
       <c r="C268" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D268">
         <v>263</v>
@@ -6051,7 +6051,7 @@
         <v>263</v>
       </c>
       <c r="C269" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D269">
         <v>264</v>
@@ -6065,7 +6065,7 @@
         <v>264</v>
       </c>
       <c r="C270" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D270">
         <v>265</v>
@@ -6079,7 +6079,7 @@
         <v>88</v>
       </c>
       <c r="C271" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D271">
         <v>266</v>
@@ -6093,7 +6093,7 @@
         <v>265</v>
       </c>
       <c r="C272" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D272">
         <v>267</v>
@@ -6121,7 +6121,7 @@
         <v>267</v>
       </c>
       <c r="C275" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D275">
         <v>270</v>
@@ -6135,7 +6135,7 @@
         <v>268</v>
       </c>
       <c r="C276" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D276">
         <v>271</v>
@@ -6149,7 +6149,7 @@
         <v>269</v>
       </c>
       <c r="C277" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D277">
         <v>272</v>
@@ -6163,7 +6163,7 @@
         <v>270</v>
       </c>
       <c r="C278" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D278">
         <v>273</v>
@@ -6177,7 +6177,7 @@
         <v>271</v>
       </c>
       <c r="C279" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D279">
         <v>274</v>
@@ -6191,7 +6191,7 @@
         <v>272</v>
       </c>
       <c r="C280" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D280">
         <v>275</v>
@@ -6205,7 +6205,7 @@
         <v>273</v>
       </c>
       <c r="C281" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D281">
         <v>276</v>
@@ -6219,7 +6219,7 @@
         <v>274</v>
       </c>
       <c r="C282" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D282">
         <v>277</v>
@@ -6233,7 +6233,7 @@
         <v>275</v>
       </c>
       <c r="C283" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D283">
         <v>278</v>
@@ -6247,7 +6247,7 @@
         <v>276</v>
       </c>
       <c r="C284" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D284">
         <v>279</v>
@@ -6261,7 +6261,7 @@
         <v>277</v>
       </c>
       <c r="C285" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D285">
         <v>280</v>
@@ -6275,7 +6275,7 @@
         <v>278</v>
       </c>
       <c r="C286" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D286">
         <v>281</v>
@@ -6289,7 +6289,7 @@
         <v>279</v>
       </c>
       <c r="C287" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D287">
         <v>282</v>
@@ -6303,7 +6303,7 @@
         <v>280</v>
       </c>
       <c r="C288" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D288">
         <v>283</v>
@@ -6317,7 +6317,7 @@
         <v>281</v>
       </c>
       <c r="C289" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D289">
         <v>284</v>
@@ -6331,7 +6331,7 @@
         <v>282</v>
       </c>
       <c r="C290" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D290">
         <v>285</v>
@@ -6345,7 +6345,7 @@
         <v>283</v>
       </c>
       <c r="C291" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D291">
         <v>286</v>
@@ -6359,7 +6359,7 @@
         <v>284</v>
       </c>
       <c r="C292" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D292">
         <v>287</v>
@@ -6373,7 +6373,7 @@
         <v>285</v>
       </c>
       <c r="C293" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D293">
         <v>288</v>
@@ -6401,7 +6401,7 @@
         <v>287</v>
       </c>
       <c r="C296" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D296">
         <v>291</v>
@@ -6415,7 +6415,7 @@
         <v>288</v>
       </c>
       <c r="C297" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D297">
         <v>292</v>
@@ -6429,7 +6429,7 @@
         <v>289</v>
       </c>
       <c r="C298" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D298">
         <v>293</v>
@@ -6443,7 +6443,7 @@
         <v>290</v>
       </c>
       <c r="C299" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D299">
         <v>294</v>
@@ -6457,7 +6457,7 @@
         <v>291</v>
       </c>
       <c r="C300" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D300">
         <v>295</v>
@@ -6471,7 +6471,7 @@
         <v>292</v>
       </c>
       <c r="C301" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D301">
         <v>296</v>
@@ -6485,7 +6485,7 @@
         <v>293</v>
       </c>
       <c r="C302" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D302">
         <v>297</v>
@@ -6499,7 +6499,7 @@
         <v>294</v>
       </c>
       <c r="C303" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D303">
         <v>298</v>
@@ -6513,7 +6513,7 @@
         <v>295</v>
       </c>
       <c r="C304" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D304">
         <v>299</v>
@@ -6527,7 +6527,7 @@
         <v>296</v>
       </c>
       <c r="C305" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D305">
         <v>300</v>
@@ -6541,7 +6541,7 @@
         <v>297</v>
       </c>
       <c r="C306" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D306">
         <v>301</v>
@@ -6555,7 +6555,7 @@
         <v>298</v>
       </c>
       <c r="C307" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D307">
         <v>302</v>
@@ -6569,7 +6569,7 @@
         <v>299</v>
       </c>
       <c r="C308" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D308">
         <v>303</v>
@@ -6583,7 +6583,7 @@
         <v>300</v>
       </c>
       <c r="C309" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D309">
         <v>304</v>
@@ -6597,7 +6597,7 @@
         <v>301</v>
       </c>
       <c r="C310" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D310">
         <v>305</v>
@@ -6611,7 +6611,7 @@
         <v>302</v>
       </c>
       <c r="C311" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D311">
         <v>306</v>
@@ -6625,7 +6625,7 @@
         <v>303</v>
       </c>
       <c r="C312" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D312">
         <v>307</v>
@@ -6639,7 +6639,7 @@
         <v>304</v>
       </c>
       <c r="C313" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D313">
         <v>308</v>
@@ -6653,7 +6653,7 @@
         <v>305</v>
       </c>
       <c r="C314" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D314">
         <v>309</v>
@@ -6667,7 +6667,7 @@
         <v>306</v>
       </c>
       <c r="C315" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D315">
         <v>310</v>
@@ -6681,7 +6681,7 @@
         <v>307</v>
       </c>
       <c r="C316" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D316">
         <v>311</v>
@@ -6695,7 +6695,7 @@
         <v>308</v>
       </c>
       <c r="C317" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D317">
         <v>312</v>
@@ -6709,7 +6709,7 @@
         <v>309</v>
       </c>
       <c r="C318" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D318">
         <v>313</v>
@@ -6723,7 +6723,7 @@
         <v>310</v>
       </c>
       <c r="C319" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D319">
         <v>314</v>
@@ -6737,7 +6737,7 @@
         <v>311</v>
       </c>
       <c r="C320" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D320">
         <v>315</v>
@@ -6751,7 +6751,7 @@
         <v>312</v>
       </c>
       <c r="C321" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D321">
         <v>316</v>
@@ -6765,7 +6765,7 @@
         <v>313</v>
       </c>
       <c r="C322" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D322">
         <v>317</v>
@@ -6779,7 +6779,7 @@
         <v>314</v>
       </c>
       <c r="C323" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D323">
         <v>318</v>
@@ -6793,7 +6793,7 @@
         <v>315</v>
       </c>
       <c r="C324" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D324">
         <v>319</v>
@@ -6807,7 +6807,7 @@
         <v>316</v>
       </c>
       <c r="C325" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D325">
         <v>320</v>
@@ -6821,7 +6821,7 @@
         <v>317</v>
       </c>
       <c r="C326" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D326">
         <v>321</v>
@@ -6835,7 +6835,7 @@
         <v>318</v>
       </c>
       <c r="C327" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D327">
         <v>322</v>
@@ -6849,7 +6849,7 @@
         <v>319</v>
       </c>
       <c r="C328" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D328">
         <v>323</v>
@@ -6863,7 +6863,7 @@
         <v>320</v>
       </c>
       <c r="C329" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D329">
         <v>324</v>
@@ -6877,7 +6877,7 @@
         <v>321</v>
       </c>
       <c r="C330" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D330">
         <v>325</v>
@@ -6891,7 +6891,7 @@
         <v>322</v>
       </c>
       <c r="C331" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D331">
         <v>326</v>
@@ -6905,7 +6905,7 @@
         <v>323</v>
       </c>
       <c r="C332" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D332">
         <v>327</v>
@@ -6919,7 +6919,7 @@
         <v>324</v>
       </c>
       <c r="C333" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D333">
         <v>328</v>
@@ -6947,7 +6947,7 @@
         <v>326</v>
       </c>
       <c r="C336" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D336">
         <v>331</v>
@@ -6961,7 +6961,7 @@
         <v>327</v>
       </c>
       <c r="C337" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D337">
         <v>332</v>
@@ -6975,7 +6975,7 @@
         <v>328</v>
       </c>
       <c r="C338" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D338">
         <v>333</v>
@@ -6989,7 +6989,7 @@
         <v>329</v>
       </c>
       <c r="C339" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D339">
         <v>334</v>
@@ -7003,7 +7003,7 @@
         <v>330</v>
       </c>
       <c r="C340" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D340">
         <v>335</v>
@@ -7017,7 +7017,7 @@
         <v>331</v>
       </c>
       <c r="C341" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D341">
         <v>336</v>
@@ -7031,7 +7031,7 @@
         <v>332</v>
       </c>
       <c r="C342" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D342">
         <v>337</v>
@@ -7045,7 +7045,7 @@
         <v>333</v>
       </c>
       <c r="C343" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D343">
         <v>338</v>
@@ -7059,7 +7059,7 @@
         <v>334</v>
       </c>
       <c r="C344" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D344">
         <v>339</v>
@@ -7073,7 +7073,7 @@
         <v>335</v>
       </c>
       <c r="C345" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D345">
         <v>340</v>
@@ -7087,7 +7087,7 @@
         <v>336</v>
       </c>
       <c r="C346" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D346">
         <v>341</v>
@@ -7101,7 +7101,7 @@
         <v>337</v>
       </c>
       <c r="C347" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D347">
         <v>342</v>
@@ -7115,7 +7115,7 @@
         <v>338</v>
       </c>
       <c r="C348" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D348">
         <v>343</v>
@@ -7129,7 +7129,7 @@
         <v>339</v>
       </c>
       <c r="C349" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D349">
         <v>344</v>
@@ -7143,7 +7143,7 @@
         <v>340</v>
       </c>
       <c r="C350" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D350">
         <v>345</v>
@@ -7157,7 +7157,7 @@
         <v>341</v>
       </c>
       <c r="C351" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D351">
         <v>346</v>
@@ -7171,7 +7171,7 @@
         <v>342</v>
       </c>
       <c r="C352" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D352">
         <v>347</v>
@@ -7185,7 +7185,7 @@
         <v>343</v>
       </c>
       <c r="C353" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D353">
         <v>348</v>
@@ -7213,7 +7213,7 @@
         <v>345</v>
       </c>
       <c r="C356" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D356">
         <v>351</v>
@@ -7227,7 +7227,7 @@
         <v>346</v>
       </c>
       <c r="C357" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D357">
         <v>352</v>
@@ -7241,7 +7241,7 @@
         <v>347</v>
       </c>
       <c r="C358" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D358">
         <v>353</v>
@@ -7255,7 +7255,7 @@
         <v>348</v>
       </c>
       <c r="C359" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D359">
         <v>354</v>
@@ -7269,7 +7269,7 @@
         <v>349</v>
       </c>
       <c r="C360" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D360">
         <v>355</v>
@@ -7283,7 +7283,7 @@
         <v>350</v>
       </c>
       <c r="C361" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D361">
         <v>356</v>
@@ -7297,7 +7297,7 @@
         <v>351</v>
       </c>
       <c r="C362" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D362">
         <v>357</v>
@@ -7311,7 +7311,7 @@
         <v>352</v>
       </c>
       <c r="C363" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D363">
         <v>358</v>
@@ -7325,7 +7325,7 @@
         <v>353</v>
       </c>
       <c r="C364" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D364">
         <v>359</v>
@@ -7339,7 +7339,7 @@
         <v>354</v>
       </c>
       <c r="C365" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D365">
         <v>360</v>
@@ -7353,7 +7353,7 @@
         <v>355</v>
       </c>
       <c r="C366" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D366">
         <v>361</v>
@@ -7367,7 +7367,7 @@
         <v>356</v>
       </c>
       <c r="C367" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D367">
         <v>362</v>
@@ -7381,7 +7381,7 @@
         <v>357</v>
       </c>
       <c r="C368" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D368">
         <v>363</v>
@@ -7395,7 +7395,7 @@
         <v>358</v>
       </c>
       <c r="C369" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D369">
         <v>364</v>
@@ -7409,7 +7409,7 @@
         <v>359</v>
       </c>
       <c r="C370" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D370">
         <v>365</v>
@@ -7423,7 +7423,7 @@
         <v>360</v>
       </c>
       <c r="C371" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D371">
         <v>366</v>
@@ -7437,7 +7437,7 @@
         <v>361</v>
       </c>
       <c r="C372" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D372">
         <v>367</v>
@@ -7451,7 +7451,7 @@
         <v>362</v>
       </c>
       <c r="C373" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D373">
         <v>368</v>
@@ -7465,7 +7465,7 @@
         <v>363</v>
       </c>
       <c r="C374" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D374">
         <v>369</v>
@@ -7479,7 +7479,7 @@
         <v>364</v>
       </c>
       <c r="C375" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D375">
         <v>370</v>
@@ -7493,7 +7493,7 @@
         <v>365</v>
       </c>
       <c r="C376" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D376">
         <v>371</v>
@@ -7507,7 +7507,7 @@
         <v>366</v>
       </c>
       <c r="C377" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D377">
         <v>372</v>
@@ -7521,7 +7521,7 @@
         <v>367</v>
       </c>
       <c r="C378" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D378">
         <v>373</v>
@@ -7535,7 +7535,7 @@
         <v>368</v>
       </c>
       <c r="C379" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D379">
         <v>374</v>
@@ -7549,7 +7549,7 @@
         <v>369</v>
       </c>
       <c r="C380" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D380">
         <v>375</v>
@@ -7563,7 +7563,7 @@
         <v>370</v>
       </c>
       <c r="C381" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D381">
         <v>376</v>
@@ -7577,7 +7577,7 @@
         <v>371</v>
       </c>
       <c r="C382" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D382">
         <v>377</v>
@@ -7591,7 +7591,7 @@
         <v>372</v>
       </c>
       <c r="C383" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D383">
         <v>378</v>
@@ -7605,7 +7605,7 @@
         <v>373</v>
       </c>
       <c r="C384" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D384">
         <v>379</v>
@@ -7619,7 +7619,7 @@
         <v>374</v>
       </c>
       <c r="C385" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D385">
         <v>380</v>
@@ -7633,7 +7633,7 @@
         <v>375</v>
       </c>
       <c r="C386" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D386">
         <v>381</v>
@@ -7647,7 +7647,7 @@
         <v>376</v>
       </c>
       <c r="C387" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D387">
         <v>382</v>
@@ -7661,7 +7661,7 @@
         <v>377</v>
       </c>
       <c r="C388" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D388">
         <v>383</v>
@@ -7675,7 +7675,7 @@
         <v>378</v>
       </c>
       <c r="C389" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D389">
         <v>384</v>
@@ -7689,7 +7689,7 @@
         <v>378</v>
       </c>
       <c r="C390" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D390">
         <v>385</v>
@@ -7703,7 +7703,7 @@
         <v>379</v>
       </c>
       <c r="C391" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D391">
         <v>386</v>
@@ -7717,7 +7717,7 @@
         <v>380</v>
       </c>
       <c r="C392" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D392">
         <v>387</v>
@@ -7731,7 +7731,7 @@
         <v>381</v>
       </c>
       <c r="C393" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D393">
         <v>388</v>
@@ -7745,7 +7745,7 @@
         <v>382</v>
       </c>
       <c r="C394" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D394">
         <v>389</v>
@@ -7759,7 +7759,7 @@
         <v>383</v>
       </c>
       <c r="C395" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D395">
         <v>390</v>
@@ -7773,7 +7773,7 @@
         <v>384</v>
       </c>
       <c r="C396" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D396">
         <v>391</v>
@@ -7787,7 +7787,7 @@
         <v>385</v>
       </c>
       <c r="C397" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D397">
         <v>392</v>
@@ -7801,7 +7801,7 @@
         <v>386</v>
       </c>
       <c r="C398" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D398">
         <v>393</v>
@@ -7815,7 +7815,7 @@
         <v>387</v>
       </c>
       <c r="C399" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D399">
         <v>394</v>
@@ -7843,7 +7843,7 @@
         <v>389</v>
       </c>
       <c r="C402" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D402">
         <v>397</v>
@@ -7857,7 +7857,7 @@
         <v>390</v>
       </c>
       <c r="C403" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D403">
         <v>398</v>
@@ -7871,7 +7871,7 @@
         <v>391</v>
       </c>
       <c r="C404" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D404">
         <v>399</v>
@@ -7885,7 +7885,7 @@
         <v>90</v>
       </c>
       <c r="C405" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D405">
         <v>400</v>
@@ -7899,7 +7899,7 @@
         <v>392</v>
       </c>
       <c r="C406" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D406">
         <v>401</v>
@@ -7913,7 +7913,7 @@
         <v>393</v>
       </c>
       <c r="C407" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D407">
         <v>402</v>
@@ -7941,7 +7941,7 @@
         <v>395</v>
       </c>
       <c r="C410" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D410">
         <v>405</v>
@@ -7955,7 +7955,7 @@
         <v>396</v>
       </c>
       <c r="C411" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D411">
         <v>406</v>
@@ -7969,7 +7969,7 @@
         <v>397</v>
       </c>
       <c r="C412" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D412">
         <v>407</v>
@@ -7983,7 +7983,7 @@
         <v>398</v>
       </c>
       <c r="C413" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D413">
         <v>408</v>
@@ -7997,7 +7997,7 @@
         <v>399</v>
       </c>
       <c r="C414" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D414">
         <v>409</v>
@@ -8011,7 +8011,7 @@
         <v>400</v>
       </c>
       <c r="C415" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D415">
         <v>410</v>
@@ -8025,7 +8025,7 @@
         <v>401</v>
       </c>
       <c r="C416" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D416">
         <v>411</v>
@@ -8039,7 +8039,7 @@
         <v>274</v>
       </c>
       <c r="C417" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D417">
         <v>412</v>
@@ -8053,7 +8053,7 @@
         <v>402</v>
       </c>
       <c r="C418" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D418">
         <v>413</v>
@@ -8067,7 +8067,7 @@
         <v>403</v>
       </c>
       <c r="C419" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D419">
         <v>414</v>
@@ -8081,7 +8081,7 @@
         <v>404</v>
       </c>
       <c r="C420" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D420">
         <v>415</v>
@@ -8095,7 +8095,7 @@
         <v>405</v>
       </c>
       <c r="C421" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D421">
         <v>416</v>
@@ -8109,7 +8109,7 @@
         <v>406</v>
       </c>
       <c r="C422" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D422">
         <v>417</v>
@@ -8123,7 +8123,7 @@
         <v>407</v>
       </c>
       <c r="C423" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D423">
         <v>418</v>
@@ -8137,7 +8137,7 @@
         <v>408</v>
       </c>
       <c r="C424" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D424">
         <v>419</v>
@@ -8151,7 +8151,7 @@
         <v>409</v>
       </c>
       <c r="C425" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D425">
         <v>420</v>
@@ -8165,7 +8165,7 @@
         <v>410</v>
       </c>
       <c r="C426" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D426">
         <v>421</v>
@@ -8179,7 +8179,7 @@
         <v>411</v>
       </c>
       <c r="C427" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D427">
         <v>422</v>
@@ -8193,7 +8193,7 @@
         <v>412</v>
       </c>
       <c r="C428" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D428">
         <v>423</v>
@@ -8207,7 +8207,7 @@
         <v>413</v>
       </c>
       <c r="C429" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D429">
         <v>424</v>
@@ -8221,7 +8221,7 @@
         <v>414</v>
       </c>
       <c r="C430" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D430">
         <v>425</v>
@@ -8235,7 +8235,7 @@
         <v>415</v>
       </c>
       <c r="C431" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D431">
         <v>426</v>
@@ -8249,7 +8249,7 @@
         <v>416</v>
       </c>
       <c r="C432" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D432">
         <v>427</v>
@@ -8263,7 +8263,7 @@
         <v>417</v>
       </c>
       <c r="C433" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D433">
         <v>428</v>
@@ -8277,7 +8277,7 @@
         <v>418</v>
       </c>
       <c r="C434" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D434">
         <v>429</v>
@@ -8291,7 +8291,7 @@
         <v>419</v>
       </c>
       <c r="C435" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D435">
         <v>430</v>
@@ -8305,7 +8305,7 @@
         <v>420</v>
       </c>
       <c r="C436" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D436">
         <v>431</v>
@@ -8319,7 +8319,7 @@
         <v>421</v>
       </c>
       <c r="C437" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D437">
         <v>432</v>
@@ -8333,7 +8333,7 @@
         <v>422</v>
       </c>
       <c r="C438" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D438">
         <v>433</v>
@@ -8347,7 +8347,7 @@
         <v>423</v>
       </c>
       <c r="C439" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D439">
         <v>434</v>
@@ -8361,7 +8361,7 @@
         <v>424</v>
       </c>
       <c r="C440" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D440">
         <v>435</v>
@@ -8375,7 +8375,7 @@
         <v>425</v>
       </c>
       <c r="C441" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D441">
         <v>436</v>
@@ -8389,7 +8389,7 @@
         <v>426</v>
       </c>
       <c r="C442" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D442">
         <v>437</v>
@@ -8403,7 +8403,7 @@
         <v>427</v>
       </c>
       <c r="C443" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D443">
         <v>438</v>
@@ -8417,7 +8417,7 @@
         <v>428</v>
       </c>
       <c r="C444" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D444">
         <v>439</v>
@@ -8431,7 +8431,7 @@
         <v>429</v>
       </c>
       <c r="C445" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D445">
         <v>440</v>
@@ -8445,7 +8445,7 @@
         <v>430</v>
       </c>
       <c r="C446" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D446">
         <v>441</v>
@@ -8459,7 +8459,7 @@
         <v>431</v>
       </c>
       <c r="C447" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D447">
         <v>442</v>
@@ -8473,7 +8473,7 @@
         <v>432</v>
       </c>
       <c r="C448" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D448">
         <v>443</v>
@@ -8487,7 +8487,7 @@
         <v>433</v>
       </c>
       <c r="C449" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D449">
         <v>444</v>
@@ -8501,7 +8501,7 @@
         <v>434</v>
       </c>
       <c r="C450" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D450">
         <v>445</v>
@@ -8515,7 +8515,7 @@
         <v>435</v>
       </c>
       <c r="C451" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D451">
         <v>446</v>
@@ -8529,7 +8529,7 @@
         <v>436</v>
       </c>
       <c r="C452" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D452">
         <v>447</v>
@@ -8543,7 +8543,7 @@
         <v>437</v>
       </c>
       <c r="C453" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D453">
         <v>448</v>
@@ -8557,7 +8557,7 @@
         <v>438</v>
       </c>
       <c r="C454" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D454">
         <v>449</v>
@@ -8571,7 +8571,7 @@
         <v>439</v>
       </c>
       <c r="C455" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D455">
         <v>450</v>
@@ -8585,7 +8585,7 @@
         <v>440</v>
       </c>
       <c r="C456" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D456">
         <v>451</v>
@@ -8599,7 +8599,7 @@
         <v>441</v>
       </c>
       <c r="C457" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D457">
         <v>452</v>
@@ -8613,7 +8613,7 @@
         <v>442</v>
       </c>
       <c r="C458" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D458">
         <v>453</v>
@@ -8627,7 +8627,7 @@
         <v>443</v>
       </c>
       <c r="C459" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D459">
         <v>454</v>
@@ -8641,7 +8641,7 @@
         <v>444</v>
       </c>
       <c r="C460" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D460">
         <v>455</v>
@@ -8655,7 +8655,7 @@
         <v>445</v>
       </c>
       <c r="C461" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D461">
         <v>456</v>
@@ -8669,7 +8669,7 @@
         <v>446</v>
       </c>
       <c r="C462" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D462">
         <v>457</v>
@@ -8683,7 +8683,7 @@
         <v>447</v>
       </c>
       <c r="C463" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D463">
         <v>458</v>
@@ -8697,7 +8697,7 @@
         <v>448</v>
       </c>
       <c r="C464" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D464">
         <v>459</v>
@@ -8711,7 +8711,7 @@
         <v>449</v>
       </c>
       <c r="C465" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D465">
         <v>460</v>
@@ -8725,7 +8725,7 @@
         <v>450</v>
       </c>
       <c r="C466" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D466">
         <v>461</v>
@@ -8739,7 +8739,7 @@
         <v>451</v>
       </c>
       <c r="C467" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D467">
         <v>462</v>
@@ -8753,7 +8753,7 @@
         <v>452</v>
       </c>
       <c r="C468" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D468">
         <v>463</v>
@@ -8767,7 +8767,7 @@
         <v>453</v>
       </c>
       <c r="C469" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D469">
         <v>464</v>
@@ -8796,7 +8796,7 @@
         <v>455</v>
       </c>
       <c r="C472" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D472">
         <v>467</v>
@@ -8810,7 +8810,7 @@
         <v>456</v>
       </c>
       <c r="C473" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D473">
         <v>468</v>
@@ -8824,7 +8824,7 @@
         <v>457</v>
       </c>
       <c r="C474" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D474">
         <v>469</v>
@@ -8838,7 +8838,7 @@
         <v>458</v>
       </c>
       <c r="C475" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D475">
         <v>470</v>
@@ -8852,7 +8852,7 @@
         <v>459</v>
       </c>
       <c r="C476" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D476">
         <v>471</v>
@@ -8866,7 +8866,7 @@
         <v>460</v>
       </c>
       <c r="C477" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D477">
         <v>472</v>
@@ -8880,7 +8880,7 @@
         <v>461</v>
       </c>
       <c r="C478" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D478">
         <v>473</v>
@@ -8894,7 +8894,7 @@
         <v>462</v>
       </c>
       <c r="C479" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D479">
         <v>474</v>
@@ -8908,7 +8908,7 @@
         <v>463</v>
       </c>
       <c r="C480" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D480">
         <v>475</v>
@@ -8922,7 +8922,7 @@
         <v>464</v>
       </c>
       <c r="C481" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D481">
         <v>476</v>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -64,10 +64,10 @@
     <t>Minimum no. of Jumps to reach end of an array</t>
   </si>
   <si>
+    <t>find duplicate in an array of N+1 Integers</t>
+  </si>
+  <si>
     <t>&lt;-&gt;</t>
-  </si>
-  <si>
-    <t>find duplicate in an array of N+1 Integers</t>
   </si>
   <si>
     <t>Merge 2 sorted arrays without using Extra space.</t>
@@ -2429,7 +2429,7 @@
   <dimension ref="A1:D481"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" outlineLevelCol="3"/>
@@ -2588,11 +2588,11 @@
       <c r="A15" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D15">
         <v>10</v>
@@ -2603,10 +2603,10 @@
         <v>4</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D16">
         <v>11</v>
@@ -2620,7 +2620,7 @@
         <v>18</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D17">
         <v>12</v>
@@ -2634,7 +2634,7 @@
         <v>19</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D18">
         <v>13</v>
@@ -2648,7 +2648,7 @@
         <v>20</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D19">
         <v>14</v>
@@ -2662,7 +2662,7 @@
         <v>21</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D20">
         <v>15</v>
@@ -2676,7 +2676,7 @@
         <v>22</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D21">
         <v>16</v>
@@ -2690,7 +2690,7 @@
         <v>23</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D22">
         <v>17</v>
@@ -2704,7 +2704,7 @@
         <v>24</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D23">
         <v>18</v>
@@ -2718,7 +2718,7 @@
         <v>25</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D24">
         <v>19</v>
@@ -2732,7 +2732,7 @@
         <v>26</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D25">
         <v>20</v>
@@ -2746,7 +2746,7 @@
         <v>27</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D26">
         <v>21</v>
@@ -2760,7 +2760,7 @@
         <v>28</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D27">
         <v>22</v>
@@ -2774,7 +2774,7 @@
         <v>29</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D28">
         <v>23</v>
@@ -2788,7 +2788,7 @@
         <v>30</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D29">
         <v>24</v>
@@ -2802,7 +2802,7 @@
         <v>31</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D30">
         <v>25</v>
@@ -2816,7 +2816,7 @@
         <v>32</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D31">
         <v>26</v>
@@ -2830,7 +2830,7 @@
         <v>33</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D32">
         <v>27</v>
@@ -2844,7 +2844,7 @@
         <v>34</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D33">
         <v>28</v>
@@ -2858,7 +2858,7 @@
         <v>35</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D34">
         <v>29</v>
@@ -2872,7 +2872,7 @@
         <v>36</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D35">
         <v>30</v>
@@ -2886,7 +2886,7 @@
         <v>37</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D36">
         <v>31</v>
@@ -2900,7 +2900,7 @@
         <v>38</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D37">
         <v>32</v>
@@ -2914,7 +2914,7 @@
         <v>39</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D38">
         <v>33</v>
@@ -2928,7 +2928,7 @@
         <v>40</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D39">
         <v>34</v>
@@ -2942,7 +2942,7 @@
         <v>41</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D40">
         <v>35</v>
@@ -2956,7 +2956,7 @@
         <v>42</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D41">
         <v>36</v>
@@ -2965,7 +2965,7 @@
     <row r="42" ht="21" spans="2:4">
       <c r="B42" s="9"/>
       <c r="C42" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D42">
         <v>37</v>
@@ -2975,7 +2975,7 @@
       <c r="A43" s="5"/>
       <c r="B43" s="9"/>
       <c r="C43" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D43">
         <v>38</v>
@@ -2989,7 +2989,7 @@
         <v>44</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D44">
         <v>39</v>
@@ -3003,7 +3003,7 @@
         <v>45</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D45">
         <v>40</v>
@@ -3017,7 +3017,7 @@
         <v>46</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D46">
         <v>41</v>
@@ -3031,7 +3031,7 @@
         <v>47</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D47">
         <v>42</v>
@@ -3045,7 +3045,7 @@
         <v>48</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D48">
         <v>43</v>
@@ -3059,7 +3059,7 @@
         <v>49</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D49">
         <v>44</v>
@@ -3073,7 +3073,7 @@
         <v>50</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D50">
         <v>45</v>
@@ -3087,7 +3087,7 @@
         <v>51</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D51">
         <v>46</v>
@@ -3101,7 +3101,7 @@
         <v>52</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D52">
         <v>47</v>
@@ -3115,7 +3115,7 @@
         <v>53</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D53">
         <v>48</v>
@@ -3142,7 +3142,7 @@
         <v>55</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D56">
         <v>51</v>
@@ -3156,7 +3156,7 @@
         <v>56</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D57">
         <v>52</v>
@@ -3170,7 +3170,7 @@
         <v>57</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D58">
         <v>53</v>
@@ -3184,7 +3184,7 @@
         <v>58</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D59">
         <v>54</v>
@@ -3198,7 +3198,7 @@
         <v>59</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D60">
         <v>55</v>
@@ -3212,7 +3212,7 @@
         <v>60</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D61">
         <v>56</v>
@@ -3226,7 +3226,7 @@
         <v>61</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D62">
         <v>57</v>
@@ -3240,7 +3240,7 @@
         <v>62</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D63">
         <v>58</v>
@@ -3254,7 +3254,7 @@
         <v>63</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D64">
         <v>59</v>
@@ -3268,7 +3268,7 @@
         <v>64</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D65">
         <v>60</v>
@@ -3282,7 +3282,7 @@
         <v>65</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D66">
         <v>61</v>
@@ -3296,7 +3296,7 @@
         <v>66</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D67">
         <v>62</v>
@@ -3310,7 +3310,7 @@
         <v>67</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D68">
         <v>63</v>
@@ -3324,7 +3324,7 @@
         <v>68</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D69">
         <v>64</v>
@@ -3338,7 +3338,7 @@
         <v>69</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D70">
         <v>65</v>
@@ -3352,7 +3352,7 @@
         <v>70</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D71">
         <v>66</v>
@@ -3366,7 +3366,7 @@
         <v>71</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D72">
         <v>67</v>
@@ -3380,7 +3380,7 @@
         <v>72</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D73">
         <v>68</v>
@@ -3394,7 +3394,7 @@
         <v>73</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D74">
         <v>69</v>
@@ -3408,7 +3408,7 @@
         <v>74</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D75">
         <v>70</v>
@@ -3422,7 +3422,7 @@
         <v>75</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D76">
         <v>71</v>
@@ -3436,7 +3436,7 @@
         <v>76</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D77">
         <v>72</v>
@@ -3450,7 +3450,7 @@
         <v>77</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D78">
         <v>73</v>
@@ -3464,7 +3464,7 @@
         <v>78</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D79">
         <v>74</v>
@@ -3478,7 +3478,7 @@
         <v>79</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D80">
         <v>75</v>
@@ -3492,7 +3492,7 @@
         <v>80</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D81">
         <v>76</v>
@@ -3506,7 +3506,7 @@
         <v>81</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D82">
         <v>77</v>
@@ -3520,7 +3520,7 @@
         <v>82</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D83">
         <v>78</v>
@@ -3534,7 +3534,7 @@
         <v>83</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D84">
         <v>79</v>
@@ -3548,7 +3548,7 @@
         <v>84</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D85">
         <v>80</v>
@@ -3562,7 +3562,7 @@
         <v>85</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D86">
         <v>81</v>
@@ -3576,7 +3576,7 @@
         <v>86</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D87">
         <v>82</v>
@@ -3590,7 +3590,7 @@
         <v>87</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D88">
         <v>83</v>
@@ -3604,7 +3604,7 @@
         <v>88</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D89">
         <v>84</v>
@@ -3618,7 +3618,7 @@
         <v>89</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D90">
         <v>85</v>
@@ -3632,7 +3632,7 @@
         <v>90</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D91">
         <v>86</v>
@@ -3646,7 +3646,7 @@
         <v>91</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D92">
         <v>87</v>
@@ -3660,7 +3660,7 @@
         <v>92</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D93">
         <v>88</v>
@@ -3674,7 +3674,7 @@
         <v>93</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D94">
         <v>89</v>
@@ -3688,7 +3688,7 @@
         <v>94</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D95">
         <v>90</v>
@@ -3702,7 +3702,7 @@
         <v>95</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D96">
         <v>91</v>
@@ -3716,7 +3716,7 @@
         <v>96</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D97">
         <v>92</v>
@@ -3730,7 +3730,7 @@
         <v>97</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D98">
         <v>93</v>
@@ -3757,7 +3757,7 @@
         <v>99</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D101">
         <v>96</v>
@@ -3771,7 +3771,7 @@
         <v>100</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D102">
         <v>97</v>
@@ -3785,7 +3785,7 @@
         <v>101</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D103">
         <v>98</v>
@@ -3799,7 +3799,7 @@
         <v>102</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D104">
         <v>99</v>
@@ -3813,7 +3813,7 @@
         <v>103</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D105">
         <v>100</v>
@@ -3827,7 +3827,7 @@
         <v>104</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D106">
         <v>101</v>
@@ -3841,7 +3841,7 @@
         <v>105</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D107">
         <v>102</v>
@@ -3855,7 +3855,7 @@
         <v>106</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D108">
         <v>103</v>
@@ -3869,7 +3869,7 @@
         <v>107</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D109">
         <v>104</v>
@@ -3883,7 +3883,7 @@
         <v>108</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D110">
         <v>105</v>
@@ -3897,7 +3897,7 @@
         <v>109</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D111">
         <v>106</v>
@@ -3911,7 +3911,7 @@
         <v>110</v>
       </c>
       <c r="C112" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D112">
         <v>107</v>
@@ -3925,7 +3925,7 @@
         <v>111</v>
       </c>
       <c r="C113" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D113">
         <v>108</v>
@@ -3939,7 +3939,7 @@
         <v>112</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D114">
         <v>109</v>
@@ -3953,7 +3953,7 @@
         <v>113</v>
       </c>
       <c r="C115" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D115">
         <v>110</v>
@@ -3967,7 +3967,7 @@
         <v>114</v>
       </c>
       <c r="C116" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D116">
         <v>111</v>
@@ -3981,7 +3981,7 @@
         <v>115</v>
       </c>
       <c r="C117" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D117">
         <v>112</v>
@@ -3995,7 +3995,7 @@
         <v>116</v>
       </c>
       <c r="C118" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D118">
         <v>113</v>
@@ -4009,7 +4009,7 @@
         <v>117</v>
       </c>
       <c r="C119" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D119">
         <v>114</v>
@@ -4023,7 +4023,7 @@
         <v>118</v>
       </c>
       <c r="C120" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D120">
         <v>115</v>
@@ -4037,7 +4037,7 @@
         <v>119</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D121">
         <v>116</v>
@@ -4051,7 +4051,7 @@
         <v>120</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D122">
         <v>117</v>
@@ -4065,7 +4065,7 @@
         <v>121</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D123">
         <v>118</v>
@@ -4079,7 +4079,7 @@
         <v>122</v>
       </c>
       <c r="C124" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D124">
         <v>119</v>
@@ -4093,7 +4093,7 @@
         <v>123</v>
       </c>
       <c r="C125" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D125">
         <v>120</v>
@@ -4107,7 +4107,7 @@
         <v>124</v>
       </c>
       <c r="C126" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D126">
         <v>121</v>
@@ -4121,7 +4121,7 @@
         <v>125</v>
       </c>
       <c r="C127" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D127">
         <v>122</v>
@@ -4135,7 +4135,7 @@
         <v>126</v>
       </c>
       <c r="C128" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D128">
         <v>123</v>
@@ -4149,7 +4149,7 @@
         <v>127</v>
       </c>
       <c r="C129" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D129">
         <v>124</v>
@@ -4163,7 +4163,7 @@
         <v>128</v>
       </c>
       <c r="C130" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D130">
         <v>125</v>
@@ -4177,7 +4177,7 @@
         <v>129</v>
       </c>
       <c r="C131" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D131">
         <v>126</v>
@@ -4191,7 +4191,7 @@
         <v>130</v>
       </c>
       <c r="C132" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D132">
         <v>127</v>
@@ -4205,7 +4205,7 @@
         <v>131</v>
       </c>
       <c r="C133" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D133">
         <v>128</v>
@@ -4219,7 +4219,7 @@
         <v>132</v>
       </c>
       <c r="C134" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D134">
         <v>129</v>
@@ -4233,7 +4233,7 @@
         <v>133</v>
       </c>
       <c r="C135" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D135">
         <v>130</v>
@@ -4247,7 +4247,7 @@
         <v>134</v>
       </c>
       <c r="C136" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D136">
         <v>131</v>
@@ -4273,7 +4273,7 @@
         <v>136</v>
       </c>
       <c r="C139" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D139">
         <v>134</v>
@@ -4287,7 +4287,7 @@
         <v>137</v>
       </c>
       <c r="C140" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D140">
         <v>135</v>
@@ -4301,7 +4301,7 @@
         <v>138</v>
       </c>
       <c r="C141" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D141">
         <v>136</v>
@@ -4315,7 +4315,7 @@
         <v>139</v>
       </c>
       <c r="C142" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D142">
         <v>137</v>
@@ -4329,7 +4329,7 @@
         <v>140</v>
       </c>
       <c r="C143" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D143">
         <v>138</v>
@@ -4343,7 +4343,7 @@
         <v>141</v>
       </c>
       <c r="C144" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D144">
         <v>139</v>
@@ -4357,7 +4357,7 @@
         <v>142</v>
       </c>
       <c r="C145" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D145">
         <v>140</v>
@@ -4371,7 +4371,7 @@
         <v>143</v>
       </c>
       <c r="C146" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D146">
         <v>141</v>
@@ -4385,7 +4385,7 @@
         <v>144</v>
       </c>
       <c r="C147" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D147">
         <v>142</v>
@@ -4399,7 +4399,7 @@
         <v>145</v>
       </c>
       <c r="C148" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D148">
         <v>143</v>
@@ -4413,7 +4413,7 @@
         <v>146</v>
       </c>
       <c r="C149" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D149">
         <v>144</v>
@@ -4427,7 +4427,7 @@
         <v>147</v>
       </c>
       <c r="C150" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D150">
         <v>145</v>
@@ -4441,7 +4441,7 @@
         <v>148</v>
       </c>
       <c r="C151" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D151">
         <v>146</v>
@@ -4455,7 +4455,7 @@
         <v>149</v>
       </c>
       <c r="C152" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D152">
         <v>147</v>
@@ -4469,7 +4469,7 @@
         <v>150</v>
       </c>
       <c r="C153" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D153">
         <v>148</v>
@@ -4483,7 +4483,7 @@
         <v>151</v>
       </c>
       <c r="C154" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D154">
         <v>149</v>
@@ -4497,7 +4497,7 @@
         <v>152</v>
       </c>
       <c r="C155" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D155">
         <v>150</v>
@@ -4511,7 +4511,7 @@
         <v>153</v>
       </c>
       <c r="C156" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D156">
         <v>151</v>
@@ -4525,7 +4525,7 @@
         <v>154</v>
       </c>
       <c r="C157" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D157">
         <v>152</v>
@@ -4539,7 +4539,7 @@
         <v>155</v>
       </c>
       <c r="C158" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D158">
         <v>153</v>
@@ -4553,7 +4553,7 @@
         <v>156</v>
       </c>
       <c r="C159" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D159">
         <v>154</v>
@@ -4567,7 +4567,7 @@
         <v>157</v>
       </c>
       <c r="C160" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D160">
         <v>155</v>
@@ -4581,7 +4581,7 @@
         <v>158</v>
       </c>
       <c r="C161" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D161">
         <v>156</v>
@@ -4595,7 +4595,7 @@
         <v>159</v>
       </c>
       <c r="C162" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D162">
         <v>157</v>
@@ -4609,7 +4609,7 @@
         <v>160</v>
       </c>
       <c r="C163" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D163">
         <v>158</v>
@@ -4623,7 +4623,7 @@
         <v>161</v>
       </c>
       <c r="C164" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D164">
         <v>159</v>
@@ -4637,7 +4637,7 @@
         <v>162</v>
       </c>
       <c r="C165" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D165">
         <v>160</v>
@@ -4651,7 +4651,7 @@
         <v>163</v>
       </c>
       <c r="C166" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D166">
         <v>161</v>
@@ -4665,7 +4665,7 @@
         <v>164</v>
       </c>
       <c r="C167" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D167">
         <v>162</v>
@@ -4679,7 +4679,7 @@
         <v>165</v>
       </c>
       <c r="C168" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D168">
         <v>163</v>
@@ -4693,7 +4693,7 @@
         <v>166</v>
       </c>
       <c r="C169" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D169">
         <v>164</v>
@@ -4707,7 +4707,7 @@
         <v>167</v>
       </c>
       <c r="C170" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D170">
         <v>165</v>
@@ -4721,7 +4721,7 @@
         <v>168</v>
       </c>
       <c r="C171" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D171">
         <v>166</v>
@@ -4735,7 +4735,7 @@
         <v>169</v>
       </c>
       <c r="C172" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D172">
         <v>167</v>
@@ -4749,7 +4749,7 @@
         <v>170</v>
       </c>
       <c r="C173" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D173">
         <v>168</v>
@@ -4763,7 +4763,7 @@
         <v>171</v>
       </c>
       <c r="C174" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D174">
         <v>169</v>
@@ -4789,7 +4789,7 @@
         <v>173</v>
       </c>
       <c r="C177" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D177">
         <v>172</v>
@@ -4803,7 +4803,7 @@
         <v>174</v>
       </c>
       <c r="C178" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D178">
         <v>173</v>
@@ -4817,7 +4817,7 @@
         <v>175</v>
       </c>
       <c r="C179" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D179">
         <v>174</v>
@@ -4831,7 +4831,7 @@
         <v>176</v>
       </c>
       <c r="C180" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D180">
         <v>175</v>
@@ -4845,7 +4845,7 @@
         <v>177</v>
       </c>
       <c r="C181" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D181">
         <v>176</v>
@@ -4859,7 +4859,7 @@
         <v>178</v>
       </c>
       <c r="C182" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D182">
         <v>177</v>
@@ -4873,7 +4873,7 @@
         <v>179</v>
       </c>
       <c r="C183" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D183">
         <v>178</v>
@@ -4887,7 +4887,7 @@
         <v>180</v>
       </c>
       <c r="C184" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D184">
         <v>179</v>
@@ -4901,7 +4901,7 @@
         <v>181</v>
       </c>
       <c r="C185" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D185">
         <v>180</v>
@@ -4915,7 +4915,7 @@
         <v>182</v>
       </c>
       <c r="C186" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D186">
         <v>181</v>
@@ -4929,7 +4929,7 @@
         <v>183</v>
       </c>
       <c r="C187" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D187">
         <v>182</v>
@@ -4943,7 +4943,7 @@
         <v>184</v>
       </c>
       <c r="C188" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D188">
         <v>183</v>
@@ -4957,7 +4957,7 @@
         <v>185</v>
       </c>
       <c r="C189" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D189">
         <v>184</v>
@@ -4971,7 +4971,7 @@
         <v>186</v>
       </c>
       <c r="C190" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D190">
         <v>185</v>
@@ -4985,7 +4985,7 @@
         <v>187</v>
       </c>
       <c r="C191" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D191">
         <v>186</v>
@@ -4999,7 +4999,7 @@
         <v>188</v>
       </c>
       <c r="C192" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D192">
         <v>187</v>
@@ -5013,7 +5013,7 @@
         <v>189</v>
       </c>
       <c r="C193" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D193">
         <v>188</v>
@@ -5027,7 +5027,7 @@
         <v>190</v>
       </c>
       <c r="C194" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D194">
         <v>189</v>
@@ -5041,7 +5041,7 @@
         <v>191</v>
       </c>
       <c r="C195" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D195">
         <v>190</v>
@@ -5055,7 +5055,7 @@
         <v>192</v>
       </c>
       <c r="C196" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D196">
         <v>191</v>
@@ -5069,7 +5069,7 @@
         <v>193</v>
       </c>
       <c r="C197" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D197">
         <v>192</v>
@@ -5083,7 +5083,7 @@
         <v>194</v>
       </c>
       <c r="C198" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D198">
         <v>193</v>
@@ -5097,7 +5097,7 @@
         <v>195</v>
       </c>
       <c r="C199" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D199">
         <v>194</v>
@@ -5111,7 +5111,7 @@
         <v>196</v>
       </c>
       <c r="C200" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D200">
         <v>195</v>
@@ -5125,7 +5125,7 @@
         <v>197</v>
       </c>
       <c r="C201" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D201">
         <v>196</v>
@@ -5139,7 +5139,7 @@
         <v>198</v>
       </c>
       <c r="C202" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D202">
         <v>197</v>
@@ -5153,7 +5153,7 @@
         <v>199</v>
       </c>
       <c r="C203" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D203">
         <v>198</v>
@@ -5167,7 +5167,7 @@
         <v>200</v>
       </c>
       <c r="C204" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D204">
         <v>199</v>
@@ -5181,7 +5181,7 @@
         <v>201</v>
       </c>
       <c r="C205" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D205">
         <v>200</v>
@@ -5195,7 +5195,7 @@
         <v>202</v>
       </c>
       <c r="C206" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D206">
         <v>201</v>
@@ -5209,7 +5209,7 @@
         <v>203</v>
       </c>
       <c r="C207" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D207">
         <v>202</v>
@@ -5223,7 +5223,7 @@
         <v>204</v>
       </c>
       <c r="C208" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D208">
         <v>203</v>
@@ -5237,7 +5237,7 @@
         <v>205</v>
       </c>
       <c r="C209" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D209">
         <v>204</v>
@@ -5251,7 +5251,7 @@
         <v>206</v>
       </c>
       <c r="C210" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D210">
         <v>205</v>
@@ -5265,7 +5265,7 @@
         <v>207</v>
       </c>
       <c r="C211" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D211">
         <v>206</v>
@@ -5295,7 +5295,7 @@
         <v>209</v>
       </c>
       <c r="C214" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D214">
         <v>209</v>
@@ -5309,7 +5309,7 @@
         <v>210</v>
       </c>
       <c r="C215" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D215">
         <v>210</v>
@@ -5323,7 +5323,7 @@
         <v>211</v>
       </c>
       <c r="C216" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D216">
         <v>211</v>
@@ -5337,7 +5337,7 @@
         <v>212</v>
       </c>
       <c r="C217" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D217">
         <v>212</v>
@@ -5351,7 +5351,7 @@
         <v>213</v>
       </c>
       <c r="C218" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D218">
         <v>213</v>
@@ -5365,7 +5365,7 @@
         <v>214</v>
       </c>
       <c r="C219" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D219">
         <v>214</v>
@@ -5379,7 +5379,7 @@
         <v>215</v>
       </c>
       <c r="C220" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D220">
         <v>215</v>
@@ -5393,7 +5393,7 @@
         <v>216</v>
       </c>
       <c r="C221" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D221">
         <v>216</v>
@@ -5407,7 +5407,7 @@
         <v>217</v>
       </c>
       <c r="C222" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D222">
         <v>217</v>
@@ -5421,7 +5421,7 @@
         <v>218</v>
       </c>
       <c r="C223" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D223">
         <v>218</v>
@@ -5435,7 +5435,7 @@
         <v>219</v>
       </c>
       <c r="C224" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D224">
         <v>219</v>
@@ -5449,7 +5449,7 @@
         <v>220</v>
       </c>
       <c r="C225" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D225">
         <v>220</v>
@@ -5463,7 +5463,7 @@
         <v>221</v>
       </c>
       <c r="C226" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D226">
         <v>221</v>
@@ -5477,7 +5477,7 @@
         <v>222</v>
       </c>
       <c r="C227" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D227">
         <v>222</v>
@@ -5491,7 +5491,7 @@
         <v>223</v>
       </c>
       <c r="C228" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D228">
         <v>223</v>
@@ -5505,7 +5505,7 @@
         <v>224</v>
       </c>
       <c r="C229" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D229">
         <v>224</v>
@@ -5519,7 +5519,7 @@
         <v>225</v>
       </c>
       <c r="C230" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D230">
         <v>225</v>
@@ -5533,7 +5533,7 @@
         <v>226</v>
       </c>
       <c r="C231" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D231">
         <v>226</v>
@@ -5547,7 +5547,7 @@
         <v>227</v>
       </c>
       <c r="C232" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D232">
         <v>227</v>
@@ -5561,7 +5561,7 @@
         <v>228</v>
       </c>
       <c r="C233" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D233">
         <v>228</v>
@@ -5575,7 +5575,7 @@
         <v>229</v>
       </c>
       <c r="C234" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D234">
         <v>229</v>
@@ -5589,7 +5589,7 @@
         <v>230</v>
       </c>
       <c r="C235" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D235">
         <v>230</v>
@@ -5617,7 +5617,7 @@
         <v>232</v>
       </c>
       <c r="C238" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D238">
         <v>233</v>
@@ -5631,7 +5631,7 @@
         <v>233</v>
       </c>
       <c r="C239" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D239">
         <v>234</v>
@@ -5645,7 +5645,7 @@
         <v>234</v>
       </c>
       <c r="C240" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D240">
         <v>235</v>
@@ -5659,7 +5659,7 @@
         <v>235</v>
       </c>
       <c r="C241" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D241">
         <v>236</v>
@@ -5673,7 +5673,7 @@
         <v>236</v>
       </c>
       <c r="C242" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D242">
         <v>237</v>
@@ -5687,7 +5687,7 @@
         <v>237</v>
       </c>
       <c r="C243" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D243">
         <v>238</v>
@@ -5701,7 +5701,7 @@
         <v>238</v>
       </c>
       <c r="C244" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D244">
         <v>239</v>
@@ -5715,7 +5715,7 @@
         <v>239</v>
       </c>
       <c r="C245" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D245">
         <v>240</v>
@@ -5729,7 +5729,7 @@
         <v>240</v>
       </c>
       <c r="C246" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D246">
         <v>241</v>
@@ -5743,7 +5743,7 @@
         <v>241</v>
       </c>
       <c r="C247" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D247">
         <v>242</v>
@@ -5757,7 +5757,7 @@
         <v>242</v>
       </c>
       <c r="C248" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D248">
         <v>243</v>
@@ -5771,7 +5771,7 @@
         <v>243</v>
       </c>
       <c r="C249" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D249">
         <v>244</v>
@@ -5785,7 +5785,7 @@
         <v>244</v>
       </c>
       <c r="C250" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D250">
         <v>245</v>
@@ -5799,7 +5799,7 @@
         <v>245</v>
       </c>
       <c r="C251" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D251">
         <v>246</v>
@@ -5813,7 +5813,7 @@
         <v>246</v>
       </c>
       <c r="C252" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D252">
         <v>247</v>
@@ -5827,7 +5827,7 @@
         <v>247</v>
       </c>
       <c r="C253" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D253">
         <v>248</v>
@@ -5841,7 +5841,7 @@
         <v>248</v>
       </c>
       <c r="C254" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D254">
         <v>249</v>
@@ -5855,7 +5855,7 @@
         <v>249</v>
       </c>
       <c r="C255" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D255">
         <v>250</v>
@@ -5869,7 +5869,7 @@
         <v>250</v>
       </c>
       <c r="C256" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D256">
         <v>251</v>
@@ -5883,7 +5883,7 @@
         <v>251</v>
       </c>
       <c r="C257" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D257">
         <v>252</v>
@@ -5897,7 +5897,7 @@
         <v>252</v>
       </c>
       <c r="C258" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D258">
         <v>253</v>
@@ -5911,7 +5911,7 @@
         <v>253</v>
       </c>
       <c r="C259" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D259">
         <v>254</v>
@@ -5925,7 +5925,7 @@
         <v>254</v>
       </c>
       <c r="C260" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D260">
         <v>255</v>
@@ -5939,7 +5939,7 @@
         <v>255</v>
       </c>
       <c r="C261" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D261">
         <v>256</v>
@@ -5953,7 +5953,7 @@
         <v>256</v>
       </c>
       <c r="C262" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D262">
         <v>257</v>
@@ -5967,7 +5967,7 @@
         <v>257</v>
       </c>
       <c r="C263" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D263">
         <v>258</v>
@@ -5981,7 +5981,7 @@
         <v>258</v>
       </c>
       <c r="C264" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D264">
         <v>259</v>
@@ -5995,7 +5995,7 @@
         <v>259</v>
       </c>
       <c r="C265" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D265">
         <v>260</v>
@@ -6009,7 +6009,7 @@
         <v>260</v>
       </c>
       <c r="C266" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D266">
         <v>261</v>
@@ -6023,7 +6023,7 @@
         <v>261</v>
       </c>
       <c r="C267" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D267">
         <v>262</v>
@@ -6037,7 +6037,7 @@
         <v>262</v>
       </c>
       <c r="C268" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D268">
         <v>263</v>
@@ -6051,7 +6051,7 @@
         <v>263</v>
       </c>
       <c r="C269" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D269">
         <v>264</v>
@@ -6065,7 +6065,7 @@
         <v>264</v>
       </c>
       <c r="C270" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D270">
         <v>265</v>
@@ -6079,7 +6079,7 @@
         <v>88</v>
       </c>
       <c r="C271" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D271">
         <v>266</v>
@@ -6093,7 +6093,7 @@
         <v>265</v>
       </c>
       <c r="C272" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D272">
         <v>267</v>
@@ -6121,7 +6121,7 @@
         <v>267</v>
       </c>
       <c r="C275" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D275">
         <v>270</v>
@@ -6135,7 +6135,7 @@
         <v>268</v>
       </c>
       <c r="C276" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D276">
         <v>271</v>
@@ -6149,7 +6149,7 @@
         <v>269</v>
       </c>
       <c r="C277" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D277">
         <v>272</v>
@@ -6163,7 +6163,7 @@
         <v>270</v>
       </c>
       <c r="C278" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D278">
         <v>273</v>
@@ -6177,7 +6177,7 @@
         <v>271</v>
       </c>
       <c r="C279" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D279">
         <v>274</v>
@@ -6191,7 +6191,7 @@
         <v>272</v>
       </c>
       <c r="C280" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D280">
         <v>275</v>
@@ -6205,7 +6205,7 @@
         <v>273</v>
       </c>
       <c r="C281" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D281">
         <v>276</v>
@@ -6219,7 +6219,7 @@
         <v>274</v>
       </c>
       <c r="C282" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D282">
         <v>277</v>
@@ -6233,7 +6233,7 @@
         <v>275</v>
       </c>
       <c r="C283" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D283">
         <v>278</v>
@@ -6247,7 +6247,7 @@
         <v>276</v>
       </c>
       <c r="C284" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D284">
         <v>279</v>
@@ -6261,7 +6261,7 @@
         <v>277</v>
       </c>
       <c r="C285" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D285">
         <v>280</v>
@@ -6275,7 +6275,7 @@
         <v>278</v>
       </c>
       <c r="C286" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D286">
         <v>281</v>
@@ -6289,7 +6289,7 @@
         <v>279</v>
       </c>
       <c r="C287" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D287">
         <v>282</v>
@@ -6303,7 +6303,7 @@
         <v>280</v>
       </c>
       <c r="C288" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D288">
         <v>283</v>
@@ -6317,7 +6317,7 @@
         <v>281</v>
       </c>
       <c r="C289" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D289">
         <v>284</v>
@@ -6331,7 +6331,7 @@
         <v>282</v>
       </c>
       <c r="C290" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D290">
         <v>285</v>
@@ -6345,7 +6345,7 @@
         <v>283</v>
       </c>
       <c r="C291" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D291">
         <v>286</v>
@@ -6359,7 +6359,7 @@
         <v>284</v>
       </c>
       <c r="C292" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D292">
         <v>287</v>
@@ -6373,7 +6373,7 @@
         <v>285</v>
       </c>
       <c r="C293" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D293">
         <v>288</v>
@@ -6401,7 +6401,7 @@
         <v>287</v>
       </c>
       <c r="C296" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D296">
         <v>291</v>
@@ -6415,7 +6415,7 @@
         <v>288</v>
       </c>
       <c r="C297" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D297">
         <v>292</v>
@@ -6429,7 +6429,7 @@
         <v>289</v>
       </c>
       <c r="C298" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D298">
         <v>293</v>
@@ -6443,7 +6443,7 @@
         <v>290</v>
       </c>
       <c r="C299" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D299">
         <v>294</v>
@@ -6457,7 +6457,7 @@
         <v>291</v>
       </c>
       <c r="C300" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D300">
         <v>295</v>
@@ -6471,7 +6471,7 @@
         <v>292</v>
       </c>
       <c r="C301" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D301">
         <v>296</v>
@@ -6485,7 +6485,7 @@
         <v>293</v>
       </c>
       <c r="C302" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D302">
         <v>297</v>
@@ -6499,7 +6499,7 @@
         <v>294</v>
       </c>
       <c r="C303" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D303">
         <v>298</v>
@@ -6513,7 +6513,7 @@
         <v>295</v>
       </c>
       <c r="C304" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D304">
         <v>299</v>
@@ -6527,7 +6527,7 @@
         <v>296</v>
       </c>
       <c r="C305" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D305">
         <v>300</v>
@@ -6541,7 +6541,7 @@
         <v>297</v>
       </c>
       <c r="C306" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D306">
         <v>301</v>
@@ -6555,7 +6555,7 @@
         <v>298</v>
       </c>
       <c r="C307" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D307">
         <v>302</v>
@@ -6569,7 +6569,7 @@
         <v>299</v>
       </c>
       <c r="C308" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D308">
         <v>303</v>
@@ -6583,7 +6583,7 @@
         <v>300</v>
       </c>
       <c r="C309" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D309">
         <v>304</v>
@@ -6597,7 +6597,7 @@
         <v>301</v>
       </c>
       <c r="C310" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D310">
         <v>305</v>
@@ -6611,7 +6611,7 @@
         <v>302</v>
       </c>
       <c r="C311" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D311">
         <v>306</v>
@@ -6625,7 +6625,7 @@
         <v>303</v>
       </c>
       <c r="C312" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D312">
         <v>307</v>
@@ -6639,7 +6639,7 @@
         <v>304</v>
       </c>
       <c r="C313" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D313">
         <v>308</v>
@@ -6653,7 +6653,7 @@
         <v>305</v>
       </c>
       <c r="C314" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D314">
         <v>309</v>
@@ -6667,7 +6667,7 @@
         <v>306</v>
       </c>
       <c r="C315" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D315">
         <v>310</v>
@@ -6681,7 +6681,7 @@
         <v>307</v>
       </c>
       <c r="C316" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D316">
         <v>311</v>
@@ -6695,7 +6695,7 @@
         <v>308</v>
       </c>
       <c r="C317" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D317">
         <v>312</v>
@@ -6709,7 +6709,7 @@
         <v>309</v>
       </c>
       <c r="C318" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D318">
         <v>313</v>
@@ -6723,7 +6723,7 @@
         <v>310</v>
       </c>
       <c r="C319" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D319">
         <v>314</v>
@@ -6737,7 +6737,7 @@
         <v>311</v>
       </c>
       <c r="C320" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D320">
         <v>315</v>
@@ -6751,7 +6751,7 @@
         <v>312</v>
       </c>
       <c r="C321" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D321">
         <v>316</v>
@@ -6765,7 +6765,7 @@
         <v>313</v>
       </c>
       <c r="C322" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D322">
         <v>317</v>
@@ -6779,7 +6779,7 @@
         <v>314</v>
       </c>
       <c r="C323" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D323">
         <v>318</v>
@@ -6793,7 +6793,7 @@
         <v>315</v>
       </c>
       <c r="C324" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D324">
         <v>319</v>
@@ -6807,7 +6807,7 @@
         <v>316</v>
       </c>
       <c r="C325" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D325">
         <v>320</v>
@@ -6821,7 +6821,7 @@
         <v>317</v>
       </c>
       <c r="C326" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D326">
         <v>321</v>
@@ -6835,7 +6835,7 @@
         <v>318</v>
       </c>
       <c r="C327" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D327">
         <v>322</v>
@@ -6849,7 +6849,7 @@
         <v>319</v>
       </c>
       <c r="C328" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D328">
         <v>323</v>
@@ -6863,7 +6863,7 @@
         <v>320</v>
       </c>
       <c r="C329" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D329">
         <v>324</v>
@@ -6877,7 +6877,7 @@
         <v>321</v>
       </c>
       <c r="C330" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D330">
         <v>325</v>
@@ -6891,7 +6891,7 @@
         <v>322</v>
       </c>
       <c r="C331" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D331">
         <v>326</v>
@@ -6905,7 +6905,7 @@
         <v>323</v>
       </c>
       <c r="C332" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D332">
         <v>327</v>
@@ -6919,7 +6919,7 @@
         <v>324</v>
       </c>
       <c r="C333" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D333">
         <v>328</v>
@@ -6947,7 +6947,7 @@
         <v>326</v>
       </c>
       <c r="C336" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D336">
         <v>331</v>
@@ -6961,7 +6961,7 @@
         <v>327</v>
       </c>
       <c r="C337" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D337">
         <v>332</v>
@@ -6975,7 +6975,7 @@
         <v>328</v>
       </c>
       <c r="C338" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D338">
         <v>333</v>
@@ -6989,7 +6989,7 @@
         <v>329</v>
       </c>
       <c r="C339" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D339">
         <v>334</v>
@@ -7003,7 +7003,7 @@
         <v>330</v>
       </c>
       <c r="C340" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D340">
         <v>335</v>
@@ -7017,7 +7017,7 @@
         <v>331</v>
       </c>
       <c r="C341" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D341">
         <v>336</v>
@@ -7031,7 +7031,7 @@
         <v>332</v>
       </c>
       <c r="C342" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D342">
         <v>337</v>
@@ -7045,7 +7045,7 @@
         <v>333</v>
       </c>
       <c r="C343" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D343">
         <v>338</v>
@@ -7059,7 +7059,7 @@
         <v>334</v>
       </c>
       <c r="C344" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D344">
         <v>339</v>
@@ -7073,7 +7073,7 @@
         <v>335</v>
       </c>
       <c r="C345" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D345">
         <v>340</v>
@@ -7087,7 +7087,7 @@
         <v>336</v>
       </c>
       <c r="C346" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D346">
         <v>341</v>
@@ -7101,7 +7101,7 @@
         <v>337</v>
       </c>
       <c r="C347" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D347">
         <v>342</v>
@@ -7115,7 +7115,7 @@
         <v>338</v>
       </c>
       <c r="C348" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D348">
         <v>343</v>
@@ -7129,7 +7129,7 @@
         <v>339</v>
       </c>
       <c r="C349" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D349">
         <v>344</v>
@@ -7143,7 +7143,7 @@
         <v>340</v>
       </c>
       <c r="C350" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D350">
         <v>345</v>
@@ -7157,7 +7157,7 @@
         <v>341</v>
       </c>
       <c r="C351" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D351">
         <v>346</v>
@@ -7171,7 +7171,7 @@
         <v>342</v>
       </c>
       <c r="C352" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D352">
         <v>347</v>
@@ -7185,7 +7185,7 @@
         <v>343</v>
       </c>
       <c r="C353" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D353">
         <v>348</v>
@@ -7213,7 +7213,7 @@
         <v>345</v>
       </c>
       <c r="C356" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D356">
         <v>351</v>
@@ -7227,7 +7227,7 @@
         <v>346</v>
       </c>
       <c r="C357" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D357">
         <v>352</v>
@@ -7241,7 +7241,7 @@
         <v>347</v>
       </c>
       <c r="C358" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D358">
         <v>353</v>
@@ -7255,7 +7255,7 @@
         <v>348</v>
       </c>
       <c r="C359" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D359">
         <v>354</v>
@@ -7269,7 +7269,7 @@
         <v>349</v>
       </c>
       <c r="C360" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D360">
         <v>355</v>
@@ -7283,7 +7283,7 @@
         <v>350</v>
       </c>
       <c r="C361" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D361">
         <v>356</v>
@@ -7297,7 +7297,7 @@
         <v>351</v>
       </c>
       <c r="C362" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D362">
         <v>357</v>
@@ -7311,7 +7311,7 @@
         <v>352</v>
       </c>
       <c r="C363" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D363">
         <v>358</v>
@@ -7325,7 +7325,7 @@
         <v>353</v>
       </c>
       <c r="C364" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D364">
         <v>359</v>
@@ -7339,7 +7339,7 @@
         <v>354</v>
       </c>
       <c r="C365" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D365">
         <v>360</v>
@@ -7353,7 +7353,7 @@
         <v>355</v>
       </c>
       <c r="C366" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D366">
         <v>361</v>
@@ -7367,7 +7367,7 @@
         <v>356</v>
       </c>
       <c r="C367" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D367">
         <v>362</v>
@@ -7381,7 +7381,7 @@
         <v>357</v>
       </c>
       <c r="C368" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D368">
         <v>363</v>
@@ -7395,7 +7395,7 @@
         <v>358</v>
       </c>
       <c r="C369" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D369">
         <v>364</v>
@@ -7409,7 +7409,7 @@
         <v>359</v>
       </c>
       <c r="C370" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D370">
         <v>365</v>
@@ -7423,7 +7423,7 @@
         <v>360</v>
       </c>
       <c r="C371" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D371">
         <v>366</v>
@@ -7437,7 +7437,7 @@
         <v>361</v>
       </c>
       <c r="C372" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D372">
         <v>367</v>
@@ -7451,7 +7451,7 @@
         <v>362</v>
       </c>
       <c r="C373" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D373">
         <v>368</v>
@@ -7465,7 +7465,7 @@
         <v>363</v>
       </c>
       <c r="C374" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D374">
         <v>369</v>
@@ -7479,7 +7479,7 @@
         <v>364</v>
       </c>
       <c r="C375" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D375">
         <v>370</v>
@@ -7493,7 +7493,7 @@
         <v>365</v>
       </c>
       <c r="C376" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D376">
         <v>371</v>
@@ -7507,7 +7507,7 @@
         <v>366</v>
       </c>
       <c r="C377" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D377">
         <v>372</v>
@@ -7521,7 +7521,7 @@
         <v>367</v>
       </c>
       <c r="C378" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D378">
         <v>373</v>
@@ -7535,7 +7535,7 @@
         <v>368</v>
       </c>
       <c r="C379" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D379">
         <v>374</v>
@@ -7549,7 +7549,7 @@
         <v>369</v>
       </c>
       <c r="C380" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D380">
         <v>375</v>
@@ -7563,7 +7563,7 @@
         <v>370</v>
       </c>
       <c r="C381" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D381">
         <v>376</v>
@@ -7577,7 +7577,7 @@
         <v>371</v>
       </c>
       <c r="C382" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D382">
         <v>377</v>
@@ -7591,7 +7591,7 @@
         <v>372</v>
       </c>
       <c r="C383" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D383">
         <v>378</v>
@@ -7605,7 +7605,7 @@
         <v>373</v>
       </c>
       <c r="C384" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D384">
         <v>379</v>
@@ -7619,7 +7619,7 @@
         <v>374</v>
       </c>
       <c r="C385" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D385">
         <v>380</v>
@@ -7633,7 +7633,7 @@
         <v>375</v>
       </c>
       <c r="C386" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D386">
         <v>381</v>
@@ -7647,7 +7647,7 @@
         <v>376</v>
       </c>
       <c r="C387" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D387">
         <v>382</v>
@@ -7661,7 +7661,7 @@
         <v>377</v>
       </c>
       <c r="C388" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D388">
         <v>383</v>
@@ -7675,7 +7675,7 @@
         <v>378</v>
       </c>
       <c r="C389" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D389">
         <v>384</v>
@@ -7689,7 +7689,7 @@
         <v>378</v>
       </c>
       <c r="C390" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D390">
         <v>385</v>
@@ -7703,7 +7703,7 @@
         <v>379</v>
       </c>
       <c r="C391" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D391">
         <v>386</v>
@@ -7717,7 +7717,7 @@
         <v>380</v>
       </c>
       <c r="C392" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D392">
         <v>387</v>
@@ -7731,7 +7731,7 @@
         <v>381</v>
       </c>
       <c r="C393" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D393">
         <v>388</v>
@@ -7745,7 +7745,7 @@
         <v>382</v>
       </c>
       <c r="C394" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D394">
         <v>389</v>
@@ -7759,7 +7759,7 @@
         <v>383</v>
       </c>
       <c r="C395" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D395">
         <v>390</v>
@@ -7773,7 +7773,7 @@
         <v>384</v>
       </c>
       <c r="C396" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D396">
         <v>391</v>
@@ -7787,7 +7787,7 @@
         <v>385</v>
       </c>
       <c r="C397" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D397">
         <v>392</v>
@@ -7801,7 +7801,7 @@
         <v>386</v>
       </c>
       <c r="C398" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D398">
         <v>393</v>
@@ -7815,7 +7815,7 @@
         <v>387</v>
       </c>
       <c r="C399" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D399">
         <v>394</v>
@@ -7843,7 +7843,7 @@
         <v>389</v>
       </c>
       <c r="C402" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D402">
         <v>397</v>
@@ -7857,7 +7857,7 @@
         <v>390</v>
       </c>
       <c r="C403" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D403">
         <v>398</v>
@@ -7871,7 +7871,7 @@
         <v>391</v>
       </c>
       <c r="C404" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D404">
         <v>399</v>
@@ -7885,7 +7885,7 @@
         <v>90</v>
       </c>
       <c r="C405" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D405">
         <v>400</v>
@@ -7899,7 +7899,7 @@
         <v>392</v>
       </c>
       <c r="C406" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D406">
         <v>401</v>
@@ -7913,7 +7913,7 @@
         <v>393</v>
       </c>
       <c r="C407" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D407">
         <v>402</v>
@@ -7941,7 +7941,7 @@
         <v>395</v>
       </c>
       <c r="C410" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D410">
         <v>405</v>
@@ -7955,7 +7955,7 @@
         <v>396</v>
       </c>
       <c r="C411" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D411">
         <v>406</v>
@@ -7969,7 +7969,7 @@
         <v>397</v>
       </c>
       <c r="C412" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D412">
         <v>407</v>
@@ -7983,7 +7983,7 @@
         <v>398</v>
       </c>
       <c r="C413" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D413">
         <v>408</v>
@@ -7997,7 +7997,7 @@
         <v>399</v>
       </c>
       <c r="C414" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D414">
         <v>409</v>
@@ -8011,7 +8011,7 @@
         <v>400</v>
       </c>
       <c r="C415" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D415">
         <v>410</v>
@@ -8025,7 +8025,7 @@
         <v>401</v>
       </c>
       <c r="C416" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D416">
         <v>411</v>
@@ -8039,7 +8039,7 @@
         <v>274</v>
       </c>
       <c r="C417" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D417">
         <v>412</v>
@@ -8053,7 +8053,7 @@
         <v>402</v>
       </c>
       <c r="C418" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D418">
         <v>413</v>
@@ -8067,7 +8067,7 @@
         <v>403</v>
       </c>
       <c r="C419" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D419">
         <v>414</v>
@@ -8081,7 +8081,7 @@
         <v>404</v>
       </c>
       <c r="C420" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D420">
         <v>415</v>
@@ -8095,7 +8095,7 @@
         <v>405</v>
       </c>
       <c r="C421" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D421">
         <v>416</v>
@@ -8109,7 +8109,7 @@
         <v>406</v>
       </c>
       <c r="C422" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D422">
         <v>417</v>
@@ -8123,7 +8123,7 @@
         <v>407</v>
       </c>
       <c r="C423" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D423">
         <v>418</v>
@@ -8137,7 +8137,7 @@
         <v>408</v>
       </c>
       <c r="C424" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D424">
         <v>419</v>
@@ -8151,7 +8151,7 @@
         <v>409</v>
       </c>
       <c r="C425" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D425">
         <v>420</v>
@@ -8165,7 +8165,7 @@
         <v>410</v>
       </c>
       <c r="C426" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D426">
         <v>421</v>
@@ -8179,7 +8179,7 @@
         <v>411</v>
       </c>
       <c r="C427" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D427">
         <v>422</v>
@@ -8193,7 +8193,7 @@
         <v>412</v>
       </c>
       <c r="C428" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D428">
         <v>423</v>
@@ -8207,7 +8207,7 @@
         <v>413</v>
       </c>
       <c r="C429" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D429">
         <v>424</v>
@@ -8221,7 +8221,7 @@
         <v>414</v>
       </c>
       <c r="C430" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D430">
         <v>425</v>
@@ -8235,7 +8235,7 @@
         <v>415</v>
       </c>
       <c r="C431" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D431">
         <v>426</v>
@@ -8249,7 +8249,7 @@
         <v>416</v>
       </c>
       <c r="C432" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D432">
         <v>427</v>
@@ -8263,7 +8263,7 @@
         <v>417</v>
       </c>
       <c r="C433" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D433">
         <v>428</v>
@@ -8277,7 +8277,7 @@
         <v>418</v>
       </c>
       <c r="C434" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D434">
         <v>429</v>
@@ -8291,7 +8291,7 @@
         <v>419</v>
       </c>
       <c r="C435" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D435">
         <v>430</v>
@@ -8305,7 +8305,7 @@
         <v>420</v>
       </c>
       <c r="C436" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D436">
         <v>431</v>
@@ -8319,7 +8319,7 @@
         <v>421</v>
       </c>
       <c r="C437" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D437">
         <v>432</v>
@@ -8333,7 +8333,7 @@
         <v>422</v>
       </c>
       <c r="C438" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D438">
         <v>433</v>
@@ -8347,7 +8347,7 @@
         <v>423</v>
       </c>
       <c r="C439" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D439">
         <v>434</v>
@@ -8361,7 +8361,7 @@
         <v>424</v>
       </c>
       <c r="C440" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D440">
         <v>435</v>
@@ -8375,7 +8375,7 @@
         <v>425</v>
       </c>
       <c r="C441" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D441">
         <v>436</v>
@@ -8389,7 +8389,7 @@
         <v>426</v>
       </c>
       <c r="C442" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D442">
         <v>437</v>
@@ -8403,7 +8403,7 @@
         <v>427</v>
       </c>
       <c r="C443" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D443">
         <v>438</v>
@@ -8417,7 +8417,7 @@
         <v>428</v>
       </c>
       <c r="C444" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D444">
         <v>439</v>
@@ -8431,7 +8431,7 @@
         <v>429</v>
       </c>
       <c r="C445" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D445">
         <v>440</v>
@@ -8445,7 +8445,7 @@
         <v>430</v>
       </c>
       <c r="C446" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D446">
         <v>441</v>
@@ -8459,7 +8459,7 @@
         <v>431</v>
       </c>
       <c r="C447" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D447">
         <v>442</v>
@@ -8473,7 +8473,7 @@
         <v>432</v>
       </c>
       <c r="C448" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D448">
         <v>443</v>
@@ -8487,7 +8487,7 @@
         <v>433</v>
       </c>
       <c r="C449" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D449">
         <v>444</v>
@@ -8501,7 +8501,7 @@
         <v>434</v>
       </c>
       <c r="C450" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D450">
         <v>445</v>
@@ -8515,7 +8515,7 @@
         <v>435</v>
       </c>
       <c r="C451" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D451">
         <v>446</v>
@@ -8529,7 +8529,7 @@
         <v>436</v>
       </c>
       <c r="C452" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D452">
         <v>447</v>
@@ -8543,7 +8543,7 @@
         <v>437</v>
       </c>
       <c r="C453" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D453">
         <v>448</v>
@@ -8557,7 +8557,7 @@
         <v>438</v>
       </c>
       <c r="C454" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D454">
         <v>449</v>
@@ -8571,7 +8571,7 @@
         <v>439</v>
       </c>
       <c r="C455" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D455">
         <v>450</v>
@@ -8585,7 +8585,7 @@
         <v>440</v>
       </c>
       <c r="C456" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D456">
         <v>451</v>
@@ -8599,7 +8599,7 @@
         <v>441</v>
       </c>
       <c r="C457" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D457">
         <v>452</v>
@@ -8613,7 +8613,7 @@
         <v>442</v>
       </c>
       <c r="C458" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D458">
         <v>453</v>
@@ -8627,7 +8627,7 @@
         <v>443</v>
       </c>
       <c r="C459" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D459">
         <v>454</v>
@@ -8641,7 +8641,7 @@
         <v>444</v>
       </c>
       <c r="C460" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D460">
         <v>455</v>
@@ -8655,7 +8655,7 @@
         <v>445</v>
       </c>
       <c r="C461" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D461">
         <v>456</v>
@@ -8669,7 +8669,7 @@
         <v>446</v>
       </c>
       <c r="C462" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D462">
         <v>457</v>
@@ -8683,7 +8683,7 @@
         <v>447</v>
       </c>
       <c r="C463" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D463">
         <v>458</v>
@@ -8697,7 +8697,7 @@
         <v>448</v>
       </c>
       <c r="C464" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D464">
         <v>459</v>
@@ -8711,7 +8711,7 @@
         <v>449</v>
       </c>
       <c r="C465" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D465">
         <v>460</v>
@@ -8725,7 +8725,7 @@
         <v>450</v>
       </c>
       <c r="C466" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D466">
         <v>461</v>
@@ -8739,7 +8739,7 @@
         <v>451</v>
       </c>
       <c r="C467" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D467">
         <v>462</v>
@@ -8753,7 +8753,7 @@
         <v>452</v>
       </c>
       <c r="C468" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D468">
         <v>463</v>
@@ -8767,7 +8767,7 @@
         <v>453</v>
       </c>
       <c r="C469" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D469">
         <v>464</v>
@@ -8796,7 +8796,7 @@
         <v>455</v>
       </c>
       <c r="C472" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D472">
         <v>467</v>
@@ -8810,7 +8810,7 @@
         <v>456</v>
       </c>
       <c r="C473" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D473">
         <v>468</v>
@@ -8824,7 +8824,7 @@
         <v>457</v>
       </c>
       <c r="C474" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D474">
         <v>469</v>
@@ -8838,7 +8838,7 @@
         <v>458</v>
       </c>
       <c r="C475" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D475">
         <v>470</v>
@@ -8852,7 +8852,7 @@
         <v>459</v>
       </c>
       <c r="C476" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D476">
         <v>471</v>
@@ -8866,7 +8866,7 @@
         <v>460</v>
       </c>
       <c r="C477" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D477">
         <v>472</v>
@@ -8880,7 +8880,7 @@
         <v>461</v>
       </c>
       <c r="C478" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D478">
         <v>473</v>
@@ -8894,7 +8894,7 @@
         <v>462</v>
       </c>
       <c r="C479" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D479">
         <v>474</v>
@@ -8908,7 +8908,7 @@
         <v>463</v>
       </c>
       <c r="C480" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D480">
         <v>475</v>
@@ -8922,7 +8922,7 @@
         <v>464</v>
       </c>
       <c r="C481" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D481">
         <v>476</v>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -67,10 +67,10 @@
     <t>find duplicate in an array of N+1 Integers</t>
   </si>
   <si>
+    <t>Merge 2 sorted arrays without using Extra space.</t>
+  </si>
+  <si>
     <t>&lt;-&gt;</t>
-  </si>
-  <si>
-    <t>Merge 2 sorted arrays without using Extra space.</t>
   </si>
   <si>
     <t>Kadane's Algo [V.V.V.V.V IMP]</t>
@@ -2428,8 +2428,8 @@
   <sheetPr/>
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" outlineLevelCol="3"/>
@@ -2602,11 +2602,11 @@
       <c r="A16" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D16">
         <v>11</v>
@@ -2617,10 +2617,10 @@
         <v>4</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D17">
         <v>12</v>
@@ -2634,7 +2634,7 @@
         <v>19</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D18">
         <v>13</v>
@@ -2648,7 +2648,7 @@
         <v>20</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D19">
         <v>14</v>
@@ -2662,7 +2662,7 @@
         <v>21</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D20">
         <v>15</v>
@@ -2676,7 +2676,7 @@
         <v>22</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D21">
         <v>16</v>
@@ -2690,7 +2690,7 @@
         <v>23</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D22">
         <v>17</v>
@@ -2704,7 +2704,7 @@
         <v>24</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D23">
         <v>18</v>
@@ -2718,7 +2718,7 @@
         <v>25</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D24">
         <v>19</v>
@@ -2732,7 +2732,7 @@
         <v>26</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D25">
         <v>20</v>
@@ -2746,7 +2746,7 @@
         <v>27</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D26">
         <v>21</v>
@@ -2760,7 +2760,7 @@
         <v>28</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D27">
         <v>22</v>
@@ -2774,7 +2774,7 @@
         <v>29</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D28">
         <v>23</v>
@@ -2788,7 +2788,7 @@
         <v>30</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D29">
         <v>24</v>
@@ -2802,7 +2802,7 @@
         <v>31</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D30">
         <v>25</v>
@@ -2816,7 +2816,7 @@
         <v>32</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D31">
         <v>26</v>
@@ -2830,7 +2830,7 @@
         <v>33</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D32">
         <v>27</v>
@@ -2844,7 +2844,7 @@
         <v>34</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D33">
         <v>28</v>
@@ -2858,7 +2858,7 @@
         <v>35</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D34">
         <v>29</v>
@@ -2872,7 +2872,7 @@
         <v>36</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D35">
         <v>30</v>
@@ -2886,7 +2886,7 @@
         <v>37</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D36">
         <v>31</v>
@@ -2900,7 +2900,7 @@
         <v>38</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D37">
         <v>32</v>
@@ -2914,7 +2914,7 @@
         <v>39</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D38">
         <v>33</v>
@@ -2928,7 +2928,7 @@
         <v>40</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D39">
         <v>34</v>
@@ -2942,7 +2942,7 @@
         <v>41</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D40">
         <v>35</v>
@@ -2956,7 +2956,7 @@
         <v>42</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D41">
         <v>36</v>
@@ -2965,7 +2965,7 @@
     <row r="42" ht="21" spans="2:4">
       <c r="B42" s="9"/>
       <c r="C42" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D42">
         <v>37</v>
@@ -2975,7 +2975,7 @@
       <c r="A43" s="5"/>
       <c r="B43" s="9"/>
       <c r="C43" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D43">
         <v>38</v>
@@ -2989,7 +2989,7 @@
         <v>44</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D44">
         <v>39</v>
@@ -3003,7 +3003,7 @@
         <v>45</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D45">
         <v>40</v>
@@ -3017,7 +3017,7 @@
         <v>46</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D46">
         <v>41</v>
@@ -3031,7 +3031,7 @@
         <v>47</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D47">
         <v>42</v>
@@ -3045,7 +3045,7 @@
         <v>48</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D48">
         <v>43</v>
@@ -3059,7 +3059,7 @@
         <v>49</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D49">
         <v>44</v>
@@ -3073,7 +3073,7 @@
         <v>50</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D50">
         <v>45</v>
@@ -3087,7 +3087,7 @@
         <v>51</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D51">
         <v>46</v>
@@ -3101,7 +3101,7 @@
         <v>52</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D52">
         <v>47</v>
@@ -3115,7 +3115,7 @@
         <v>53</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D53">
         <v>48</v>
@@ -3142,7 +3142,7 @@
         <v>55</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D56">
         <v>51</v>
@@ -3156,7 +3156,7 @@
         <v>56</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D57">
         <v>52</v>
@@ -3170,7 +3170,7 @@
         <v>57</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D58">
         <v>53</v>
@@ -3184,7 +3184,7 @@
         <v>58</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D59">
         <v>54</v>
@@ -3198,7 +3198,7 @@
         <v>59</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D60">
         <v>55</v>
@@ -3212,7 +3212,7 @@
         <v>60</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D61">
         <v>56</v>
@@ -3226,7 +3226,7 @@
         <v>61</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D62">
         <v>57</v>
@@ -3240,7 +3240,7 @@
         <v>62</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D63">
         <v>58</v>
@@ -3254,7 +3254,7 @@
         <v>63</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D64">
         <v>59</v>
@@ -3268,7 +3268,7 @@
         <v>64</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D65">
         <v>60</v>
@@ -3282,7 +3282,7 @@
         <v>65</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D66">
         <v>61</v>
@@ -3296,7 +3296,7 @@
         <v>66</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D67">
         <v>62</v>
@@ -3310,7 +3310,7 @@
         <v>67</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D68">
         <v>63</v>
@@ -3324,7 +3324,7 @@
         <v>68</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D69">
         <v>64</v>
@@ -3338,7 +3338,7 @@
         <v>69</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D70">
         <v>65</v>
@@ -3352,7 +3352,7 @@
         <v>70</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D71">
         <v>66</v>
@@ -3366,7 +3366,7 @@
         <v>71</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D72">
         <v>67</v>
@@ -3380,7 +3380,7 @@
         <v>72</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D73">
         <v>68</v>
@@ -3394,7 +3394,7 @@
         <v>73</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D74">
         <v>69</v>
@@ -3408,7 +3408,7 @@
         <v>74</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D75">
         <v>70</v>
@@ -3422,7 +3422,7 @@
         <v>75</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D76">
         <v>71</v>
@@ -3436,7 +3436,7 @@
         <v>76</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D77">
         <v>72</v>
@@ -3450,7 +3450,7 @@
         <v>77</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D78">
         <v>73</v>
@@ -3464,7 +3464,7 @@
         <v>78</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D79">
         <v>74</v>
@@ -3478,7 +3478,7 @@
         <v>79</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D80">
         <v>75</v>
@@ -3492,7 +3492,7 @@
         <v>80</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D81">
         <v>76</v>
@@ -3506,7 +3506,7 @@
         <v>81</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D82">
         <v>77</v>
@@ -3520,7 +3520,7 @@
         <v>82</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D83">
         <v>78</v>
@@ -3534,7 +3534,7 @@
         <v>83</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D84">
         <v>79</v>
@@ -3548,7 +3548,7 @@
         <v>84</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D85">
         <v>80</v>
@@ -3562,7 +3562,7 @@
         <v>85</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D86">
         <v>81</v>
@@ -3576,7 +3576,7 @@
         <v>86</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D87">
         <v>82</v>
@@ -3590,7 +3590,7 @@
         <v>87</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D88">
         <v>83</v>
@@ -3604,7 +3604,7 @@
         <v>88</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D89">
         <v>84</v>
@@ -3618,7 +3618,7 @@
         <v>89</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D90">
         <v>85</v>
@@ -3632,7 +3632,7 @@
         <v>90</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D91">
         <v>86</v>
@@ -3646,7 +3646,7 @@
         <v>91</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D92">
         <v>87</v>
@@ -3660,7 +3660,7 @@
         <v>92</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D93">
         <v>88</v>
@@ -3674,7 +3674,7 @@
         <v>93</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D94">
         <v>89</v>
@@ -3688,7 +3688,7 @@
         <v>94</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D95">
         <v>90</v>
@@ -3702,7 +3702,7 @@
         <v>95</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D96">
         <v>91</v>
@@ -3716,7 +3716,7 @@
         <v>96</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D97">
         <v>92</v>
@@ -3730,7 +3730,7 @@
         <v>97</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D98">
         <v>93</v>
@@ -3757,7 +3757,7 @@
         <v>99</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D101">
         <v>96</v>
@@ -3771,7 +3771,7 @@
         <v>100</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D102">
         <v>97</v>
@@ -3785,7 +3785,7 @@
         <v>101</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D103">
         <v>98</v>
@@ -3799,7 +3799,7 @@
         <v>102</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D104">
         <v>99</v>
@@ -3813,7 +3813,7 @@
         <v>103</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D105">
         <v>100</v>
@@ -3827,7 +3827,7 @@
         <v>104</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D106">
         <v>101</v>
@@ -3841,7 +3841,7 @@
         <v>105</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D107">
         <v>102</v>
@@ -3855,7 +3855,7 @@
         <v>106</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D108">
         <v>103</v>
@@ -3869,7 +3869,7 @@
         <v>107</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D109">
         <v>104</v>
@@ -3883,7 +3883,7 @@
         <v>108</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D110">
         <v>105</v>
@@ -3897,7 +3897,7 @@
         <v>109</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D111">
         <v>106</v>
@@ -3911,7 +3911,7 @@
         <v>110</v>
       </c>
       <c r="C112" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D112">
         <v>107</v>
@@ -3925,7 +3925,7 @@
         <v>111</v>
       </c>
       <c r="C113" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D113">
         <v>108</v>
@@ -3939,7 +3939,7 @@
         <v>112</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D114">
         <v>109</v>
@@ -3953,7 +3953,7 @@
         <v>113</v>
       </c>
       <c r="C115" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D115">
         <v>110</v>
@@ -3967,7 +3967,7 @@
         <v>114</v>
       </c>
       <c r="C116" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D116">
         <v>111</v>
@@ -3981,7 +3981,7 @@
         <v>115</v>
       </c>
       <c r="C117" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D117">
         <v>112</v>
@@ -3995,7 +3995,7 @@
         <v>116</v>
       </c>
       <c r="C118" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D118">
         <v>113</v>
@@ -4009,7 +4009,7 @@
         <v>117</v>
       </c>
       <c r="C119" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D119">
         <v>114</v>
@@ -4023,7 +4023,7 @@
         <v>118</v>
       </c>
       <c r="C120" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D120">
         <v>115</v>
@@ -4037,7 +4037,7 @@
         <v>119</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D121">
         <v>116</v>
@@ -4051,7 +4051,7 @@
         <v>120</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D122">
         <v>117</v>
@@ -4065,7 +4065,7 @@
         <v>121</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D123">
         <v>118</v>
@@ -4079,7 +4079,7 @@
         <v>122</v>
       </c>
       <c r="C124" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D124">
         <v>119</v>
@@ -4093,7 +4093,7 @@
         <v>123</v>
       </c>
       <c r="C125" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D125">
         <v>120</v>
@@ -4107,7 +4107,7 @@
         <v>124</v>
       </c>
       <c r="C126" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D126">
         <v>121</v>
@@ -4121,7 +4121,7 @@
         <v>125</v>
       </c>
       <c r="C127" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D127">
         <v>122</v>
@@ -4135,7 +4135,7 @@
         <v>126</v>
       </c>
       <c r="C128" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D128">
         <v>123</v>
@@ -4149,7 +4149,7 @@
         <v>127</v>
       </c>
       <c r="C129" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D129">
         <v>124</v>
@@ -4163,7 +4163,7 @@
         <v>128</v>
       </c>
       <c r="C130" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D130">
         <v>125</v>
@@ -4177,7 +4177,7 @@
         <v>129</v>
       </c>
       <c r="C131" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D131">
         <v>126</v>
@@ -4191,7 +4191,7 @@
         <v>130</v>
       </c>
       <c r="C132" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D132">
         <v>127</v>
@@ -4205,7 +4205,7 @@
         <v>131</v>
       </c>
       <c r="C133" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D133">
         <v>128</v>
@@ -4219,7 +4219,7 @@
         <v>132</v>
       </c>
       <c r="C134" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D134">
         <v>129</v>
@@ -4233,7 +4233,7 @@
         <v>133</v>
       </c>
       <c r="C135" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D135">
         <v>130</v>
@@ -4247,7 +4247,7 @@
         <v>134</v>
       </c>
       <c r="C136" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D136">
         <v>131</v>
@@ -4273,7 +4273,7 @@
         <v>136</v>
       </c>
       <c r="C139" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D139">
         <v>134</v>
@@ -4287,7 +4287,7 @@
         <v>137</v>
       </c>
       <c r="C140" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D140">
         <v>135</v>
@@ -4301,7 +4301,7 @@
         <v>138</v>
       </c>
       <c r="C141" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D141">
         <v>136</v>
@@ -4315,7 +4315,7 @@
         <v>139</v>
       </c>
       <c r="C142" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D142">
         <v>137</v>
@@ -4329,7 +4329,7 @@
         <v>140</v>
       </c>
       <c r="C143" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D143">
         <v>138</v>
@@ -4343,7 +4343,7 @@
         <v>141</v>
       </c>
       <c r="C144" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D144">
         <v>139</v>
@@ -4357,7 +4357,7 @@
         <v>142</v>
       </c>
       <c r="C145" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D145">
         <v>140</v>
@@ -4371,7 +4371,7 @@
         <v>143</v>
       </c>
       <c r="C146" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D146">
         <v>141</v>
@@ -4385,7 +4385,7 @@
         <v>144</v>
       </c>
       <c r="C147" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D147">
         <v>142</v>
@@ -4399,7 +4399,7 @@
         <v>145</v>
       </c>
       <c r="C148" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D148">
         <v>143</v>
@@ -4413,7 +4413,7 @@
         <v>146</v>
       </c>
       <c r="C149" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D149">
         <v>144</v>
@@ -4427,7 +4427,7 @@
         <v>147</v>
       </c>
       <c r="C150" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D150">
         <v>145</v>
@@ -4441,7 +4441,7 @@
         <v>148</v>
       </c>
       <c r="C151" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D151">
         <v>146</v>
@@ -4455,7 +4455,7 @@
         <v>149</v>
       </c>
       <c r="C152" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D152">
         <v>147</v>
@@ -4469,7 +4469,7 @@
         <v>150</v>
       </c>
       <c r="C153" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D153">
         <v>148</v>
@@ -4483,7 +4483,7 @@
         <v>151</v>
       </c>
       <c r="C154" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D154">
         <v>149</v>
@@ -4497,7 +4497,7 @@
         <v>152</v>
       </c>
       <c r="C155" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D155">
         <v>150</v>
@@ -4511,7 +4511,7 @@
         <v>153</v>
       </c>
       <c r="C156" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D156">
         <v>151</v>
@@ -4525,7 +4525,7 @@
         <v>154</v>
       </c>
       <c r="C157" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D157">
         <v>152</v>
@@ -4539,7 +4539,7 @@
         <v>155</v>
       </c>
       <c r="C158" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D158">
         <v>153</v>
@@ -4553,7 +4553,7 @@
         <v>156</v>
       </c>
       <c r="C159" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D159">
         <v>154</v>
@@ -4567,7 +4567,7 @@
         <v>157</v>
       </c>
       <c r="C160" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D160">
         <v>155</v>
@@ -4581,7 +4581,7 @@
         <v>158</v>
       </c>
       <c r="C161" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D161">
         <v>156</v>
@@ -4595,7 +4595,7 @@
         <v>159</v>
       </c>
       <c r="C162" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D162">
         <v>157</v>
@@ -4609,7 +4609,7 @@
         <v>160</v>
       </c>
       <c r="C163" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D163">
         <v>158</v>
@@ -4623,7 +4623,7 @@
         <v>161</v>
       </c>
       <c r="C164" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D164">
         <v>159</v>
@@ -4637,7 +4637,7 @@
         <v>162</v>
       </c>
       <c r="C165" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D165">
         <v>160</v>
@@ -4651,7 +4651,7 @@
         <v>163</v>
       </c>
       <c r="C166" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D166">
         <v>161</v>
@@ -4665,7 +4665,7 @@
         <v>164</v>
       </c>
       <c r="C167" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D167">
         <v>162</v>
@@ -4679,7 +4679,7 @@
         <v>165</v>
       </c>
       <c r="C168" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D168">
         <v>163</v>
@@ -4693,7 +4693,7 @@
         <v>166</v>
       </c>
       <c r="C169" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D169">
         <v>164</v>
@@ -4707,7 +4707,7 @@
         <v>167</v>
       </c>
       <c r="C170" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D170">
         <v>165</v>
@@ -4721,7 +4721,7 @@
         <v>168</v>
       </c>
       <c r="C171" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D171">
         <v>166</v>
@@ -4735,7 +4735,7 @@
         <v>169</v>
       </c>
       <c r="C172" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D172">
         <v>167</v>
@@ -4749,7 +4749,7 @@
         <v>170</v>
       </c>
       <c r="C173" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D173">
         <v>168</v>
@@ -4763,7 +4763,7 @@
         <v>171</v>
       </c>
       <c r="C174" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D174">
         <v>169</v>
@@ -4789,7 +4789,7 @@
         <v>173</v>
       </c>
       <c r="C177" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D177">
         <v>172</v>
@@ -4803,7 +4803,7 @@
         <v>174</v>
       </c>
       <c r="C178" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D178">
         <v>173</v>
@@ -4817,7 +4817,7 @@
         <v>175</v>
       </c>
       <c r="C179" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D179">
         <v>174</v>
@@ -4831,7 +4831,7 @@
         <v>176</v>
       </c>
       <c r="C180" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D180">
         <v>175</v>
@@ -4845,7 +4845,7 @@
         <v>177</v>
       </c>
       <c r="C181" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D181">
         <v>176</v>
@@ -4859,7 +4859,7 @@
         <v>178</v>
       </c>
       <c r="C182" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D182">
         <v>177</v>
@@ -4873,7 +4873,7 @@
         <v>179</v>
       </c>
       <c r="C183" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D183">
         <v>178</v>
@@ -4887,7 +4887,7 @@
         <v>180</v>
       </c>
       <c r="C184" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D184">
         <v>179</v>
@@ -4901,7 +4901,7 @@
         <v>181</v>
       </c>
       <c r="C185" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D185">
         <v>180</v>
@@ -4915,7 +4915,7 @@
         <v>182</v>
       </c>
       <c r="C186" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D186">
         <v>181</v>
@@ -4929,7 +4929,7 @@
         <v>183</v>
       </c>
       <c r="C187" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D187">
         <v>182</v>
@@ -4943,7 +4943,7 @@
         <v>184</v>
       </c>
       <c r="C188" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D188">
         <v>183</v>
@@ -4957,7 +4957,7 @@
         <v>185</v>
       </c>
       <c r="C189" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D189">
         <v>184</v>
@@ -4971,7 +4971,7 @@
         <v>186</v>
       </c>
       <c r="C190" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D190">
         <v>185</v>
@@ -4985,7 +4985,7 @@
         <v>187</v>
       </c>
       <c r="C191" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D191">
         <v>186</v>
@@ -4999,7 +4999,7 @@
         <v>188</v>
       </c>
       <c r="C192" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D192">
         <v>187</v>
@@ -5013,7 +5013,7 @@
         <v>189</v>
       </c>
       <c r="C193" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D193">
         <v>188</v>
@@ -5027,7 +5027,7 @@
         <v>190</v>
       </c>
       <c r="C194" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D194">
         <v>189</v>
@@ -5041,7 +5041,7 @@
         <v>191</v>
       </c>
       <c r="C195" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D195">
         <v>190</v>
@@ -5055,7 +5055,7 @@
         <v>192</v>
       </c>
       <c r="C196" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D196">
         <v>191</v>
@@ -5069,7 +5069,7 @@
         <v>193</v>
       </c>
       <c r="C197" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D197">
         <v>192</v>
@@ -5083,7 +5083,7 @@
         <v>194</v>
       </c>
       <c r="C198" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D198">
         <v>193</v>
@@ -5097,7 +5097,7 @@
         <v>195</v>
       </c>
       <c r="C199" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D199">
         <v>194</v>
@@ -5111,7 +5111,7 @@
         <v>196</v>
       </c>
       <c r="C200" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D200">
         <v>195</v>
@@ -5125,7 +5125,7 @@
         <v>197</v>
       </c>
       <c r="C201" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D201">
         <v>196</v>
@@ -5139,7 +5139,7 @@
         <v>198</v>
       </c>
       <c r="C202" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D202">
         <v>197</v>
@@ -5153,7 +5153,7 @@
         <v>199</v>
       </c>
       <c r="C203" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D203">
         <v>198</v>
@@ -5167,7 +5167,7 @@
         <v>200</v>
       </c>
       <c r="C204" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D204">
         <v>199</v>
@@ -5181,7 +5181,7 @@
         <v>201</v>
       </c>
       <c r="C205" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D205">
         <v>200</v>
@@ -5195,7 +5195,7 @@
         <v>202</v>
       </c>
       <c r="C206" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D206">
         <v>201</v>
@@ -5209,7 +5209,7 @@
         <v>203</v>
       </c>
       <c r="C207" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D207">
         <v>202</v>
@@ -5223,7 +5223,7 @@
         <v>204</v>
       </c>
       <c r="C208" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D208">
         <v>203</v>
@@ -5237,7 +5237,7 @@
         <v>205</v>
       </c>
       <c r="C209" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D209">
         <v>204</v>
@@ -5251,7 +5251,7 @@
         <v>206</v>
       </c>
       <c r="C210" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D210">
         <v>205</v>
@@ -5265,7 +5265,7 @@
         <v>207</v>
       </c>
       <c r="C211" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D211">
         <v>206</v>
@@ -5295,7 +5295,7 @@
         <v>209</v>
       </c>
       <c r="C214" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D214">
         <v>209</v>
@@ -5309,7 +5309,7 @@
         <v>210</v>
       </c>
       <c r="C215" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D215">
         <v>210</v>
@@ -5323,7 +5323,7 @@
         <v>211</v>
       </c>
       <c r="C216" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D216">
         <v>211</v>
@@ -5337,7 +5337,7 @@
         <v>212</v>
       </c>
       <c r="C217" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D217">
         <v>212</v>
@@ -5351,7 +5351,7 @@
         <v>213</v>
       </c>
       <c r="C218" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D218">
         <v>213</v>
@@ -5365,7 +5365,7 @@
         <v>214</v>
       </c>
       <c r="C219" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D219">
         <v>214</v>
@@ -5379,7 +5379,7 @@
         <v>215</v>
       </c>
       <c r="C220" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D220">
         <v>215</v>
@@ -5393,7 +5393,7 @@
         <v>216</v>
       </c>
       <c r="C221" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D221">
         <v>216</v>
@@ -5407,7 +5407,7 @@
         <v>217</v>
       </c>
       <c r="C222" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D222">
         <v>217</v>
@@ -5421,7 +5421,7 @@
         <v>218</v>
       </c>
       <c r="C223" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D223">
         <v>218</v>
@@ -5435,7 +5435,7 @@
         <v>219</v>
       </c>
       <c r="C224" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D224">
         <v>219</v>
@@ -5449,7 +5449,7 @@
         <v>220</v>
       </c>
       <c r="C225" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D225">
         <v>220</v>
@@ -5463,7 +5463,7 @@
         <v>221</v>
       </c>
       <c r="C226" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D226">
         <v>221</v>
@@ -5477,7 +5477,7 @@
         <v>222</v>
       </c>
       <c r="C227" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D227">
         <v>222</v>
@@ -5491,7 +5491,7 @@
         <v>223</v>
       </c>
       <c r="C228" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D228">
         <v>223</v>
@@ -5505,7 +5505,7 @@
         <v>224</v>
       </c>
       <c r="C229" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D229">
         <v>224</v>
@@ -5519,7 +5519,7 @@
         <v>225</v>
       </c>
       <c r="C230" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D230">
         <v>225</v>
@@ -5533,7 +5533,7 @@
         <v>226</v>
       </c>
       <c r="C231" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D231">
         <v>226</v>
@@ -5547,7 +5547,7 @@
         <v>227</v>
       </c>
       <c r="C232" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D232">
         <v>227</v>
@@ -5561,7 +5561,7 @@
         <v>228</v>
       </c>
       <c r="C233" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D233">
         <v>228</v>
@@ -5575,7 +5575,7 @@
         <v>229</v>
       </c>
       <c r="C234" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D234">
         <v>229</v>
@@ -5589,7 +5589,7 @@
         <v>230</v>
       </c>
       <c r="C235" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D235">
         <v>230</v>
@@ -5617,7 +5617,7 @@
         <v>232</v>
       </c>
       <c r="C238" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D238">
         <v>233</v>
@@ -5631,7 +5631,7 @@
         <v>233</v>
       </c>
       <c r="C239" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D239">
         <v>234</v>
@@ -5645,7 +5645,7 @@
         <v>234</v>
       </c>
       <c r="C240" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D240">
         <v>235</v>
@@ -5659,7 +5659,7 @@
         <v>235</v>
       </c>
       <c r="C241" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D241">
         <v>236</v>
@@ -5673,7 +5673,7 @@
         <v>236</v>
       </c>
       <c r="C242" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D242">
         <v>237</v>
@@ -5687,7 +5687,7 @@
         <v>237</v>
       </c>
       <c r="C243" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D243">
         <v>238</v>
@@ -5701,7 +5701,7 @@
         <v>238</v>
       </c>
       <c r="C244" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D244">
         <v>239</v>
@@ -5715,7 +5715,7 @@
         <v>239</v>
       </c>
       <c r="C245" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D245">
         <v>240</v>
@@ -5729,7 +5729,7 @@
         <v>240</v>
       </c>
       <c r="C246" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D246">
         <v>241</v>
@@ -5743,7 +5743,7 @@
         <v>241</v>
       </c>
       <c r="C247" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D247">
         <v>242</v>
@@ -5757,7 +5757,7 @@
         <v>242</v>
       </c>
       <c r="C248" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D248">
         <v>243</v>
@@ -5771,7 +5771,7 @@
         <v>243</v>
       </c>
       <c r="C249" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D249">
         <v>244</v>
@@ -5785,7 +5785,7 @@
         <v>244</v>
       </c>
       <c r="C250" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D250">
         <v>245</v>
@@ -5799,7 +5799,7 @@
         <v>245</v>
       </c>
       <c r="C251" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D251">
         <v>246</v>
@@ -5813,7 +5813,7 @@
         <v>246</v>
       </c>
       <c r="C252" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D252">
         <v>247</v>
@@ -5827,7 +5827,7 @@
         <v>247</v>
       </c>
       <c r="C253" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D253">
         <v>248</v>
@@ -5841,7 +5841,7 @@
         <v>248</v>
       </c>
       <c r="C254" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D254">
         <v>249</v>
@@ -5855,7 +5855,7 @@
         <v>249</v>
       </c>
       <c r="C255" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D255">
         <v>250</v>
@@ -5869,7 +5869,7 @@
         <v>250</v>
       </c>
       <c r="C256" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D256">
         <v>251</v>
@@ -5883,7 +5883,7 @@
         <v>251</v>
       </c>
       <c r="C257" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D257">
         <v>252</v>
@@ -5897,7 +5897,7 @@
         <v>252</v>
       </c>
       <c r="C258" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D258">
         <v>253</v>
@@ -5911,7 +5911,7 @@
         <v>253</v>
       </c>
       <c r="C259" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D259">
         <v>254</v>
@@ -5925,7 +5925,7 @@
         <v>254</v>
       </c>
       <c r="C260" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D260">
         <v>255</v>
@@ -5939,7 +5939,7 @@
         <v>255</v>
       </c>
       <c r="C261" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D261">
         <v>256</v>
@@ -5953,7 +5953,7 @@
         <v>256</v>
       </c>
       <c r="C262" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D262">
         <v>257</v>
@@ -5967,7 +5967,7 @@
         <v>257</v>
       </c>
       <c r="C263" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D263">
         <v>258</v>
@@ -5981,7 +5981,7 @@
         <v>258</v>
       </c>
       <c r="C264" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D264">
         <v>259</v>
@@ -5995,7 +5995,7 @@
         <v>259</v>
       </c>
       <c r="C265" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D265">
         <v>260</v>
@@ -6009,7 +6009,7 @@
         <v>260</v>
       </c>
       <c r="C266" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D266">
         <v>261</v>
@@ -6023,7 +6023,7 @@
         <v>261</v>
       </c>
       <c r="C267" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D267">
         <v>262</v>
@@ -6037,7 +6037,7 @@
         <v>262</v>
       </c>
       <c r="C268" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D268">
         <v>263</v>
@@ -6051,7 +6051,7 @@
         <v>263</v>
       </c>
       <c r="C269" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D269">
         <v>264</v>
@@ -6065,7 +6065,7 @@
         <v>264</v>
       </c>
       <c r="C270" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D270">
         <v>265</v>
@@ -6079,7 +6079,7 @@
         <v>88</v>
       </c>
       <c r="C271" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D271">
         <v>266</v>
@@ -6093,7 +6093,7 @@
         <v>265</v>
       </c>
       <c r="C272" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D272">
         <v>267</v>
@@ -6121,7 +6121,7 @@
         <v>267</v>
       </c>
       <c r="C275" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D275">
         <v>270</v>
@@ -6135,7 +6135,7 @@
         <v>268</v>
       </c>
       <c r="C276" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D276">
         <v>271</v>
@@ -6149,7 +6149,7 @@
         <v>269</v>
       </c>
       <c r="C277" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D277">
         <v>272</v>
@@ -6163,7 +6163,7 @@
         <v>270</v>
       </c>
       <c r="C278" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D278">
         <v>273</v>
@@ -6177,7 +6177,7 @@
         <v>271</v>
       </c>
       <c r="C279" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D279">
         <v>274</v>
@@ -6191,7 +6191,7 @@
         <v>272</v>
       </c>
       <c r="C280" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D280">
         <v>275</v>
@@ -6205,7 +6205,7 @@
         <v>273</v>
       </c>
       <c r="C281" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D281">
         <v>276</v>
@@ -6219,7 +6219,7 @@
         <v>274</v>
       </c>
       <c r="C282" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D282">
         <v>277</v>
@@ -6233,7 +6233,7 @@
         <v>275</v>
       </c>
       <c r="C283" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D283">
         <v>278</v>
@@ -6247,7 +6247,7 @@
         <v>276</v>
       </c>
       <c r="C284" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D284">
         <v>279</v>
@@ -6261,7 +6261,7 @@
         <v>277</v>
       </c>
       <c r="C285" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D285">
         <v>280</v>
@@ -6275,7 +6275,7 @@
         <v>278</v>
       </c>
       <c r="C286" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D286">
         <v>281</v>
@@ -6289,7 +6289,7 @@
         <v>279</v>
       </c>
       <c r="C287" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D287">
         <v>282</v>
@@ -6303,7 +6303,7 @@
         <v>280</v>
       </c>
       <c r="C288" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D288">
         <v>283</v>
@@ -6317,7 +6317,7 @@
         <v>281</v>
       </c>
       <c r="C289" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D289">
         <v>284</v>
@@ -6331,7 +6331,7 @@
         <v>282</v>
       </c>
       <c r="C290" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D290">
         <v>285</v>
@@ -6345,7 +6345,7 @@
         <v>283</v>
       </c>
       <c r="C291" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D291">
         <v>286</v>
@@ -6359,7 +6359,7 @@
         <v>284</v>
       </c>
       <c r="C292" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D292">
         <v>287</v>
@@ -6373,7 +6373,7 @@
         <v>285</v>
       </c>
       <c r="C293" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D293">
         <v>288</v>
@@ -6401,7 +6401,7 @@
         <v>287</v>
       </c>
       <c r="C296" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D296">
         <v>291</v>
@@ -6415,7 +6415,7 @@
         <v>288</v>
       </c>
       <c r="C297" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D297">
         <v>292</v>
@@ -6429,7 +6429,7 @@
         <v>289</v>
       </c>
       <c r="C298" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D298">
         <v>293</v>
@@ -6443,7 +6443,7 @@
         <v>290</v>
       </c>
       <c r="C299" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D299">
         <v>294</v>
@@ -6457,7 +6457,7 @@
         <v>291</v>
       </c>
       <c r="C300" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D300">
         <v>295</v>
@@ -6471,7 +6471,7 @@
         <v>292</v>
       </c>
       <c r="C301" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D301">
         <v>296</v>
@@ -6485,7 +6485,7 @@
         <v>293</v>
       </c>
       <c r="C302" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D302">
         <v>297</v>
@@ -6499,7 +6499,7 @@
         <v>294</v>
       </c>
       <c r="C303" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D303">
         <v>298</v>
@@ -6513,7 +6513,7 @@
         <v>295</v>
       </c>
       <c r="C304" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D304">
         <v>299</v>
@@ -6527,7 +6527,7 @@
         <v>296</v>
       </c>
       <c r="C305" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D305">
         <v>300</v>
@@ -6541,7 +6541,7 @@
         <v>297</v>
       </c>
       <c r="C306" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D306">
         <v>301</v>
@@ -6555,7 +6555,7 @@
         <v>298</v>
       </c>
       <c r="C307" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D307">
         <v>302</v>
@@ -6569,7 +6569,7 @@
         <v>299</v>
       </c>
       <c r="C308" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D308">
         <v>303</v>
@@ -6583,7 +6583,7 @@
         <v>300</v>
       </c>
       <c r="C309" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D309">
         <v>304</v>
@@ -6597,7 +6597,7 @@
         <v>301</v>
       </c>
       <c r="C310" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D310">
         <v>305</v>
@@ -6611,7 +6611,7 @@
         <v>302</v>
       </c>
       <c r="C311" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D311">
         <v>306</v>
@@ -6625,7 +6625,7 @@
         <v>303</v>
       </c>
       <c r="C312" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D312">
         <v>307</v>
@@ -6639,7 +6639,7 @@
         <v>304</v>
       </c>
       <c r="C313" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D313">
         <v>308</v>
@@ -6653,7 +6653,7 @@
         <v>305</v>
       </c>
       <c r="C314" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D314">
         <v>309</v>
@@ -6667,7 +6667,7 @@
         <v>306</v>
       </c>
       <c r="C315" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D315">
         <v>310</v>
@@ -6681,7 +6681,7 @@
         <v>307</v>
       </c>
       <c r="C316" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D316">
         <v>311</v>
@@ -6695,7 +6695,7 @@
         <v>308</v>
       </c>
       <c r="C317" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D317">
         <v>312</v>
@@ -6709,7 +6709,7 @@
         <v>309</v>
       </c>
       <c r="C318" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D318">
         <v>313</v>
@@ -6723,7 +6723,7 @@
         <v>310</v>
       </c>
       <c r="C319" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D319">
         <v>314</v>
@@ -6737,7 +6737,7 @@
         <v>311</v>
       </c>
       <c r="C320" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D320">
         <v>315</v>
@@ -6751,7 +6751,7 @@
         <v>312</v>
       </c>
       <c r="C321" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D321">
         <v>316</v>
@@ -6765,7 +6765,7 @@
         <v>313</v>
       </c>
       <c r="C322" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D322">
         <v>317</v>
@@ -6779,7 +6779,7 @@
         <v>314</v>
       </c>
       <c r="C323" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D323">
         <v>318</v>
@@ -6793,7 +6793,7 @@
         <v>315</v>
       </c>
       <c r="C324" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D324">
         <v>319</v>
@@ -6807,7 +6807,7 @@
         <v>316</v>
       </c>
       <c r="C325" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D325">
         <v>320</v>
@@ -6821,7 +6821,7 @@
         <v>317</v>
       </c>
       <c r="C326" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D326">
         <v>321</v>
@@ -6835,7 +6835,7 @@
         <v>318</v>
       </c>
       <c r="C327" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D327">
         <v>322</v>
@@ -6849,7 +6849,7 @@
         <v>319</v>
       </c>
       <c r="C328" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D328">
         <v>323</v>
@@ -6863,7 +6863,7 @@
         <v>320</v>
       </c>
       <c r="C329" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D329">
         <v>324</v>
@@ -6877,7 +6877,7 @@
         <v>321</v>
       </c>
       <c r="C330" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D330">
         <v>325</v>
@@ -6891,7 +6891,7 @@
         <v>322</v>
       </c>
       <c r="C331" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D331">
         <v>326</v>
@@ -6905,7 +6905,7 @@
         <v>323</v>
       </c>
       <c r="C332" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D332">
         <v>327</v>
@@ -6919,7 +6919,7 @@
         <v>324</v>
       </c>
       <c r="C333" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D333">
         <v>328</v>
@@ -6947,7 +6947,7 @@
         <v>326</v>
       </c>
       <c r="C336" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D336">
         <v>331</v>
@@ -6961,7 +6961,7 @@
         <v>327</v>
       </c>
       <c r="C337" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D337">
         <v>332</v>
@@ -6975,7 +6975,7 @@
         <v>328</v>
       </c>
       <c r="C338" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D338">
         <v>333</v>
@@ -6989,7 +6989,7 @@
         <v>329</v>
       </c>
       <c r="C339" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D339">
         <v>334</v>
@@ -7003,7 +7003,7 @@
         <v>330</v>
       </c>
       <c r="C340" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D340">
         <v>335</v>
@@ -7017,7 +7017,7 @@
         <v>331</v>
       </c>
       <c r="C341" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D341">
         <v>336</v>
@@ -7031,7 +7031,7 @@
         <v>332</v>
       </c>
       <c r="C342" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D342">
         <v>337</v>
@@ -7045,7 +7045,7 @@
         <v>333</v>
       </c>
       <c r="C343" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D343">
         <v>338</v>
@@ -7059,7 +7059,7 @@
         <v>334</v>
       </c>
       <c r="C344" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D344">
         <v>339</v>
@@ -7073,7 +7073,7 @@
         <v>335</v>
       </c>
       <c r="C345" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D345">
         <v>340</v>
@@ -7087,7 +7087,7 @@
         <v>336</v>
       </c>
       <c r="C346" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D346">
         <v>341</v>
@@ -7101,7 +7101,7 @@
         <v>337</v>
       </c>
       <c r="C347" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D347">
         <v>342</v>
@@ -7115,7 +7115,7 @@
         <v>338</v>
       </c>
       <c r="C348" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D348">
         <v>343</v>
@@ -7129,7 +7129,7 @@
         <v>339</v>
       </c>
       <c r="C349" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D349">
         <v>344</v>
@@ -7143,7 +7143,7 @@
         <v>340</v>
       </c>
       <c r="C350" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D350">
         <v>345</v>
@@ -7157,7 +7157,7 @@
         <v>341</v>
       </c>
       <c r="C351" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D351">
         <v>346</v>
@@ -7171,7 +7171,7 @@
         <v>342</v>
       </c>
       <c r="C352" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D352">
         <v>347</v>
@@ -7185,7 +7185,7 @@
         <v>343</v>
       </c>
       <c r="C353" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D353">
         <v>348</v>
@@ -7213,7 +7213,7 @@
         <v>345</v>
       </c>
       <c r="C356" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D356">
         <v>351</v>
@@ -7227,7 +7227,7 @@
         <v>346</v>
       </c>
       <c r="C357" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D357">
         <v>352</v>
@@ -7241,7 +7241,7 @@
         <v>347</v>
       </c>
       <c r="C358" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D358">
         <v>353</v>
@@ -7255,7 +7255,7 @@
         <v>348</v>
       </c>
       <c r="C359" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D359">
         <v>354</v>
@@ -7269,7 +7269,7 @@
         <v>349</v>
       </c>
       <c r="C360" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D360">
         <v>355</v>
@@ -7283,7 +7283,7 @@
         <v>350</v>
       </c>
       <c r="C361" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D361">
         <v>356</v>
@@ -7297,7 +7297,7 @@
         <v>351</v>
       </c>
       <c r="C362" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D362">
         <v>357</v>
@@ -7311,7 +7311,7 @@
         <v>352</v>
       </c>
       <c r="C363" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D363">
         <v>358</v>
@@ -7325,7 +7325,7 @@
         <v>353</v>
       </c>
       <c r="C364" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D364">
         <v>359</v>
@@ -7339,7 +7339,7 @@
         <v>354</v>
       </c>
       <c r="C365" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D365">
         <v>360</v>
@@ -7353,7 +7353,7 @@
         <v>355</v>
       </c>
       <c r="C366" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D366">
         <v>361</v>
@@ -7367,7 +7367,7 @@
         <v>356</v>
       </c>
       <c r="C367" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D367">
         <v>362</v>
@@ -7381,7 +7381,7 @@
         <v>357</v>
       </c>
       <c r="C368" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D368">
         <v>363</v>
@@ -7395,7 +7395,7 @@
         <v>358</v>
       </c>
       <c r="C369" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D369">
         <v>364</v>
@@ -7409,7 +7409,7 @@
         <v>359</v>
       </c>
       <c r="C370" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D370">
         <v>365</v>
@@ -7423,7 +7423,7 @@
         <v>360</v>
       </c>
       <c r="C371" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D371">
         <v>366</v>
@@ -7437,7 +7437,7 @@
         <v>361</v>
       </c>
       <c r="C372" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D372">
         <v>367</v>
@@ -7451,7 +7451,7 @@
         <v>362</v>
       </c>
       <c r="C373" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D373">
         <v>368</v>
@@ -7465,7 +7465,7 @@
         <v>363</v>
       </c>
       <c r="C374" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D374">
         <v>369</v>
@@ -7479,7 +7479,7 @@
         <v>364</v>
       </c>
       <c r="C375" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D375">
         <v>370</v>
@@ -7493,7 +7493,7 @@
         <v>365</v>
       </c>
       <c r="C376" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D376">
         <v>371</v>
@@ -7507,7 +7507,7 @@
         <v>366</v>
       </c>
       <c r="C377" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D377">
         <v>372</v>
@@ -7521,7 +7521,7 @@
         <v>367</v>
       </c>
       <c r="C378" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D378">
         <v>373</v>
@@ -7535,7 +7535,7 @@
         <v>368</v>
       </c>
       <c r="C379" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D379">
         <v>374</v>
@@ -7549,7 +7549,7 @@
         <v>369</v>
       </c>
       <c r="C380" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D380">
         <v>375</v>
@@ -7563,7 +7563,7 @@
         <v>370</v>
       </c>
       <c r="C381" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D381">
         <v>376</v>
@@ -7577,7 +7577,7 @@
         <v>371</v>
       </c>
       <c r="C382" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D382">
         <v>377</v>
@@ -7591,7 +7591,7 @@
         <v>372</v>
       </c>
       <c r="C383" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D383">
         <v>378</v>
@@ -7605,7 +7605,7 @@
         <v>373</v>
       </c>
       <c r="C384" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D384">
         <v>379</v>
@@ -7619,7 +7619,7 @@
         <v>374</v>
       </c>
       <c r="C385" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D385">
         <v>380</v>
@@ -7633,7 +7633,7 @@
         <v>375</v>
       </c>
       <c r="C386" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D386">
         <v>381</v>
@@ -7647,7 +7647,7 @@
         <v>376</v>
       </c>
       <c r="C387" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D387">
         <v>382</v>
@@ -7661,7 +7661,7 @@
         <v>377</v>
       </c>
       <c r="C388" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D388">
         <v>383</v>
@@ -7675,7 +7675,7 @@
         <v>378</v>
       </c>
       <c r="C389" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D389">
         <v>384</v>
@@ -7689,7 +7689,7 @@
         <v>378</v>
       </c>
       <c r="C390" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D390">
         <v>385</v>
@@ -7703,7 +7703,7 @@
         <v>379</v>
       </c>
       <c r="C391" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D391">
         <v>386</v>
@@ -7717,7 +7717,7 @@
         <v>380</v>
       </c>
       <c r="C392" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D392">
         <v>387</v>
@@ -7731,7 +7731,7 @@
         <v>381</v>
       </c>
       <c r="C393" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D393">
         <v>388</v>
@@ -7745,7 +7745,7 @@
         <v>382</v>
       </c>
       <c r="C394" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D394">
         <v>389</v>
@@ -7759,7 +7759,7 @@
         <v>383</v>
       </c>
       <c r="C395" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D395">
         <v>390</v>
@@ -7773,7 +7773,7 @@
         <v>384</v>
       </c>
       <c r="C396" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D396">
         <v>391</v>
@@ -7787,7 +7787,7 @@
         <v>385</v>
       </c>
       <c r="C397" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D397">
         <v>392</v>
@@ -7801,7 +7801,7 @@
         <v>386</v>
       </c>
       <c r="C398" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D398">
         <v>393</v>
@@ -7815,7 +7815,7 @@
         <v>387</v>
       </c>
       <c r="C399" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D399">
         <v>394</v>
@@ -7843,7 +7843,7 @@
         <v>389</v>
       </c>
       <c r="C402" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D402">
         <v>397</v>
@@ -7857,7 +7857,7 @@
         <v>390</v>
       </c>
       <c r="C403" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D403">
         <v>398</v>
@@ -7871,7 +7871,7 @@
         <v>391</v>
       </c>
       <c r="C404" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D404">
         <v>399</v>
@@ -7885,7 +7885,7 @@
         <v>90</v>
       </c>
       <c r="C405" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D405">
         <v>400</v>
@@ -7899,7 +7899,7 @@
         <v>392</v>
       </c>
       <c r="C406" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D406">
         <v>401</v>
@@ -7913,7 +7913,7 @@
         <v>393</v>
       </c>
       <c r="C407" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D407">
         <v>402</v>
@@ -7941,7 +7941,7 @@
         <v>395</v>
       </c>
       <c r="C410" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D410">
         <v>405</v>
@@ -7955,7 +7955,7 @@
         <v>396</v>
       </c>
       <c r="C411" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D411">
         <v>406</v>
@@ -7969,7 +7969,7 @@
         <v>397</v>
       </c>
       <c r="C412" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D412">
         <v>407</v>
@@ -7983,7 +7983,7 @@
         <v>398</v>
       </c>
       <c r="C413" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D413">
         <v>408</v>
@@ -7997,7 +7997,7 @@
         <v>399</v>
       </c>
       <c r="C414" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D414">
         <v>409</v>
@@ -8011,7 +8011,7 @@
         <v>400</v>
       </c>
       <c r="C415" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D415">
         <v>410</v>
@@ -8025,7 +8025,7 @@
         <v>401</v>
       </c>
       <c r="C416" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D416">
         <v>411</v>
@@ -8039,7 +8039,7 @@
         <v>274</v>
       </c>
       <c r="C417" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D417">
         <v>412</v>
@@ -8053,7 +8053,7 @@
         <v>402</v>
       </c>
       <c r="C418" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D418">
         <v>413</v>
@@ -8067,7 +8067,7 @@
         <v>403</v>
       </c>
       <c r="C419" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D419">
         <v>414</v>
@@ -8081,7 +8081,7 @@
         <v>404</v>
       </c>
       <c r="C420" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D420">
         <v>415</v>
@@ -8095,7 +8095,7 @@
         <v>405</v>
       </c>
       <c r="C421" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D421">
         <v>416</v>
@@ -8109,7 +8109,7 @@
         <v>406</v>
       </c>
       <c r="C422" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D422">
         <v>417</v>
@@ -8123,7 +8123,7 @@
         <v>407</v>
       </c>
       <c r="C423" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D423">
         <v>418</v>
@@ -8137,7 +8137,7 @@
         <v>408</v>
       </c>
       <c r="C424" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D424">
         <v>419</v>
@@ -8151,7 +8151,7 @@
         <v>409</v>
       </c>
       <c r="C425" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D425">
         <v>420</v>
@@ -8165,7 +8165,7 @@
         <v>410</v>
       </c>
       <c r="C426" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D426">
         <v>421</v>
@@ -8179,7 +8179,7 @@
         <v>411</v>
       </c>
       <c r="C427" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D427">
         <v>422</v>
@@ -8193,7 +8193,7 @@
         <v>412</v>
       </c>
       <c r="C428" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D428">
         <v>423</v>
@@ -8207,7 +8207,7 @@
         <v>413</v>
       </c>
       <c r="C429" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D429">
         <v>424</v>
@@ -8221,7 +8221,7 @@
         <v>414</v>
       </c>
       <c r="C430" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D430">
         <v>425</v>
@@ -8235,7 +8235,7 @@
         <v>415</v>
       </c>
       <c r="C431" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D431">
         <v>426</v>
@@ -8249,7 +8249,7 @@
         <v>416</v>
       </c>
       <c r="C432" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D432">
         <v>427</v>
@@ -8263,7 +8263,7 @@
         <v>417</v>
       </c>
       <c r="C433" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D433">
         <v>428</v>
@@ -8277,7 +8277,7 @@
         <v>418</v>
       </c>
       <c r="C434" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D434">
         <v>429</v>
@@ -8291,7 +8291,7 @@
         <v>419</v>
       </c>
       <c r="C435" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D435">
         <v>430</v>
@@ -8305,7 +8305,7 @@
         <v>420</v>
       </c>
       <c r="C436" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D436">
         <v>431</v>
@@ -8319,7 +8319,7 @@
         <v>421</v>
       </c>
       <c r="C437" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D437">
         <v>432</v>
@@ -8333,7 +8333,7 @@
         <v>422</v>
       </c>
       <c r="C438" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D438">
         <v>433</v>
@@ -8347,7 +8347,7 @@
         <v>423</v>
       </c>
       <c r="C439" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D439">
         <v>434</v>
@@ -8361,7 +8361,7 @@
         <v>424</v>
       </c>
       <c r="C440" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D440">
         <v>435</v>
@@ -8375,7 +8375,7 @@
         <v>425</v>
       </c>
       <c r="C441" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D441">
         <v>436</v>
@@ -8389,7 +8389,7 @@
         <v>426</v>
       </c>
       <c r="C442" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D442">
         <v>437</v>
@@ -8403,7 +8403,7 @@
         <v>427</v>
       </c>
       <c r="C443" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D443">
         <v>438</v>
@@ -8417,7 +8417,7 @@
         <v>428</v>
       </c>
       <c r="C444" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D444">
         <v>439</v>
@@ -8431,7 +8431,7 @@
         <v>429</v>
       </c>
       <c r="C445" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D445">
         <v>440</v>
@@ -8445,7 +8445,7 @@
         <v>430</v>
       </c>
       <c r="C446" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D446">
         <v>441</v>
@@ -8459,7 +8459,7 @@
         <v>431</v>
       </c>
       <c r="C447" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D447">
         <v>442</v>
@@ -8473,7 +8473,7 @@
         <v>432</v>
       </c>
       <c r="C448" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D448">
         <v>443</v>
@@ -8487,7 +8487,7 @@
         <v>433</v>
       </c>
       <c r="C449" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D449">
         <v>444</v>
@@ -8501,7 +8501,7 @@
         <v>434</v>
       </c>
       <c r="C450" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D450">
         <v>445</v>
@@ -8515,7 +8515,7 @@
         <v>435</v>
       </c>
       <c r="C451" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D451">
         <v>446</v>
@@ -8529,7 +8529,7 @@
         <v>436</v>
       </c>
       <c r="C452" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D452">
         <v>447</v>
@@ -8543,7 +8543,7 @@
         <v>437</v>
       </c>
       <c r="C453" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D453">
         <v>448</v>
@@ -8557,7 +8557,7 @@
         <v>438</v>
       </c>
       <c r="C454" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D454">
         <v>449</v>
@@ -8571,7 +8571,7 @@
         <v>439</v>
       </c>
       <c r="C455" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D455">
         <v>450</v>
@@ -8585,7 +8585,7 @@
         <v>440</v>
       </c>
       <c r="C456" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D456">
         <v>451</v>
@@ -8599,7 +8599,7 @@
         <v>441</v>
       </c>
       <c r="C457" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D457">
         <v>452</v>
@@ -8613,7 +8613,7 @@
         <v>442</v>
       </c>
       <c r="C458" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D458">
         <v>453</v>
@@ -8627,7 +8627,7 @@
         <v>443</v>
       </c>
       <c r="C459" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D459">
         <v>454</v>
@@ -8641,7 +8641,7 @@
         <v>444</v>
       </c>
       <c r="C460" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D460">
         <v>455</v>
@@ -8655,7 +8655,7 @@
         <v>445</v>
       </c>
       <c r="C461" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D461">
         <v>456</v>
@@ -8669,7 +8669,7 @@
         <v>446</v>
       </c>
       <c r="C462" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D462">
         <v>457</v>
@@ -8683,7 +8683,7 @@
         <v>447</v>
       </c>
       <c r="C463" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D463">
         <v>458</v>
@@ -8697,7 +8697,7 @@
         <v>448</v>
       </c>
       <c r="C464" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D464">
         <v>459</v>
@@ -8711,7 +8711,7 @@
         <v>449</v>
       </c>
       <c r="C465" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D465">
         <v>460</v>
@@ -8725,7 +8725,7 @@
         <v>450</v>
       </c>
       <c r="C466" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D466">
         <v>461</v>
@@ -8739,7 +8739,7 @@
         <v>451</v>
       </c>
       <c r="C467" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D467">
         <v>462</v>
@@ -8753,7 +8753,7 @@
         <v>452</v>
       </c>
       <c r="C468" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D468">
         <v>463</v>
@@ -8767,7 +8767,7 @@
         <v>453</v>
       </c>
       <c r="C469" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D469">
         <v>464</v>
@@ -8796,7 +8796,7 @@
         <v>455</v>
       </c>
       <c r="C472" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D472">
         <v>467</v>
@@ -8810,7 +8810,7 @@
         <v>456</v>
       </c>
       <c r="C473" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D473">
         <v>468</v>
@@ -8824,7 +8824,7 @@
         <v>457</v>
       </c>
       <c r="C474" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D474">
         <v>469</v>
@@ -8838,7 +8838,7 @@
         <v>458</v>
       </c>
       <c r="C475" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D475">
         <v>470</v>
@@ -8852,7 +8852,7 @@
         <v>459</v>
       </c>
       <c r="C476" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D476">
         <v>471</v>
@@ -8866,7 +8866,7 @@
         <v>460</v>
       </c>
       <c r="C477" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D477">
         <v>472</v>
@@ -8880,7 +8880,7 @@
         <v>461</v>
       </c>
       <c r="C478" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D478">
         <v>473</v>
@@ -8894,7 +8894,7 @@
         <v>462</v>
       </c>
       <c r="C479" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D479">
         <v>474</v>
@@ -8908,7 +8908,7 @@
         <v>463</v>
       </c>
       <c r="C480" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D480">
         <v>475</v>
@@ -8922,7 +8922,7 @@
         <v>464</v>
       </c>
       <c r="C481" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D481">
         <v>476</v>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -70,10 +70,10 @@
     <t>Merge 2 sorted arrays without using Extra space.</t>
   </si>
   <si>
+    <t>Kadane's Algo [V.V.V.V.V IMP]</t>
+  </si>
+  <si>
     <t>&lt;-&gt;</t>
-  </si>
-  <si>
-    <t>Kadane's Algo [V.V.V.V.V IMP]</t>
   </si>
   <si>
     <t>Merge Intervals</t>
@@ -2429,7 +2429,7 @@
   <dimension ref="A1:D481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" outlineLevelCol="3"/>
@@ -2616,11 +2616,11 @@
       <c r="A17" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="8" t="s">
         <v>17</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D17">
         <v>12</v>
@@ -2631,10 +2631,10 @@
         <v>4</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D18">
         <v>13</v>
@@ -2648,7 +2648,7 @@
         <v>20</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D19">
         <v>14</v>
@@ -2662,7 +2662,7 @@
         <v>21</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D20">
         <v>15</v>
@@ -2676,7 +2676,7 @@
         <v>22</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D21">
         <v>16</v>
@@ -2690,7 +2690,7 @@
         <v>23</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D22">
         <v>17</v>
@@ -2704,7 +2704,7 @@
         <v>24</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D23">
         <v>18</v>
@@ -2718,7 +2718,7 @@
         <v>25</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D24">
         <v>19</v>
@@ -2732,7 +2732,7 @@
         <v>26</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D25">
         <v>20</v>
@@ -2746,7 +2746,7 @@
         <v>27</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D26">
         <v>21</v>
@@ -2760,7 +2760,7 @@
         <v>28</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D27">
         <v>22</v>
@@ -2774,7 +2774,7 @@
         <v>29</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D28">
         <v>23</v>
@@ -2788,7 +2788,7 @@
         <v>30</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D29">
         <v>24</v>
@@ -2802,7 +2802,7 @@
         <v>31</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D30">
         <v>25</v>
@@ -2816,7 +2816,7 @@
         <v>32</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D31">
         <v>26</v>
@@ -2830,7 +2830,7 @@
         <v>33</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D32">
         <v>27</v>
@@ -2844,7 +2844,7 @@
         <v>34</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D33">
         <v>28</v>
@@ -2858,7 +2858,7 @@
         <v>35</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D34">
         <v>29</v>
@@ -2872,7 +2872,7 @@
         <v>36</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D35">
         <v>30</v>
@@ -2886,7 +2886,7 @@
         <v>37</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D36">
         <v>31</v>
@@ -2900,7 +2900,7 @@
         <v>38</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D37">
         <v>32</v>
@@ -2914,7 +2914,7 @@
         <v>39</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D38">
         <v>33</v>
@@ -2928,7 +2928,7 @@
         <v>40</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D39">
         <v>34</v>
@@ -2942,7 +2942,7 @@
         <v>41</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D40">
         <v>35</v>
@@ -2956,7 +2956,7 @@
         <v>42</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D41">
         <v>36</v>
@@ -2965,7 +2965,7 @@
     <row r="42" ht="21" spans="2:4">
       <c r="B42" s="9"/>
       <c r="C42" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D42">
         <v>37</v>
@@ -2975,7 +2975,7 @@
       <c r="A43" s="5"/>
       <c r="B43" s="9"/>
       <c r="C43" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D43">
         <v>38</v>
@@ -2989,7 +2989,7 @@
         <v>44</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D44">
         <v>39</v>
@@ -3003,7 +3003,7 @@
         <v>45</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D45">
         <v>40</v>
@@ -3017,7 +3017,7 @@
         <v>46</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D46">
         <v>41</v>
@@ -3031,7 +3031,7 @@
         <v>47</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D47">
         <v>42</v>
@@ -3045,7 +3045,7 @@
         <v>48</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D48">
         <v>43</v>
@@ -3059,7 +3059,7 @@
         <v>49</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D49">
         <v>44</v>
@@ -3073,7 +3073,7 @@
         <v>50</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D50">
         <v>45</v>
@@ -3087,7 +3087,7 @@
         <v>51</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D51">
         <v>46</v>
@@ -3101,7 +3101,7 @@
         <v>52</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D52">
         <v>47</v>
@@ -3115,7 +3115,7 @@
         <v>53</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D53">
         <v>48</v>
@@ -3142,7 +3142,7 @@
         <v>55</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D56">
         <v>51</v>
@@ -3156,7 +3156,7 @@
         <v>56</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D57">
         <v>52</v>
@@ -3170,7 +3170,7 @@
         <v>57</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D58">
         <v>53</v>
@@ -3184,7 +3184,7 @@
         <v>58</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D59">
         <v>54</v>
@@ -3198,7 +3198,7 @@
         <v>59</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D60">
         <v>55</v>
@@ -3212,7 +3212,7 @@
         <v>60</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D61">
         <v>56</v>
@@ -3226,7 +3226,7 @@
         <v>61</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D62">
         <v>57</v>
@@ -3240,7 +3240,7 @@
         <v>62</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D63">
         <v>58</v>
@@ -3254,7 +3254,7 @@
         <v>63</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D64">
         <v>59</v>
@@ -3268,7 +3268,7 @@
         <v>64</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D65">
         <v>60</v>
@@ -3282,7 +3282,7 @@
         <v>65</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D66">
         <v>61</v>
@@ -3296,7 +3296,7 @@
         <v>66</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D67">
         <v>62</v>
@@ -3310,7 +3310,7 @@
         <v>67</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D68">
         <v>63</v>
@@ -3324,7 +3324,7 @@
         <v>68</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D69">
         <v>64</v>
@@ -3338,7 +3338,7 @@
         <v>69</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D70">
         <v>65</v>
@@ -3352,7 +3352,7 @@
         <v>70</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D71">
         <v>66</v>
@@ -3366,7 +3366,7 @@
         <v>71</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D72">
         <v>67</v>
@@ -3380,7 +3380,7 @@
         <v>72</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D73">
         <v>68</v>
@@ -3394,7 +3394,7 @@
         <v>73</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D74">
         <v>69</v>
@@ -3408,7 +3408,7 @@
         <v>74</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D75">
         <v>70</v>
@@ -3422,7 +3422,7 @@
         <v>75</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D76">
         <v>71</v>
@@ -3436,7 +3436,7 @@
         <v>76</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D77">
         <v>72</v>
@@ -3450,7 +3450,7 @@
         <v>77</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D78">
         <v>73</v>
@@ -3464,7 +3464,7 @@
         <v>78</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D79">
         <v>74</v>
@@ -3478,7 +3478,7 @@
         <v>79</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D80">
         <v>75</v>
@@ -3492,7 +3492,7 @@
         <v>80</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D81">
         <v>76</v>
@@ -3506,7 +3506,7 @@
         <v>81</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D82">
         <v>77</v>
@@ -3520,7 +3520,7 @@
         <v>82</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D83">
         <v>78</v>
@@ -3534,7 +3534,7 @@
         <v>83</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D84">
         <v>79</v>
@@ -3548,7 +3548,7 @@
         <v>84</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D85">
         <v>80</v>
@@ -3562,7 +3562,7 @@
         <v>85</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D86">
         <v>81</v>
@@ -3576,7 +3576,7 @@
         <v>86</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D87">
         <v>82</v>
@@ -3590,7 +3590,7 @@
         <v>87</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D88">
         <v>83</v>
@@ -3604,7 +3604,7 @@
         <v>88</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D89">
         <v>84</v>
@@ -3618,7 +3618,7 @@
         <v>89</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D90">
         <v>85</v>
@@ -3632,7 +3632,7 @@
         <v>90</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D91">
         <v>86</v>
@@ -3646,7 +3646,7 @@
         <v>91</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D92">
         <v>87</v>
@@ -3660,7 +3660,7 @@
         <v>92</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D93">
         <v>88</v>
@@ -3674,7 +3674,7 @@
         <v>93</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D94">
         <v>89</v>
@@ -3688,7 +3688,7 @@
         <v>94</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D95">
         <v>90</v>
@@ -3702,7 +3702,7 @@
         <v>95</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D96">
         <v>91</v>
@@ -3716,7 +3716,7 @@
         <v>96</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D97">
         <v>92</v>
@@ -3730,7 +3730,7 @@
         <v>97</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D98">
         <v>93</v>
@@ -3757,7 +3757,7 @@
         <v>99</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D101">
         <v>96</v>
@@ -3771,7 +3771,7 @@
         <v>100</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D102">
         <v>97</v>
@@ -3785,7 +3785,7 @@
         <v>101</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D103">
         <v>98</v>
@@ -3799,7 +3799,7 @@
         <v>102</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D104">
         <v>99</v>
@@ -3813,7 +3813,7 @@
         <v>103</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D105">
         <v>100</v>
@@ -3827,7 +3827,7 @@
         <v>104</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D106">
         <v>101</v>
@@ -3841,7 +3841,7 @@
         <v>105</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D107">
         <v>102</v>
@@ -3855,7 +3855,7 @@
         <v>106</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D108">
         <v>103</v>
@@ -3869,7 +3869,7 @@
         <v>107</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D109">
         <v>104</v>
@@ -3883,7 +3883,7 @@
         <v>108</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D110">
         <v>105</v>
@@ -3897,7 +3897,7 @@
         <v>109</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D111">
         <v>106</v>
@@ -3911,7 +3911,7 @@
         <v>110</v>
       </c>
       <c r="C112" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D112">
         <v>107</v>
@@ -3925,7 +3925,7 @@
         <v>111</v>
       </c>
       <c r="C113" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D113">
         <v>108</v>
@@ -3939,7 +3939,7 @@
         <v>112</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D114">
         <v>109</v>
@@ -3953,7 +3953,7 @@
         <v>113</v>
       </c>
       <c r="C115" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D115">
         <v>110</v>
@@ -3967,7 +3967,7 @@
         <v>114</v>
       </c>
       <c r="C116" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D116">
         <v>111</v>
@@ -3981,7 +3981,7 @@
         <v>115</v>
       </c>
       <c r="C117" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D117">
         <v>112</v>
@@ -3995,7 +3995,7 @@
         <v>116</v>
       </c>
       <c r="C118" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D118">
         <v>113</v>
@@ -4009,7 +4009,7 @@
         <v>117</v>
       </c>
       <c r="C119" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D119">
         <v>114</v>
@@ -4023,7 +4023,7 @@
         <v>118</v>
       </c>
       <c r="C120" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D120">
         <v>115</v>
@@ -4037,7 +4037,7 @@
         <v>119</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D121">
         <v>116</v>
@@ -4051,7 +4051,7 @@
         <v>120</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D122">
         <v>117</v>
@@ -4065,7 +4065,7 @@
         <v>121</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D123">
         <v>118</v>
@@ -4079,7 +4079,7 @@
         <v>122</v>
       </c>
       <c r="C124" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D124">
         <v>119</v>
@@ -4093,7 +4093,7 @@
         <v>123</v>
       </c>
       <c r="C125" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D125">
         <v>120</v>
@@ -4107,7 +4107,7 @@
         <v>124</v>
       </c>
       <c r="C126" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D126">
         <v>121</v>
@@ -4121,7 +4121,7 @@
         <v>125</v>
       </c>
       <c r="C127" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D127">
         <v>122</v>
@@ -4135,7 +4135,7 @@
         <v>126</v>
       </c>
       <c r="C128" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D128">
         <v>123</v>
@@ -4149,7 +4149,7 @@
         <v>127</v>
       </c>
       <c r="C129" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D129">
         <v>124</v>
@@ -4163,7 +4163,7 @@
         <v>128</v>
       </c>
       <c r="C130" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D130">
         <v>125</v>
@@ -4177,7 +4177,7 @@
         <v>129</v>
       </c>
       <c r="C131" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D131">
         <v>126</v>
@@ -4191,7 +4191,7 @@
         <v>130</v>
       </c>
       <c r="C132" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D132">
         <v>127</v>
@@ -4205,7 +4205,7 @@
         <v>131</v>
       </c>
       <c r="C133" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D133">
         <v>128</v>
@@ -4219,7 +4219,7 @@
         <v>132</v>
       </c>
       <c r="C134" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D134">
         <v>129</v>
@@ -4233,7 +4233,7 @@
         <v>133</v>
       </c>
       <c r="C135" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D135">
         <v>130</v>
@@ -4247,7 +4247,7 @@
         <v>134</v>
       </c>
       <c r="C136" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D136">
         <v>131</v>
@@ -4273,7 +4273,7 @@
         <v>136</v>
       </c>
       <c r="C139" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D139">
         <v>134</v>
@@ -4287,7 +4287,7 @@
         <v>137</v>
       </c>
       <c r="C140" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D140">
         <v>135</v>
@@ -4301,7 +4301,7 @@
         <v>138</v>
       </c>
       <c r="C141" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D141">
         <v>136</v>
@@ -4315,7 +4315,7 @@
         <v>139</v>
       </c>
       <c r="C142" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D142">
         <v>137</v>
@@ -4329,7 +4329,7 @@
         <v>140</v>
       </c>
       <c r="C143" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D143">
         <v>138</v>
@@ -4343,7 +4343,7 @@
         <v>141</v>
       </c>
       <c r="C144" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D144">
         <v>139</v>
@@ -4357,7 +4357,7 @@
         <v>142</v>
       </c>
       <c r="C145" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D145">
         <v>140</v>
@@ -4371,7 +4371,7 @@
         <v>143</v>
       </c>
       <c r="C146" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D146">
         <v>141</v>
@@ -4385,7 +4385,7 @@
         <v>144</v>
       </c>
       <c r="C147" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D147">
         <v>142</v>
@@ -4399,7 +4399,7 @@
         <v>145</v>
       </c>
       <c r="C148" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D148">
         <v>143</v>
@@ -4413,7 +4413,7 @@
         <v>146</v>
       </c>
       <c r="C149" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D149">
         <v>144</v>
@@ -4427,7 +4427,7 @@
         <v>147</v>
       </c>
       <c r="C150" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D150">
         <v>145</v>
@@ -4441,7 +4441,7 @@
         <v>148</v>
       </c>
       <c r="C151" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D151">
         <v>146</v>
@@ -4455,7 +4455,7 @@
         <v>149</v>
       </c>
       <c r="C152" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D152">
         <v>147</v>
@@ -4469,7 +4469,7 @@
         <v>150</v>
       </c>
       <c r="C153" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D153">
         <v>148</v>
@@ -4483,7 +4483,7 @@
         <v>151</v>
       </c>
       <c r="C154" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D154">
         <v>149</v>
@@ -4497,7 +4497,7 @@
         <v>152</v>
       </c>
       <c r="C155" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D155">
         <v>150</v>
@@ -4511,7 +4511,7 @@
         <v>153</v>
       </c>
       <c r="C156" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D156">
         <v>151</v>
@@ -4525,7 +4525,7 @@
         <v>154</v>
       </c>
       <c r="C157" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D157">
         <v>152</v>
@@ -4539,7 +4539,7 @@
         <v>155</v>
       </c>
       <c r="C158" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D158">
         <v>153</v>
@@ -4553,7 +4553,7 @@
         <v>156</v>
       </c>
       <c r="C159" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D159">
         <v>154</v>
@@ -4567,7 +4567,7 @@
         <v>157</v>
       </c>
       <c r="C160" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D160">
         <v>155</v>
@@ -4581,7 +4581,7 @@
         <v>158</v>
       </c>
       <c r="C161" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D161">
         <v>156</v>
@@ -4595,7 +4595,7 @@
         <v>159</v>
       </c>
       <c r="C162" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D162">
         <v>157</v>
@@ -4609,7 +4609,7 @@
         <v>160</v>
       </c>
       <c r="C163" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D163">
         <v>158</v>
@@ -4623,7 +4623,7 @@
         <v>161</v>
       </c>
       <c r="C164" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D164">
         <v>159</v>
@@ -4637,7 +4637,7 @@
         <v>162</v>
       </c>
       <c r="C165" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D165">
         <v>160</v>
@@ -4651,7 +4651,7 @@
         <v>163</v>
       </c>
       <c r="C166" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D166">
         <v>161</v>
@@ -4665,7 +4665,7 @@
         <v>164</v>
       </c>
       <c r="C167" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D167">
         <v>162</v>
@@ -4679,7 +4679,7 @@
         <v>165</v>
       </c>
       <c r="C168" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D168">
         <v>163</v>
@@ -4693,7 +4693,7 @@
         <v>166</v>
       </c>
       <c r="C169" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D169">
         <v>164</v>
@@ -4707,7 +4707,7 @@
         <v>167</v>
       </c>
       <c r="C170" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D170">
         <v>165</v>
@@ -4721,7 +4721,7 @@
         <v>168</v>
       </c>
       <c r="C171" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D171">
         <v>166</v>
@@ -4735,7 +4735,7 @@
         <v>169</v>
       </c>
       <c r="C172" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D172">
         <v>167</v>
@@ -4749,7 +4749,7 @@
         <v>170</v>
       </c>
       <c r="C173" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D173">
         <v>168</v>
@@ -4763,7 +4763,7 @@
         <v>171</v>
       </c>
       <c r="C174" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D174">
         <v>169</v>
@@ -4789,7 +4789,7 @@
         <v>173</v>
       </c>
       <c r="C177" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D177">
         <v>172</v>
@@ -4803,7 +4803,7 @@
         <v>174</v>
       </c>
       <c r="C178" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D178">
         <v>173</v>
@@ -4817,7 +4817,7 @@
         <v>175</v>
       </c>
       <c r="C179" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D179">
         <v>174</v>
@@ -4831,7 +4831,7 @@
         <v>176</v>
       </c>
       <c r="C180" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D180">
         <v>175</v>
@@ -4845,7 +4845,7 @@
         <v>177</v>
       </c>
       <c r="C181" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D181">
         <v>176</v>
@@ -4859,7 +4859,7 @@
         <v>178</v>
       </c>
       <c r="C182" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D182">
         <v>177</v>
@@ -4873,7 +4873,7 @@
         <v>179</v>
       </c>
       <c r="C183" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D183">
         <v>178</v>
@@ -4887,7 +4887,7 @@
         <v>180</v>
       </c>
       <c r="C184" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D184">
         <v>179</v>
@@ -4901,7 +4901,7 @@
         <v>181</v>
       </c>
       <c r="C185" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D185">
         <v>180</v>
@@ -4915,7 +4915,7 @@
         <v>182</v>
       </c>
       <c r="C186" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D186">
         <v>181</v>
@@ -4929,7 +4929,7 @@
         <v>183</v>
       </c>
       <c r="C187" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D187">
         <v>182</v>
@@ -4943,7 +4943,7 @@
         <v>184</v>
       </c>
       <c r="C188" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D188">
         <v>183</v>
@@ -4957,7 +4957,7 @@
         <v>185</v>
       </c>
       <c r="C189" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D189">
         <v>184</v>
@@ -4971,7 +4971,7 @@
         <v>186</v>
       </c>
       <c r="C190" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D190">
         <v>185</v>
@@ -4985,7 +4985,7 @@
         <v>187</v>
       </c>
       <c r="C191" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D191">
         <v>186</v>
@@ -4999,7 +4999,7 @@
         <v>188</v>
       </c>
       <c r="C192" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D192">
         <v>187</v>
@@ -5013,7 +5013,7 @@
         <v>189</v>
       </c>
       <c r="C193" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D193">
         <v>188</v>
@@ -5027,7 +5027,7 @@
         <v>190</v>
       </c>
       <c r="C194" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D194">
         <v>189</v>
@@ -5041,7 +5041,7 @@
         <v>191</v>
       </c>
       <c r="C195" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D195">
         <v>190</v>
@@ -5055,7 +5055,7 @@
         <v>192</v>
       </c>
       <c r="C196" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D196">
         <v>191</v>
@@ -5069,7 +5069,7 @@
         <v>193</v>
       </c>
       <c r="C197" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D197">
         <v>192</v>
@@ -5083,7 +5083,7 @@
         <v>194</v>
       </c>
       <c r="C198" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D198">
         <v>193</v>
@@ -5097,7 +5097,7 @@
         <v>195</v>
       </c>
       <c r="C199" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D199">
         <v>194</v>
@@ -5111,7 +5111,7 @@
         <v>196</v>
       </c>
       <c r="C200" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D200">
         <v>195</v>
@@ -5125,7 +5125,7 @@
         <v>197</v>
       </c>
       <c r="C201" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D201">
         <v>196</v>
@@ -5139,7 +5139,7 @@
         <v>198</v>
       </c>
       <c r="C202" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D202">
         <v>197</v>
@@ -5153,7 +5153,7 @@
         <v>199</v>
       </c>
       <c r="C203" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D203">
         <v>198</v>
@@ -5167,7 +5167,7 @@
         <v>200</v>
       </c>
       <c r="C204" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D204">
         <v>199</v>
@@ -5181,7 +5181,7 @@
         <v>201</v>
       </c>
       <c r="C205" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D205">
         <v>200</v>
@@ -5195,7 +5195,7 @@
         <v>202</v>
       </c>
       <c r="C206" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D206">
         <v>201</v>
@@ -5209,7 +5209,7 @@
         <v>203</v>
       </c>
       <c r="C207" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D207">
         <v>202</v>
@@ -5223,7 +5223,7 @@
         <v>204</v>
       </c>
       <c r="C208" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D208">
         <v>203</v>
@@ -5237,7 +5237,7 @@
         <v>205</v>
       </c>
       <c r="C209" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D209">
         <v>204</v>
@@ -5251,7 +5251,7 @@
         <v>206</v>
       </c>
       <c r="C210" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D210">
         <v>205</v>
@@ -5265,7 +5265,7 @@
         <v>207</v>
       </c>
       <c r="C211" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D211">
         <v>206</v>
@@ -5295,7 +5295,7 @@
         <v>209</v>
       </c>
       <c r="C214" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D214">
         <v>209</v>
@@ -5309,7 +5309,7 @@
         <v>210</v>
       </c>
       <c r="C215" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D215">
         <v>210</v>
@@ -5323,7 +5323,7 @@
         <v>211</v>
       </c>
       <c r="C216" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D216">
         <v>211</v>
@@ -5337,7 +5337,7 @@
         <v>212</v>
       </c>
       <c r="C217" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D217">
         <v>212</v>
@@ -5351,7 +5351,7 @@
         <v>213</v>
       </c>
       <c r="C218" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D218">
         <v>213</v>
@@ -5365,7 +5365,7 @@
         <v>214</v>
       </c>
       <c r="C219" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D219">
         <v>214</v>
@@ -5379,7 +5379,7 @@
         <v>215</v>
       </c>
       <c r="C220" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D220">
         <v>215</v>
@@ -5393,7 +5393,7 @@
         <v>216</v>
       </c>
       <c r="C221" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D221">
         <v>216</v>
@@ -5407,7 +5407,7 @@
         <v>217</v>
       </c>
       <c r="C222" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D222">
         <v>217</v>
@@ -5421,7 +5421,7 @@
         <v>218</v>
       </c>
       <c r="C223" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D223">
         <v>218</v>
@@ -5435,7 +5435,7 @@
         <v>219</v>
       </c>
       <c r="C224" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D224">
         <v>219</v>
@@ -5449,7 +5449,7 @@
         <v>220</v>
       </c>
       <c r="C225" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D225">
         <v>220</v>
@@ -5463,7 +5463,7 @@
         <v>221</v>
       </c>
       <c r="C226" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D226">
         <v>221</v>
@@ -5477,7 +5477,7 @@
         <v>222</v>
       </c>
       <c r="C227" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D227">
         <v>222</v>
@@ -5491,7 +5491,7 @@
         <v>223</v>
       </c>
       <c r="C228" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D228">
         <v>223</v>
@@ -5505,7 +5505,7 @@
         <v>224</v>
       </c>
       <c r="C229" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D229">
         <v>224</v>
@@ -5519,7 +5519,7 @@
         <v>225</v>
       </c>
       <c r="C230" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D230">
         <v>225</v>
@@ -5533,7 +5533,7 @@
         <v>226</v>
       </c>
       <c r="C231" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D231">
         <v>226</v>
@@ -5547,7 +5547,7 @@
         <v>227</v>
       </c>
       <c r="C232" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D232">
         <v>227</v>
@@ -5561,7 +5561,7 @@
         <v>228</v>
       </c>
       <c r="C233" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D233">
         <v>228</v>
@@ -5575,7 +5575,7 @@
         <v>229</v>
       </c>
       <c r="C234" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D234">
         <v>229</v>
@@ -5589,7 +5589,7 @@
         <v>230</v>
       </c>
       <c r="C235" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D235">
         <v>230</v>
@@ -5617,7 +5617,7 @@
         <v>232</v>
       </c>
       <c r="C238" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D238">
         <v>233</v>
@@ -5631,7 +5631,7 @@
         <v>233</v>
       </c>
       <c r="C239" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D239">
         <v>234</v>
@@ -5645,7 +5645,7 @@
         <v>234</v>
       </c>
       <c r="C240" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D240">
         <v>235</v>
@@ -5659,7 +5659,7 @@
         <v>235</v>
       </c>
       <c r="C241" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D241">
         <v>236</v>
@@ -5673,7 +5673,7 @@
         <v>236</v>
       </c>
       <c r="C242" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D242">
         <v>237</v>
@@ -5687,7 +5687,7 @@
         <v>237</v>
       </c>
       <c r="C243" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D243">
         <v>238</v>
@@ -5701,7 +5701,7 @@
         <v>238</v>
       </c>
       <c r="C244" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D244">
         <v>239</v>
@@ -5715,7 +5715,7 @@
         <v>239</v>
       </c>
       <c r="C245" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D245">
         <v>240</v>
@@ -5729,7 +5729,7 @@
         <v>240</v>
       </c>
       <c r="C246" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D246">
         <v>241</v>
@@ -5743,7 +5743,7 @@
         <v>241</v>
       </c>
       <c r="C247" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D247">
         <v>242</v>
@@ -5757,7 +5757,7 @@
         <v>242</v>
       </c>
       <c r="C248" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D248">
         <v>243</v>
@@ -5771,7 +5771,7 @@
         <v>243</v>
       </c>
       <c r="C249" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D249">
         <v>244</v>
@@ -5785,7 +5785,7 @@
         <v>244</v>
       </c>
       <c r="C250" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D250">
         <v>245</v>
@@ -5799,7 +5799,7 @@
         <v>245</v>
       </c>
       <c r="C251" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D251">
         <v>246</v>
@@ -5813,7 +5813,7 @@
         <v>246</v>
       </c>
       <c r="C252" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D252">
         <v>247</v>
@@ -5827,7 +5827,7 @@
         <v>247</v>
       </c>
       <c r="C253" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D253">
         <v>248</v>
@@ -5841,7 +5841,7 @@
         <v>248</v>
       </c>
       <c r="C254" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D254">
         <v>249</v>
@@ -5855,7 +5855,7 @@
         <v>249</v>
       </c>
       <c r="C255" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D255">
         <v>250</v>
@@ -5869,7 +5869,7 @@
         <v>250</v>
       </c>
       <c r="C256" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D256">
         <v>251</v>
@@ -5883,7 +5883,7 @@
         <v>251</v>
       </c>
       <c r="C257" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D257">
         <v>252</v>
@@ -5897,7 +5897,7 @@
         <v>252</v>
       </c>
       <c r="C258" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D258">
         <v>253</v>
@@ -5911,7 +5911,7 @@
         <v>253</v>
       </c>
       <c r="C259" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D259">
         <v>254</v>
@@ -5925,7 +5925,7 @@
         <v>254</v>
       </c>
       <c r="C260" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D260">
         <v>255</v>
@@ -5939,7 +5939,7 @@
         <v>255</v>
       </c>
       <c r="C261" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D261">
         <v>256</v>
@@ -5953,7 +5953,7 @@
         <v>256</v>
       </c>
       <c r="C262" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D262">
         <v>257</v>
@@ -5967,7 +5967,7 @@
         <v>257</v>
       </c>
       <c r="C263" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D263">
         <v>258</v>
@@ -5981,7 +5981,7 @@
         <v>258</v>
       </c>
       <c r="C264" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D264">
         <v>259</v>
@@ -5995,7 +5995,7 @@
         <v>259</v>
       </c>
       <c r="C265" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D265">
         <v>260</v>
@@ -6009,7 +6009,7 @@
         <v>260</v>
       </c>
       <c r="C266" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D266">
         <v>261</v>
@@ -6023,7 +6023,7 @@
         <v>261</v>
       </c>
       <c r="C267" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D267">
         <v>262</v>
@@ -6037,7 +6037,7 @@
         <v>262</v>
       </c>
       <c r="C268" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D268">
         <v>263</v>
@@ -6051,7 +6051,7 @@
         <v>263</v>
       </c>
       <c r="C269" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D269">
         <v>264</v>
@@ -6065,7 +6065,7 @@
         <v>264</v>
       </c>
       <c r="C270" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D270">
         <v>265</v>
@@ -6079,7 +6079,7 @@
         <v>88</v>
       </c>
       <c r="C271" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D271">
         <v>266</v>
@@ -6093,7 +6093,7 @@
         <v>265</v>
       </c>
       <c r="C272" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D272">
         <v>267</v>
@@ -6121,7 +6121,7 @@
         <v>267</v>
       </c>
       <c r="C275" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D275">
         <v>270</v>
@@ -6135,7 +6135,7 @@
         <v>268</v>
       </c>
       <c r="C276" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D276">
         <v>271</v>
@@ -6149,7 +6149,7 @@
         <v>269</v>
       </c>
       <c r="C277" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D277">
         <v>272</v>
@@ -6163,7 +6163,7 @@
         <v>270</v>
       </c>
       <c r="C278" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D278">
         <v>273</v>
@@ -6177,7 +6177,7 @@
         <v>271</v>
       </c>
       <c r="C279" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D279">
         <v>274</v>
@@ -6191,7 +6191,7 @@
         <v>272</v>
       </c>
       <c r="C280" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D280">
         <v>275</v>
@@ -6205,7 +6205,7 @@
         <v>273</v>
       </c>
       <c r="C281" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D281">
         <v>276</v>
@@ -6219,7 +6219,7 @@
         <v>274</v>
       </c>
       <c r="C282" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D282">
         <v>277</v>
@@ -6233,7 +6233,7 @@
         <v>275</v>
       </c>
       <c r="C283" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D283">
         <v>278</v>
@@ -6247,7 +6247,7 @@
         <v>276</v>
       </c>
       <c r="C284" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D284">
         <v>279</v>
@@ -6261,7 +6261,7 @@
         <v>277</v>
       </c>
       <c r="C285" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D285">
         <v>280</v>
@@ -6275,7 +6275,7 @@
         <v>278</v>
       </c>
       <c r="C286" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D286">
         <v>281</v>
@@ -6289,7 +6289,7 @@
         <v>279</v>
       </c>
       <c r="C287" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D287">
         <v>282</v>
@@ -6303,7 +6303,7 @@
         <v>280</v>
       </c>
       <c r="C288" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D288">
         <v>283</v>
@@ -6317,7 +6317,7 @@
         <v>281</v>
       </c>
       <c r="C289" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D289">
         <v>284</v>
@@ -6331,7 +6331,7 @@
         <v>282</v>
       </c>
       <c r="C290" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D290">
         <v>285</v>
@@ -6345,7 +6345,7 @@
         <v>283</v>
       </c>
       <c r="C291" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D291">
         <v>286</v>
@@ -6359,7 +6359,7 @@
         <v>284</v>
       </c>
       <c r="C292" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D292">
         <v>287</v>
@@ -6373,7 +6373,7 @@
         <v>285</v>
       </c>
       <c r="C293" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D293">
         <v>288</v>
@@ -6401,7 +6401,7 @@
         <v>287</v>
       </c>
       <c r="C296" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D296">
         <v>291</v>
@@ -6415,7 +6415,7 @@
         <v>288</v>
       </c>
       <c r="C297" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D297">
         <v>292</v>
@@ -6429,7 +6429,7 @@
         <v>289</v>
       </c>
       <c r="C298" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D298">
         <v>293</v>
@@ -6443,7 +6443,7 @@
         <v>290</v>
       </c>
       <c r="C299" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D299">
         <v>294</v>
@@ -6457,7 +6457,7 @@
         <v>291</v>
       </c>
       <c r="C300" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D300">
         <v>295</v>
@@ -6471,7 +6471,7 @@
         <v>292</v>
       </c>
       <c r="C301" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D301">
         <v>296</v>
@@ -6485,7 +6485,7 @@
         <v>293</v>
       </c>
       <c r="C302" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D302">
         <v>297</v>
@@ -6499,7 +6499,7 @@
         <v>294</v>
       </c>
       <c r="C303" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D303">
         <v>298</v>
@@ -6513,7 +6513,7 @@
         <v>295</v>
       </c>
       <c r="C304" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D304">
         <v>299</v>
@@ -6527,7 +6527,7 @@
         <v>296</v>
       </c>
       <c r="C305" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D305">
         <v>300</v>
@@ -6541,7 +6541,7 @@
         <v>297</v>
       </c>
       <c r="C306" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D306">
         <v>301</v>
@@ -6555,7 +6555,7 @@
         <v>298</v>
       </c>
       <c r="C307" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D307">
         <v>302</v>
@@ -6569,7 +6569,7 @@
         <v>299</v>
       </c>
       <c r="C308" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D308">
         <v>303</v>
@@ -6583,7 +6583,7 @@
         <v>300</v>
       </c>
       <c r="C309" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D309">
         <v>304</v>
@@ -6597,7 +6597,7 @@
         <v>301</v>
       </c>
       <c r="C310" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D310">
         <v>305</v>
@@ -6611,7 +6611,7 @@
         <v>302</v>
       </c>
       <c r="C311" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D311">
         <v>306</v>
@@ -6625,7 +6625,7 @@
         <v>303</v>
       </c>
       <c r="C312" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D312">
         <v>307</v>
@@ -6639,7 +6639,7 @@
         <v>304</v>
       </c>
       <c r="C313" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D313">
         <v>308</v>
@@ -6653,7 +6653,7 @@
         <v>305</v>
       </c>
       <c r="C314" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D314">
         <v>309</v>
@@ -6667,7 +6667,7 @@
         <v>306</v>
       </c>
       <c r="C315" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D315">
         <v>310</v>
@@ -6681,7 +6681,7 @@
         <v>307</v>
       </c>
       <c r="C316" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D316">
         <v>311</v>
@@ -6695,7 +6695,7 @@
         <v>308</v>
       </c>
       <c r="C317" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D317">
         <v>312</v>
@@ -6709,7 +6709,7 @@
         <v>309</v>
       </c>
       <c r="C318" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D318">
         <v>313</v>
@@ -6723,7 +6723,7 @@
         <v>310</v>
       </c>
       <c r="C319" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D319">
         <v>314</v>
@@ -6737,7 +6737,7 @@
         <v>311</v>
       </c>
       <c r="C320" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D320">
         <v>315</v>
@@ -6751,7 +6751,7 @@
         <v>312</v>
       </c>
       <c r="C321" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D321">
         <v>316</v>
@@ -6765,7 +6765,7 @@
         <v>313</v>
       </c>
       <c r="C322" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D322">
         <v>317</v>
@@ -6779,7 +6779,7 @@
         <v>314</v>
       </c>
       <c r="C323" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D323">
         <v>318</v>
@@ -6793,7 +6793,7 @@
         <v>315</v>
       </c>
       <c r="C324" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D324">
         <v>319</v>
@@ -6807,7 +6807,7 @@
         <v>316</v>
       </c>
       <c r="C325" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D325">
         <v>320</v>
@@ -6821,7 +6821,7 @@
         <v>317</v>
       </c>
       <c r="C326" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D326">
         <v>321</v>
@@ -6835,7 +6835,7 @@
         <v>318</v>
       </c>
       <c r="C327" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D327">
         <v>322</v>
@@ -6849,7 +6849,7 @@
         <v>319</v>
       </c>
       <c r="C328" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D328">
         <v>323</v>
@@ -6863,7 +6863,7 @@
         <v>320</v>
       </c>
       <c r="C329" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D329">
         <v>324</v>
@@ -6877,7 +6877,7 @@
         <v>321</v>
       </c>
       <c r="C330" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D330">
         <v>325</v>
@@ -6891,7 +6891,7 @@
         <v>322</v>
       </c>
       <c r="C331" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D331">
         <v>326</v>
@@ -6905,7 +6905,7 @@
         <v>323</v>
       </c>
       <c r="C332" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D332">
         <v>327</v>
@@ -6919,7 +6919,7 @@
         <v>324</v>
       </c>
       <c r="C333" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D333">
         <v>328</v>
@@ -6947,7 +6947,7 @@
         <v>326</v>
       </c>
       <c r="C336" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D336">
         <v>331</v>
@@ -6961,7 +6961,7 @@
         <v>327</v>
       </c>
       <c r="C337" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D337">
         <v>332</v>
@@ -6975,7 +6975,7 @@
         <v>328</v>
       </c>
       <c r="C338" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D338">
         <v>333</v>
@@ -6989,7 +6989,7 @@
         <v>329</v>
       </c>
       <c r="C339" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D339">
         <v>334</v>
@@ -7003,7 +7003,7 @@
         <v>330</v>
       </c>
       <c r="C340" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D340">
         <v>335</v>
@@ -7017,7 +7017,7 @@
         <v>331</v>
       </c>
       <c r="C341" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D341">
         <v>336</v>
@@ -7031,7 +7031,7 @@
         <v>332</v>
       </c>
       <c r="C342" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D342">
         <v>337</v>
@@ -7045,7 +7045,7 @@
         <v>333</v>
       </c>
       <c r="C343" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D343">
         <v>338</v>
@@ -7059,7 +7059,7 @@
         <v>334</v>
       </c>
       <c r="C344" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D344">
         <v>339</v>
@@ -7073,7 +7073,7 @@
         <v>335</v>
       </c>
       <c r="C345" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D345">
         <v>340</v>
@@ -7087,7 +7087,7 @@
         <v>336</v>
       </c>
       <c r="C346" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D346">
         <v>341</v>
@@ -7101,7 +7101,7 @@
         <v>337</v>
       </c>
       <c r="C347" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D347">
         <v>342</v>
@@ -7115,7 +7115,7 @@
         <v>338</v>
       </c>
       <c r="C348" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D348">
         <v>343</v>
@@ -7129,7 +7129,7 @@
         <v>339</v>
       </c>
       <c r="C349" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D349">
         <v>344</v>
@@ -7143,7 +7143,7 @@
         <v>340</v>
       </c>
       <c r="C350" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D350">
         <v>345</v>
@@ -7157,7 +7157,7 @@
         <v>341</v>
       </c>
       <c r="C351" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D351">
         <v>346</v>
@@ -7171,7 +7171,7 @@
         <v>342</v>
       </c>
       <c r="C352" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D352">
         <v>347</v>
@@ -7185,7 +7185,7 @@
         <v>343</v>
       </c>
       <c r="C353" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D353">
         <v>348</v>
@@ -7213,7 +7213,7 @@
         <v>345</v>
       </c>
       <c r="C356" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D356">
         <v>351</v>
@@ -7227,7 +7227,7 @@
         <v>346</v>
       </c>
       <c r="C357" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D357">
         <v>352</v>
@@ -7241,7 +7241,7 @@
         <v>347</v>
       </c>
       <c r="C358" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D358">
         <v>353</v>
@@ -7255,7 +7255,7 @@
         <v>348</v>
       </c>
       <c r="C359" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D359">
         <v>354</v>
@@ -7269,7 +7269,7 @@
         <v>349</v>
       </c>
       <c r="C360" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D360">
         <v>355</v>
@@ -7283,7 +7283,7 @@
         <v>350</v>
       </c>
       <c r="C361" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D361">
         <v>356</v>
@@ -7297,7 +7297,7 @@
         <v>351</v>
       </c>
       <c r="C362" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D362">
         <v>357</v>
@@ -7311,7 +7311,7 @@
         <v>352</v>
       </c>
       <c r="C363" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D363">
         <v>358</v>
@@ -7325,7 +7325,7 @@
         <v>353</v>
       </c>
       <c r="C364" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D364">
         <v>359</v>
@@ -7339,7 +7339,7 @@
         <v>354</v>
       </c>
       <c r="C365" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D365">
         <v>360</v>
@@ -7353,7 +7353,7 @@
         <v>355</v>
       </c>
       <c r="C366" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D366">
         <v>361</v>
@@ -7367,7 +7367,7 @@
         <v>356</v>
       </c>
       <c r="C367" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D367">
         <v>362</v>
@@ -7381,7 +7381,7 @@
         <v>357</v>
       </c>
       <c r="C368" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D368">
         <v>363</v>
@@ -7395,7 +7395,7 @@
         <v>358</v>
       </c>
       <c r="C369" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D369">
         <v>364</v>
@@ -7409,7 +7409,7 @@
         <v>359</v>
       </c>
       <c r="C370" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D370">
         <v>365</v>
@@ -7423,7 +7423,7 @@
         <v>360</v>
       </c>
       <c r="C371" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D371">
         <v>366</v>
@@ -7437,7 +7437,7 @@
         <v>361</v>
       </c>
       <c r="C372" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D372">
         <v>367</v>
@@ -7451,7 +7451,7 @@
         <v>362</v>
       </c>
       <c r="C373" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D373">
         <v>368</v>
@@ -7465,7 +7465,7 @@
         <v>363</v>
       </c>
       <c r="C374" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D374">
         <v>369</v>
@@ -7479,7 +7479,7 @@
         <v>364</v>
       </c>
       <c r="C375" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D375">
         <v>370</v>
@@ -7493,7 +7493,7 @@
         <v>365</v>
       </c>
       <c r="C376" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D376">
         <v>371</v>
@@ -7507,7 +7507,7 @@
         <v>366</v>
       </c>
       <c r="C377" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D377">
         <v>372</v>
@@ -7521,7 +7521,7 @@
         <v>367</v>
       </c>
       <c r="C378" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D378">
         <v>373</v>
@@ -7535,7 +7535,7 @@
         <v>368</v>
       </c>
       <c r="C379" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D379">
         <v>374</v>
@@ -7549,7 +7549,7 @@
         <v>369</v>
       </c>
       <c r="C380" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D380">
         <v>375</v>
@@ -7563,7 +7563,7 @@
         <v>370</v>
       </c>
       <c r="C381" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D381">
         <v>376</v>
@@ -7577,7 +7577,7 @@
         <v>371</v>
       </c>
       <c r="C382" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D382">
         <v>377</v>
@@ -7591,7 +7591,7 @@
         <v>372</v>
       </c>
       <c r="C383" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D383">
         <v>378</v>
@@ -7605,7 +7605,7 @@
         <v>373</v>
       </c>
       <c r="C384" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D384">
         <v>379</v>
@@ -7619,7 +7619,7 @@
         <v>374</v>
       </c>
       <c r="C385" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D385">
         <v>380</v>
@@ -7633,7 +7633,7 @@
         <v>375</v>
       </c>
       <c r="C386" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D386">
         <v>381</v>
@@ -7647,7 +7647,7 @@
         <v>376</v>
       </c>
       <c r="C387" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D387">
         <v>382</v>
@@ -7661,7 +7661,7 @@
         <v>377</v>
       </c>
       <c r="C388" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D388">
         <v>383</v>
@@ -7675,7 +7675,7 @@
         <v>378</v>
       </c>
       <c r="C389" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D389">
         <v>384</v>
@@ -7689,7 +7689,7 @@
         <v>378</v>
       </c>
       <c r="C390" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D390">
         <v>385</v>
@@ -7703,7 +7703,7 @@
         <v>379</v>
       </c>
       <c r="C391" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D391">
         <v>386</v>
@@ -7717,7 +7717,7 @@
         <v>380</v>
       </c>
       <c r="C392" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D392">
         <v>387</v>
@@ -7731,7 +7731,7 @@
         <v>381</v>
       </c>
       <c r="C393" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D393">
         <v>388</v>
@@ -7745,7 +7745,7 @@
         <v>382</v>
       </c>
       <c r="C394" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D394">
         <v>389</v>
@@ -7759,7 +7759,7 @@
         <v>383</v>
       </c>
       <c r="C395" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D395">
         <v>390</v>
@@ -7773,7 +7773,7 @@
         <v>384</v>
       </c>
       <c r="C396" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D396">
         <v>391</v>
@@ -7787,7 +7787,7 @@
         <v>385</v>
       </c>
       <c r="C397" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D397">
         <v>392</v>
@@ -7801,7 +7801,7 @@
         <v>386</v>
       </c>
       <c r="C398" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D398">
         <v>393</v>
@@ -7815,7 +7815,7 @@
         <v>387</v>
       </c>
       <c r="C399" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D399">
         <v>394</v>
@@ -7843,7 +7843,7 @@
         <v>389</v>
       </c>
       <c r="C402" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D402">
         <v>397</v>
@@ -7857,7 +7857,7 @@
         <v>390</v>
       </c>
       <c r="C403" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D403">
         <v>398</v>
@@ -7871,7 +7871,7 @@
         <v>391</v>
       </c>
       <c r="C404" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D404">
         <v>399</v>
@@ -7885,7 +7885,7 @@
         <v>90</v>
       </c>
       <c r="C405" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D405">
         <v>400</v>
@@ -7899,7 +7899,7 @@
         <v>392</v>
       </c>
       <c r="C406" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D406">
         <v>401</v>
@@ -7913,7 +7913,7 @@
         <v>393</v>
       </c>
       <c r="C407" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D407">
         <v>402</v>
@@ -7941,7 +7941,7 @@
         <v>395</v>
       </c>
       <c r="C410" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D410">
         <v>405</v>
@@ -7955,7 +7955,7 @@
         <v>396</v>
       </c>
       <c r="C411" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D411">
         <v>406</v>
@@ -7969,7 +7969,7 @@
         <v>397</v>
       </c>
       <c r="C412" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D412">
         <v>407</v>
@@ -7983,7 +7983,7 @@
         <v>398</v>
       </c>
       <c r="C413" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D413">
         <v>408</v>
@@ -7997,7 +7997,7 @@
         <v>399</v>
       </c>
       <c r="C414" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D414">
         <v>409</v>
@@ -8011,7 +8011,7 @@
         <v>400</v>
       </c>
       <c r="C415" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D415">
         <v>410</v>
@@ -8025,7 +8025,7 @@
         <v>401</v>
       </c>
       <c r="C416" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D416">
         <v>411</v>
@@ -8039,7 +8039,7 @@
         <v>274</v>
       </c>
       <c r="C417" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D417">
         <v>412</v>
@@ -8053,7 +8053,7 @@
         <v>402</v>
       </c>
       <c r="C418" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D418">
         <v>413</v>
@@ -8067,7 +8067,7 @@
         <v>403</v>
       </c>
       <c r="C419" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D419">
         <v>414</v>
@@ -8081,7 +8081,7 @@
         <v>404</v>
       </c>
       <c r="C420" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D420">
         <v>415</v>
@@ -8095,7 +8095,7 @@
         <v>405</v>
       </c>
       <c r="C421" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D421">
         <v>416</v>
@@ -8109,7 +8109,7 @@
         <v>406</v>
       </c>
       <c r="C422" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D422">
         <v>417</v>
@@ -8123,7 +8123,7 @@
         <v>407</v>
       </c>
       <c r="C423" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D423">
         <v>418</v>
@@ -8137,7 +8137,7 @@
         <v>408</v>
       </c>
       <c r="C424" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D424">
         <v>419</v>
@@ -8151,7 +8151,7 @@
         <v>409</v>
       </c>
       <c r="C425" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D425">
         <v>420</v>
@@ -8165,7 +8165,7 @@
         <v>410</v>
       </c>
       <c r="C426" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D426">
         <v>421</v>
@@ -8179,7 +8179,7 @@
         <v>411</v>
       </c>
       <c r="C427" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D427">
         <v>422</v>
@@ -8193,7 +8193,7 @@
         <v>412</v>
       </c>
       <c r="C428" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D428">
         <v>423</v>
@@ -8207,7 +8207,7 @@
         <v>413</v>
       </c>
       <c r="C429" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D429">
         <v>424</v>
@@ -8221,7 +8221,7 @@
         <v>414</v>
       </c>
       <c r="C430" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D430">
         <v>425</v>
@@ -8235,7 +8235,7 @@
         <v>415</v>
       </c>
       <c r="C431" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D431">
         <v>426</v>
@@ -8249,7 +8249,7 @@
         <v>416</v>
       </c>
       <c r="C432" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D432">
         <v>427</v>
@@ -8263,7 +8263,7 @@
         <v>417</v>
       </c>
       <c r="C433" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D433">
         <v>428</v>
@@ -8277,7 +8277,7 @@
         <v>418</v>
       </c>
       <c r="C434" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D434">
         <v>429</v>
@@ -8291,7 +8291,7 @@
         <v>419</v>
       </c>
       <c r="C435" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D435">
         <v>430</v>
@@ -8305,7 +8305,7 @@
         <v>420</v>
       </c>
       <c r="C436" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D436">
         <v>431</v>
@@ -8319,7 +8319,7 @@
         <v>421</v>
       </c>
       <c r="C437" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D437">
         <v>432</v>
@@ -8333,7 +8333,7 @@
         <v>422</v>
       </c>
       <c r="C438" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D438">
         <v>433</v>
@@ -8347,7 +8347,7 @@
         <v>423</v>
       </c>
       <c r="C439" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D439">
         <v>434</v>
@@ -8361,7 +8361,7 @@
         <v>424</v>
       </c>
       <c r="C440" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D440">
         <v>435</v>
@@ -8375,7 +8375,7 @@
         <v>425</v>
       </c>
       <c r="C441" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D441">
         <v>436</v>
@@ -8389,7 +8389,7 @@
         <v>426</v>
       </c>
       <c r="C442" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D442">
         <v>437</v>
@@ -8403,7 +8403,7 @@
         <v>427</v>
       </c>
       <c r="C443" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D443">
         <v>438</v>
@@ -8417,7 +8417,7 @@
         <v>428</v>
       </c>
       <c r="C444" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D444">
         <v>439</v>
@@ -8431,7 +8431,7 @@
         <v>429</v>
       </c>
       <c r="C445" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D445">
         <v>440</v>
@@ -8445,7 +8445,7 @@
         <v>430</v>
       </c>
       <c r="C446" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D446">
         <v>441</v>
@@ -8459,7 +8459,7 @@
         <v>431</v>
       </c>
       <c r="C447" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D447">
         <v>442</v>
@@ -8473,7 +8473,7 @@
         <v>432</v>
       </c>
       <c r="C448" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D448">
         <v>443</v>
@@ -8487,7 +8487,7 @@
         <v>433</v>
       </c>
       <c r="C449" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D449">
         <v>444</v>
@@ -8501,7 +8501,7 @@
         <v>434</v>
       </c>
       <c r="C450" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D450">
         <v>445</v>
@@ -8515,7 +8515,7 @@
         <v>435</v>
       </c>
       <c r="C451" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D451">
         <v>446</v>
@@ -8529,7 +8529,7 @@
         <v>436</v>
       </c>
       <c r="C452" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D452">
         <v>447</v>
@@ -8543,7 +8543,7 @@
         <v>437</v>
       </c>
       <c r="C453" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D453">
         <v>448</v>
@@ -8557,7 +8557,7 @@
         <v>438</v>
       </c>
       <c r="C454" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D454">
         <v>449</v>
@@ -8571,7 +8571,7 @@
         <v>439</v>
       </c>
       <c r="C455" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D455">
         <v>450</v>
@@ -8585,7 +8585,7 @@
         <v>440</v>
       </c>
       <c r="C456" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D456">
         <v>451</v>
@@ -8599,7 +8599,7 @@
         <v>441</v>
       </c>
       <c r="C457" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D457">
         <v>452</v>
@@ -8613,7 +8613,7 @@
         <v>442</v>
       </c>
       <c r="C458" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D458">
         <v>453</v>
@@ -8627,7 +8627,7 @@
         <v>443</v>
       </c>
       <c r="C459" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D459">
         <v>454</v>
@@ -8641,7 +8641,7 @@
         <v>444</v>
       </c>
       <c r="C460" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D460">
         <v>455</v>
@@ -8655,7 +8655,7 @@
         <v>445</v>
       </c>
       <c r="C461" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D461">
         <v>456</v>
@@ -8669,7 +8669,7 @@
         <v>446</v>
       </c>
       <c r="C462" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D462">
         <v>457</v>
@@ -8683,7 +8683,7 @@
         <v>447</v>
       </c>
       <c r="C463" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D463">
         <v>458</v>
@@ -8697,7 +8697,7 @@
         <v>448</v>
       </c>
       <c r="C464" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D464">
         <v>459</v>
@@ -8711,7 +8711,7 @@
         <v>449</v>
       </c>
       <c r="C465" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D465">
         <v>460</v>
@@ -8725,7 +8725,7 @@
         <v>450</v>
       </c>
       <c r="C466" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D466">
         <v>461</v>
@@ -8739,7 +8739,7 @@
         <v>451</v>
       </c>
       <c r="C467" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D467">
         <v>462</v>
@@ -8753,7 +8753,7 @@
         <v>452</v>
       </c>
       <c r="C468" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D468">
         <v>463</v>
@@ -8767,7 +8767,7 @@
         <v>453</v>
       </c>
       <c r="C469" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D469">
         <v>464</v>
@@ -8796,7 +8796,7 @@
         <v>455</v>
       </c>
       <c r="C472" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D472">
         <v>467</v>
@@ -8810,7 +8810,7 @@
         <v>456</v>
       </c>
       <c r="C473" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D473">
         <v>468</v>
@@ -8824,7 +8824,7 @@
         <v>457</v>
       </c>
       <c r="C474" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D474">
         <v>469</v>
@@ -8838,7 +8838,7 @@
         <v>458</v>
       </c>
       <c r="C475" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D475">
         <v>470</v>
@@ -8852,7 +8852,7 @@
         <v>459</v>
       </c>
       <c r="C476" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D476">
         <v>471</v>
@@ -8866,7 +8866,7 @@
         <v>460</v>
       </c>
       <c r="C477" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D477">
         <v>472</v>
@@ -8880,7 +8880,7 @@
         <v>461</v>
       </c>
       <c r="C478" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D478">
         <v>473</v>
@@ -8894,7 +8894,7 @@
         <v>462</v>
       </c>
       <c r="C479" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D479">
         <v>474</v>
@@ -8908,7 +8908,7 @@
         <v>463</v>
       </c>
       <c r="C480" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D480">
         <v>475</v>
@@ -8922,7 +8922,7 @@
         <v>464</v>
       </c>
       <c r="C481" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D481">
         <v>476</v>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -73,10 +73,10 @@
     <t>Kadane's Algo [V.V.V.V.V IMP]</t>
   </si>
   <si>
+    <t>Merge Intervals</t>
+  </si>
+  <si>
     <t>&lt;-&gt;</t>
-  </si>
-  <si>
-    <t>Merge Intervals</t>
   </si>
   <si>
     <t>Next Permutation</t>
@@ -1416,8 +1416,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
@@ -1464,7 +1464,7 @@
     <font>
       <u/>
       <sz val="16"/>
-      <color theme="10"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1472,7 +1472,7 @@
     <font>
       <u/>
       <sz val="16"/>
-      <color rgb="FF800080"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1494,7 +1494,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1508,22 +1516,22 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1538,22 +1546,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -1562,37 +1554,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1607,6 +1569,14 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -1614,10 +1584,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1628,9 +1599,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1645,7 +1645,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1657,49 +1669,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1723,25 +1717,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1753,49 +1783,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1813,19 +1807,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1839,11 +1839,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1859,17 +1865,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1898,21 +1893,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1936,149 +1916,169 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2104,7 +2104,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -2428,8 +2428,8 @@
   <sheetPr/>
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" outlineLevelCol="3"/>
@@ -2504,7 +2504,7 @@
       <c r="A9" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="7" t="s">
@@ -2518,7 +2518,7 @@
       <c r="A10" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7" t="s">
@@ -2532,7 +2532,7 @@
       <c r="A11" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="7" t="s">
@@ -2546,7 +2546,7 @@
       <c r="A12" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="7" t="s">
@@ -2560,7 +2560,7 @@
       <c r="A13" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="7" t="s">
@@ -2574,7 +2574,7 @@
       <c r="A14" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="7" t="s">
@@ -2588,7 +2588,7 @@
       <c r="A15" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="7" t="s">
@@ -2602,7 +2602,7 @@
       <c r="A16" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C16" s="7" t="s">
@@ -2616,7 +2616,7 @@
       <c r="A17" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C17" s="7" t="s">
@@ -2630,11 +2630,11 @@
       <c r="A18" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D18">
         <v>13</v>
@@ -2644,11 +2644,11 @@
       <c r="A19" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>20</v>
+      <c r="B19" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D19">
         <v>14</v>
@@ -2658,11 +2658,11 @@
       <c r="A20" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="8" t="s">
         <v>21</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D20">
         <v>15</v>
@@ -2672,11 +2672,11 @@
       <c r="A21" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="8" t="s">
         <v>22</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D21">
         <v>16</v>
@@ -2686,11 +2686,11 @@
       <c r="A22" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="8" t="s">
         <v>23</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D22">
         <v>17</v>
@@ -2700,11 +2700,11 @@
       <c r="A23" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D23">
         <v>18</v>
@@ -2714,11 +2714,11 @@
       <c r="A24" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="8" t="s">
         <v>25</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D24">
         <v>19</v>
@@ -2728,11 +2728,11 @@
       <c r="A25" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="8" t="s">
         <v>26</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D25">
         <v>20</v>
@@ -2742,11 +2742,11 @@
       <c r="A26" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="8" t="s">
         <v>27</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D26">
         <v>21</v>
@@ -2756,11 +2756,11 @@
       <c r="A27" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="8" t="s">
         <v>28</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D27">
         <v>22</v>
@@ -2770,11 +2770,11 @@
       <c r="A28" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="8" t="s">
         <v>29</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D28">
         <v>23</v>
@@ -2784,11 +2784,11 @@
       <c r="A29" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="8" t="s">
         <v>30</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D29">
         <v>24</v>
@@ -2798,11 +2798,11 @@
       <c r="A30" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="8" t="s">
         <v>31</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D30">
         <v>25</v>
@@ -2812,11 +2812,11 @@
       <c r="A31" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="8" t="s">
         <v>32</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D31">
         <v>26</v>
@@ -2826,11 +2826,11 @@
       <c r="A32" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="8" t="s">
         <v>33</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D32">
         <v>27</v>
@@ -2840,11 +2840,11 @@
       <c r="A33" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D33">
         <v>28</v>
@@ -2854,11 +2854,11 @@
       <c r="A34" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="8" t="s">
         <v>35</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D34">
         <v>29</v>
@@ -2868,11 +2868,11 @@
       <c r="A35" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="8" t="s">
         <v>36</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D35">
         <v>30</v>
@@ -2882,11 +2882,11 @@
       <c r="A36" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="8" t="s">
         <v>37</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D36">
         <v>31</v>
@@ -2896,11 +2896,11 @@
       <c r="A37" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="8" t="s">
         <v>38</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D37">
         <v>32</v>
@@ -2910,11 +2910,11 @@
       <c r="A38" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="8" t="s">
         <v>39</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D38">
         <v>33</v>
@@ -2924,11 +2924,11 @@
       <c r="A39" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="8" t="s">
         <v>40</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D39">
         <v>34</v>
@@ -2938,11 +2938,11 @@
       <c r="A40" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="8" t="s">
         <v>41</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D40">
         <v>35</v>
@@ -2952,11 +2952,11 @@
       <c r="A41" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="8" t="s">
         <v>42</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D41">
         <v>36</v>
@@ -2965,7 +2965,7 @@
     <row r="42" ht="21" spans="2:4">
       <c r="B42" s="9"/>
       <c r="C42" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D42">
         <v>37</v>
@@ -2975,7 +2975,7 @@
       <c r="A43" s="5"/>
       <c r="B43" s="9"/>
       <c r="C43" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D43">
         <v>38</v>
@@ -2985,11 +2985,11 @@
       <c r="A44" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B44" s="8" t="s">
         <v>44</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D44">
         <v>39</v>
@@ -2999,11 +2999,11 @@
       <c r="A45" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="B45" s="8" t="s">
         <v>45</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D45">
         <v>40</v>
@@ -3013,11 +3013,11 @@
       <c r="A46" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B46" s="8" t="s">
         <v>46</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D46">
         <v>41</v>
@@ -3027,11 +3027,11 @@
       <c r="A47" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="B47" s="8" t="s">
         <v>47</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D47">
         <v>42</v>
@@ -3041,11 +3041,11 @@
       <c r="A48" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="B48" s="8" t="s">
         <v>48</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D48">
         <v>43</v>
@@ -3055,11 +3055,11 @@
       <c r="A49" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="B49" s="8" t="s">
         <v>49</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D49">
         <v>44</v>
@@ -3069,11 +3069,11 @@
       <c r="A50" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="B50" s="8" t="s">
         <v>50</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D50">
         <v>45</v>
@@ -3083,11 +3083,11 @@
       <c r="A51" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B51" s="6" t="s">
+      <c r="B51" s="8" t="s">
         <v>51</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D51">
         <v>46</v>
@@ -3097,11 +3097,11 @@
       <c r="A52" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="B52" s="8" t="s">
         <v>52</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D52">
         <v>47</v>
@@ -3111,11 +3111,11 @@
       <c r="A53" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B53" s="6" t="s">
+      <c r="B53" s="8" t="s">
         <v>53</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D53">
         <v>48</v>
@@ -3138,11 +3138,11 @@
       <c r="A56" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B56" s="6" t="s">
+      <c r="B56" s="8" t="s">
         <v>55</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D56">
         <v>51</v>
@@ -3152,11 +3152,11 @@
       <c r="A57" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B57" s="6" t="s">
+      <c r="B57" s="8" t="s">
         <v>56</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D57">
         <v>52</v>
@@ -3166,11 +3166,11 @@
       <c r="A58" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B58" s="6" t="s">
+      <c r="B58" s="8" t="s">
         <v>57</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D58">
         <v>53</v>
@@ -3184,7 +3184,7 @@
         <v>58</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D59">
         <v>54</v>
@@ -3194,11 +3194,11 @@
       <c r="A60" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B60" s="6" t="s">
+      <c r="B60" s="8" t="s">
         <v>59</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D60">
         <v>55</v>
@@ -3208,11 +3208,11 @@
       <c r="A61" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B61" s="6" t="s">
+      <c r="B61" s="8" t="s">
         <v>60</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D61">
         <v>56</v>
@@ -3222,11 +3222,11 @@
       <c r="A62" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B62" s="6" t="s">
+      <c r="B62" s="8" t="s">
         <v>61</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D62">
         <v>57</v>
@@ -3236,11 +3236,11 @@
       <c r="A63" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B63" s="6" t="s">
+      <c r="B63" s="8" t="s">
         <v>62</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D63">
         <v>58</v>
@@ -3250,11 +3250,11 @@
       <c r="A64" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B64" s="6" t="s">
+      <c r="B64" s="8" t="s">
         <v>63</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D64">
         <v>59</v>
@@ -3264,11 +3264,11 @@
       <c r="A65" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B65" s="6" t="s">
+      <c r="B65" s="8" t="s">
         <v>64</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D65">
         <v>60</v>
@@ -3278,11 +3278,11 @@
       <c r="A66" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B66" s="6" t="s">
+      <c r="B66" s="8" t="s">
         <v>65</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D66">
         <v>61</v>
@@ -3292,11 +3292,11 @@
       <c r="A67" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B67" s="6" t="s">
+      <c r="B67" s="8" t="s">
         <v>66</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D67">
         <v>62</v>
@@ -3306,11 +3306,11 @@
       <c r="A68" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B68" s="6" t="s">
+      <c r="B68" s="8" t="s">
         <v>67</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D68">
         <v>63</v>
@@ -3320,11 +3320,11 @@
       <c r="A69" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B69" s="6" t="s">
+      <c r="B69" s="8" t="s">
         <v>68</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D69">
         <v>64</v>
@@ -3334,11 +3334,11 @@
       <c r="A70" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B70" s="6" t="s">
+      <c r="B70" s="8" t="s">
         <v>69</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D70">
         <v>65</v>
@@ -3348,11 +3348,11 @@
       <c r="A71" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B71" s="6" t="s">
+      <c r="B71" s="8" t="s">
         <v>70</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D71">
         <v>66</v>
@@ -3362,11 +3362,11 @@
       <c r="A72" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B72" s="6" t="s">
+      <c r="B72" s="8" t="s">
         <v>71</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D72">
         <v>67</v>
@@ -3376,11 +3376,11 @@
       <c r="A73" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B73" s="6" t="s">
+      <c r="B73" s="8" t="s">
         <v>72</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D73">
         <v>68</v>
@@ -3390,11 +3390,11 @@
       <c r="A74" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B74" s="6" t="s">
+      <c r="B74" s="8" t="s">
         <v>73</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D74">
         <v>69</v>
@@ -3404,11 +3404,11 @@
       <c r="A75" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B75" s="6" t="s">
+      <c r="B75" s="8" t="s">
         <v>74</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D75">
         <v>70</v>
@@ -3418,11 +3418,11 @@
       <c r="A76" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B76" s="6" t="s">
+      <c r="B76" s="8" t="s">
         <v>75</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D76">
         <v>71</v>
@@ -3432,11 +3432,11 @@
       <c r="A77" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B77" s="6" t="s">
+      <c r="B77" s="8" t="s">
         <v>76</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D77">
         <v>72</v>
@@ -3446,11 +3446,11 @@
       <c r="A78" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B78" s="6" t="s">
+      <c r="B78" s="8" t="s">
         <v>77</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D78">
         <v>73</v>
@@ -3460,11 +3460,11 @@
       <c r="A79" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B79" s="6" t="s">
+      <c r="B79" s="8" t="s">
         <v>78</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D79">
         <v>74</v>
@@ -3474,11 +3474,11 @@
       <c r="A80" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B80" s="6" t="s">
+      <c r="B80" s="8" t="s">
         <v>79</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D80">
         <v>75</v>
@@ -3488,11 +3488,11 @@
       <c r="A81" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B81" s="6" t="s">
+      <c r="B81" s="8" t="s">
         <v>80</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D81">
         <v>76</v>
@@ -3502,11 +3502,11 @@
       <c r="A82" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B82" s="6" t="s">
+      <c r="B82" s="8" t="s">
         <v>81</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D82">
         <v>77</v>
@@ -3516,11 +3516,11 @@
       <c r="A83" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B83" s="6" t="s">
+      <c r="B83" s="8" t="s">
         <v>82</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D83">
         <v>78</v>
@@ -3530,11 +3530,11 @@
       <c r="A84" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B84" s="6" t="s">
+      <c r="B84" s="8" t="s">
         <v>83</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D84">
         <v>79</v>
@@ -3544,11 +3544,11 @@
       <c r="A85" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B85" s="6" t="s">
+      <c r="B85" s="8" t="s">
         <v>84</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D85">
         <v>80</v>
@@ -3558,11 +3558,11 @@
       <c r="A86" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B86" s="6" t="s">
+      <c r="B86" s="8" t="s">
         <v>85</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D86">
         <v>81</v>
@@ -3572,11 +3572,11 @@
       <c r="A87" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B87" s="6" t="s">
+      <c r="B87" s="8" t="s">
         <v>86</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D87">
         <v>82</v>
@@ -3586,11 +3586,11 @@
       <c r="A88" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B88" s="6" t="s">
+      <c r="B88" s="8" t="s">
         <v>87</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D88">
         <v>83</v>
@@ -3600,11 +3600,11 @@
       <c r="A89" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B89" s="6" t="s">
+      <c r="B89" s="8" t="s">
         <v>88</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D89">
         <v>84</v>
@@ -3614,11 +3614,11 @@
       <c r="A90" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B90" s="6" t="s">
+      <c r="B90" s="8" t="s">
         <v>89</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D90">
         <v>85</v>
@@ -3628,11 +3628,11 @@
       <c r="A91" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B91" s="6" t="s">
+      <c r="B91" s="8" t="s">
         <v>90</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D91">
         <v>86</v>
@@ -3642,11 +3642,11 @@
       <c r="A92" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B92" s="6" t="s">
+      <c r="B92" s="8" t="s">
         <v>91</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D92">
         <v>87</v>
@@ -3656,11 +3656,11 @@
       <c r="A93" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B93" s="6" t="s">
+      <c r="B93" s="8" t="s">
         <v>92</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D93">
         <v>88</v>
@@ -3670,11 +3670,11 @@
       <c r="A94" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B94" s="6" t="s">
+      <c r="B94" s="8" t="s">
         <v>93</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D94">
         <v>89</v>
@@ -3684,11 +3684,11 @@
       <c r="A95" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B95" s="6" t="s">
+      <c r="B95" s="8" t="s">
         <v>94</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D95">
         <v>90</v>
@@ -3698,11 +3698,11 @@
       <c r="A96" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B96" s="6" t="s">
+      <c r="B96" s="8" t="s">
         <v>95</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D96">
         <v>91</v>
@@ -3712,11 +3712,11 @@
       <c r="A97" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B97" s="6" t="s">
+      <c r="B97" s="8" t="s">
         <v>96</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D97">
         <v>92</v>
@@ -3726,11 +3726,11 @@
       <c r="A98" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B98" s="6" t="s">
+      <c r="B98" s="8" t="s">
         <v>97</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D98">
         <v>93</v>
@@ -3753,11 +3753,11 @@
       <c r="A101" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="B101" s="6" t="s">
+      <c r="B101" s="8" t="s">
         <v>99</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D101">
         <v>96</v>
@@ -3767,11 +3767,11 @@
       <c r="A102" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="B102" s="6" t="s">
+      <c r="B102" s="8" t="s">
         <v>100</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D102">
         <v>97</v>
@@ -3781,11 +3781,11 @@
       <c r="A103" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="B103" s="6" t="s">
+      <c r="B103" s="8" t="s">
         <v>101</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D103">
         <v>98</v>
@@ -3795,11 +3795,11 @@
       <c r="A104" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="B104" s="6" t="s">
+      <c r="B104" s="8" t="s">
         <v>102</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D104">
         <v>99</v>
@@ -3809,11 +3809,11 @@
       <c r="A105" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="B105" s="6" t="s">
+      <c r="B105" s="8" t="s">
         <v>103</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D105">
         <v>100</v>
@@ -3823,11 +3823,11 @@
       <c r="A106" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="B106" s="6" t="s">
+      <c r="B106" s="8" t="s">
         <v>104</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D106">
         <v>101</v>
@@ -3837,11 +3837,11 @@
       <c r="A107" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="B107" s="6" t="s">
+      <c r="B107" s="8" t="s">
         <v>105</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D107">
         <v>102</v>
@@ -3851,11 +3851,11 @@
       <c r="A108" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="B108" s="6" t="s">
+      <c r="B108" s="8" t="s">
         <v>106</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D108">
         <v>103</v>
@@ -3865,11 +3865,11 @@
       <c r="A109" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="B109" s="6" t="s">
+      <c r="B109" s="8" t="s">
         <v>107</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D109">
         <v>104</v>
@@ -3879,11 +3879,11 @@
       <c r="A110" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="B110" s="6" t="s">
+      <c r="B110" s="8" t="s">
         <v>108</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D110">
         <v>105</v>
@@ -3893,11 +3893,11 @@
       <c r="A111" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="B111" s="6" t="s">
+      <c r="B111" s="8" t="s">
         <v>109</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D111">
         <v>106</v>
@@ -3907,11 +3907,11 @@
       <c r="A112" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="B112" s="6" t="s">
+      <c r="B112" s="8" t="s">
         <v>110</v>
       </c>
       <c r="C112" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D112">
         <v>107</v>
@@ -3921,11 +3921,11 @@
       <c r="A113" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="B113" s="6" t="s">
+      <c r="B113" s="8" t="s">
         <v>111</v>
       </c>
       <c r="C113" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D113">
         <v>108</v>
@@ -3935,11 +3935,11 @@
       <c r="A114" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="B114" s="6" t="s">
+      <c r="B114" s="8" t="s">
         <v>112</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D114">
         <v>109</v>
@@ -3949,11 +3949,11 @@
       <c r="A115" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="B115" s="6" t="s">
+      <c r="B115" s="8" t="s">
         <v>113</v>
       </c>
       <c r="C115" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D115">
         <v>110</v>
@@ -3963,11 +3963,11 @@
       <c r="A116" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="B116" s="6" t="s">
+      <c r="B116" s="8" t="s">
         <v>114</v>
       </c>
       <c r="C116" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D116">
         <v>111</v>
@@ -3977,11 +3977,11 @@
       <c r="A117" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="B117" s="6" t="s">
+      <c r="B117" s="8" t="s">
         <v>115</v>
       </c>
       <c r="C117" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D117">
         <v>112</v>
@@ -3991,11 +3991,11 @@
       <c r="A118" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="B118" s="6" t="s">
+      <c r="B118" s="8" t="s">
         <v>116</v>
       </c>
       <c r="C118" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D118">
         <v>113</v>
@@ -4005,11 +4005,11 @@
       <c r="A119" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="B119" s="6" t="s">
+      <c r="B119" s="8" t="s">
         <v>117</v>
       </c>
       <c r="C119" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D119">
         <v>114</v>
@@ -4019,11 +4019,11 @@
       <c r="A120" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="B120" s="6" t="s">
+      <c r="B120" s="8" t="s">
         <v>118</v>
       </c>
       <c r="C120" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D120">
         <v>115</v>
@@ -4033,11 +4033,11 @@
       <c r="A121" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="B121" s="6" t="s">
+      <c r="B121" s="8" t="s">
         <v>119</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D121">
         <v>116</v>
@@ -4047,11 +4047,11 @@
       <c r="A122" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="B122" s="6" t="s">
+      <c r="B122" s="8" t="s">
         <v>120</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D122">
         <v>117</v>
@@ -4061,11 +4061,11 @@
       <c r="A123" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="B123" s="6" t="s">
+      <c r="B123" s="8" t="s">
         <v>121</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D123">
         <v>118</v>
@@ -4075,11 +4075,11 @@
       <c r="A124" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="B124" s="6" t="s">
+      <c r="B124" s="8" t="s">
         <v>122</v>
       </c>
       <c r="C124" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D124">
         <v>119</v>
@@ -4089,11 +4089,11 @@
       <c r="A125" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="B125" s="6" t="s">
+      <c r="B125" s="8" t="s">
         <v>123</v>
       </c>
       <c r="C125" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D125">
         <v>120</v>
@@ -4103,11 +4103,11 @@
       <c r="A126" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="B126" s="6" t="s">
+      <c r="B126" s="8" t="s">
         <v>124</v>
       </c>
       <c r="C126" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D126">
         <v>121</v>
@@ -4117,11 +4117,11 @@
       <c r="A127" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="B127" s="6" t="s">
+      <c r="B127" s="8" t="s">
         <v>125</v>
       </c>
       <c r="C127" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D127">
         <v>122</v>
@@ -4131,11 +4131,11 @@
       <c r="A128" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="B128" s="6" t="s">
+      <c r="B128" s="8" t="s">
         <v>126</v>
       </c>
       <c r="C128" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D128">
         <v>123</v>
@@ -4145,11 +4145,11 @@
       <c r="A129" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="B129" s="6" t="s">
+      <c r="B129" s="8" t="s">
         <v>127</v>
       </c>
       <c r="C129" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D129">
         <v>124</v>
@@ -4159,11 +4159,11 @@
       <c r="A130" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="B130" s="6" t="s">
+      <c r="B130" s="8" t="s">
         <v>128</v>
       </c>
       <c r="C130" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D130">
         <v>125</v>
@@ -4173,11 +4173,11 @@
       <c r="A131" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="B131" s="6" t="s">
+      <c r="B131" s="8" t="s">
         <v>129</v>
       </c>
       <c r="C131" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D131">
         <v>126</v>
@@ -4187,11 +4187,11 @@
       <c r="A132" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="B132" s="6" t="s">
+      <c r="B132" s="8" t="s">
         <v>130</v>
       </c>
       <c r="C132" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D132">
         <v>127</v>
@@ -4201,11 +4201,11 @@
       <c r="A133" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="B133" s="6" t="s">
+      <c r="B133" s="8" t="s">
         <v>131</v>
       </c>
       <c r="C133" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D133">
         <v>128</v>
@@ -4215,11 +4215,11 @@
       <c r="A134" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="B134" s="6" t="s">
+      <c r="B134" s="8" t="s">
         <v>132</v>
       </c>
       <c r="C134" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D134">
         <v>129</v>
@@ -4229,11 +4229,11 @@
       <c r="A135" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="B135" s="6" t="s">
+      <c r="B135" s="8" t="s">
         <v>133</v>
       </c>
       <c r="C135" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D135">
         <v>130</v>
@@ -4243,11 +4243,11 @@
       <c r="A136" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="B136" s="6" t="s">
+      <c r="B136" s="8" t="s">
         <v>134</v>
       </c>
       <c r="C136" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D136">
         <v>131</v>
@@ -4269,11 +4269,11 @@
       <c r="A139" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="B139" s="6" t="s">
+      <c r="B139" s="8" t="s">
         <v>136</v>
       </c>
       <c r="C139" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D139">
         <v>134</v>
@@ -4283,11 +4283,11 @@
       <c r="A140" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="B140" s="6" t="s">
+      <c r="B140" s="8" t="s">
         <v>137</v>
       </c>
       <c r="C140" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D140">
         <v>135</v>
@@ -4297,11 +4297,11 @@
       <c r="A141" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="B141" s="6" t="s">
+      <c r="B141" s="8" t="s">
         <v>138</v>
       </c>
       <c r="C141" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D141">
         <v>136</v>
@@ -4311,11 +4311,11 @@
       <c r="A142" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="B142" s="6" t="s">
+      <c r="B142" s="8" t="s">
         <v>139</v>
       </c>
       <c r="C142" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D142">
         <v>137</v>
@@ -4325,11 +4325,11 @@
       <c r="A143" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="B143" s="6" t="s">
+      <c r="B143" s="8" t="s">
         <v>140</v>
       </c>
       <c r="C143" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D143">
         <v>138</v>
@@ -4339,11 +4339,11 @@
       <c r="A144" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="B144" s="6" t="s">
+      <c r="B144" s="8" t="s">
         <v>141</v>
       </c>
       <c r="C144" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D144">
         <v>139</v>
@@ -4353,11 +4353,11 @@
       <c r="A145" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="B145" s="6" t="s">
+      <c r="B145" s="8" t="s">
         <v>142</v>
       </c>
       <c r="C145" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D145">
         <v>140</v>
@@ -4367,11 +4367,11 @@
       <c r="A146" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="B146" s="6" t="s">
+      <c r="B146" s="8" t="s">
         <v>143</v>
       </c>
       <c r="C146" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D146">
         <v>141</v>
@@ -4381,11 +4381,11 @@
       <c r="A147" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="B147" s="6" t="s">
+      <c r="B147" s="8" t="s">
         <v>144</v>
       </c>
       <c r="C147" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D147">
         <v>142</v>
@@ -4395,11 +4395,11 @@
       <c r="A148" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="B148" s="6" t="s">
+      <c r="B148" s="8" t="s">
         <v>145</v>
       </c>
       <c r="C148" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D148">
         <v>143</v>
@@ -4409,11 +4409,11 @@
       <c r="A149" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="B149" s="6" t="s">
+      <c r="B149" s="8" t="s">
         <v>146</v>
       </c>
       <c r="C149" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D149">
         <v>144</v>
@@ -4423,11 +4423,11 @@
       <c r="A150" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="B150" s="6" t="s">
+      <c r="B150" s="8" t="s">
         <v>147</v>
       </c>
       <c r="C150" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D150">
         <v>145</v>
@@ -4437,11 +4437,11 @@
       <c r="A151" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="B151" s="6" t="s">
+      <c r="B151" s="8" t="s">
         <v>148</v>
       </c>
       <c r="C151" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D151">
         <v>146</v>
@@ -4451,11 +4451,11 @@
       <c r="A152" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="B152" s="6" t="s">
+      <c r="B152" s="8" t="s">
         <v>149</v>
       </c>
       <c r="C152" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D152">
         <v>147</v>
@@ -4465,11 +4465,11 @@
       <c r="A153" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="B153" s="6" t="s">
+      <c r="B153" s="8" t="s">
         <v>150</v>
       </c>
       <c r="C153" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D153">
         <v>148</v>
@@ -4479,11 +4479,11 @@
       <c r="A154" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="B154" s="6" t="s">
+      <c r="B154" s="8" t="s">
         <v>151</v>
       </c>
       <c r="C154" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D154">
         <v>149</v>
@@ -4493,11 +4493,11 @@
       <c r="A155" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="B155" s="6" t="s">
+      <c r="B155" s="8" t="s">
         <v>152</v>
       </c>
       <c r="C155" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D155">
         <v>150</v>
@@ -4507,11 +4507,11 @@
       <c r="A156" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="B156" s="6" t="s">
+      <c r="B156" s="8" t="s">
         <v>153</v>
       </c>
       <c r="C156" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D156">
         <v>151</v>
@@ -4521,11 +4521,11 @@
       <c r="A157" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="B157" s="6" t="s">
+      <c r="B157" s="8" t="s">
         <v>154</v>
       </c>
       <c r="C157" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D157">
         <v>152</v>
@@ -4535,11 +4535,11 @@
       <c r="A158" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="B158" s="6" t="s">
+      <c r="B158" s="8" t="s">
         <v>155</v>
       </c>
       <c r="C158" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D158">
         <v>153</v>
@@ -4549,11 +4549,11 @@
       <c r="A159" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="B159" s="6" t="s">
+      <c r="B159" s="8" t="s">
         <v>156</v>
       </c>
       <c r="C159" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D159">
         <v>154</v>
@@ -4563,11 +4563,11 @@
       <c r="A160" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="B160" s="6" t="s">
+      <c r="B160" s="8" t="s">
         <v>157</v>
       </c>
       <c r="C160" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D160">
         <v>155</v>
@@ -4577,11 +4577,11 @@
       <c r="A161" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="B161" s="6" t="s">
+      <c r="B161" s="8" t="s">
         <v>158</v>
       </c>
       <c r="C161" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D161">
         <v>156</v>
@@ -4591,11 +4591,11 @@
       <c r="A162" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="B162" s="6" t="s">
+      <c r="B162" s="8" t="s">
         <v>159</v>
       </c>
       <c r="C162" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D162">
         <v>157</v>
@@ -4605,11 +4605,11 @@
       <c r="A163" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="B163" s="6" t="s">
+      <c r="B163" s="8" t="s">
         <v>160</v>
       </c>
       <c r="C163" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D163">
         <v>158</v>
@@ -4623,7 +4623,7 @@
         <v>161</v>
       </c>
       <c r="C164" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D164">
         <v>159</v>
@@ -4637,7 +4637,7 @@
         <v>162</v>
       </c>
       <c r="C165" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D165">
         <v>160</v>
@@ -4647,11 +4647,11 @@
       <c r="A166" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="B166" s="6" t="s">
+      <c r="B166" s="8" t="s">
         <v>163</v>
       </c>
       <c r="C166" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D166">
         <v>161</v>
@@ -4661,11 +4661,11 @@
       <c r="A167" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="B167" s="6" t="s">
+      <c r="B167" s="8" t="s">
         <v>164</v>
       </c>
       <c r="C167" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D167">
         <v>162</v>
@@ -4675,11 +4675,11 @@
       <c r="A168" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="B168" s="6" t="s">
+      <c r="B168" s="8" t="s">
         <v>165</v>
       </c>
       <c r="C168" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D168">
         <v>163</v>
@@ -4689,11 +4689,11 @@
       <c r="A169" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="B169" s="6" t="s">
+      <c r="B169" s="8" t="s">
         <v>166</v>
       </c>
       <c r="C169" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D169">
         <v>164</v>
@@ -4703,11 +4703,11 @@
       <c r="A170" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="B170" s="6" t="s">
+      <c r="B170" s="8" t="s">
         <v>167</v>
       </c>
       <c r="C170" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D170">
         <v>165</v>
@@ -4717,11 +4717,11 @@
       <c r="A171" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="B171" s="6" t="s">
+      <c r="B171" s="8" t="s">
         <v>168</v>
       </c>
       <c r="C171" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D171">
         <v>166</v>
@@ -4731,11 +4731,11 @@
       <c r="A172" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="B172" s="6" t="s">
+      <c r="B172" s="8" t="s">
         <v>169</v>
       </c>
       <c r="C172" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D172">
         <v>167</v>
@@ -4745,11 +4745,11 @@
       <c r="A173" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="B173" s="6" t="s">
+      <c r="B173" s="8" t="s">
         <v>170</v>
       </c>
       <c r="C173" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D173">
         <v>168</v>
@@ -4759,11 +4759,11 @@
       <c r="A174" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="B174" s="6" t="s">
+      <c r="B174" s="8" t="s">
         <v>171</v>
       </c>
       <c r="C174" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D174">
         <v>169</v>
@@ -4785,11 +4785,11 @@
       <c r="A177" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="B177" s="6" t="s">
+      <c r="B177" s="8" t="s">
         <v>173</v>
       </c>
       <c r="C177" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D177">
         <v>172</v>
@@ -4799,11 +4799,11 @@
       <c r="A178" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="B178" s="6" t="s">
+      <c r="B178" s="8" t="s">
         <v>174</v>
       </c>
       <c r="C178" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D178">
         <v>173</v>
@@ -4813,11 +4813,11 @@
       <c r="A179" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="B179" s="6" t="s">
+      <c r="B179" s="8" t="s">
         <v>175</v>
       </c>
       <c r="C179" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D179">
         <v>174</v>
@@ -4827,11 +4827,11 @@
       <c r="A180" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="B180" s="6" t="s">
+      <c r="B180" s="8" t="s">
         <v>176</v>
       </c>
       <c r="C180" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D180">
         <v>175</v>
@@ -4841,11 +4841,11 @@
       <c r="A181" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="B181" s="6" t="s">
+      <c r="B181" s="8" t="s">
         <v>177</v>
       </c>
       <c r="C181" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D181">
         <v>176</v>
@@ -4855,11 +4855,11 @@
       <c r="A182" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="B182" s="6" t="s">
+      <c r="B182" s="8" t="s">
         <v>178</v>
       </c>
       <c r="C182" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D182">
         <v>177</v>
@@ -4869,11 +4869,11 @@
       <c r="A183" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="B183" s="6" t="s">
+      <c r="B183" s="8" t="s">
         <v>179</v>
       </c>
       <c r="C183" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D183">
         <v>178</v>
@@ -4883,11 +4883,11 @@
       <c r="A184" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="B184" s="6" t="s">
+      <c r="B184" s="8" t="s">
         <v>180</v>
       </c>
       <c r="C184" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D184">
         <v>179</v>
@@ -4897,11 +4897,11 @@
       <c r="A185" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="B185" s="6" t="s">
+      <c r="B185" s="8" t="s">
         <v>181</v>
       </c>
       <c r="C185" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D185">
         <v>180</v>
@@ -4911,11 +4911,11 @@
       <c r="A186" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="B186" s="6" t="s">
+      <c r="B186" s="8" t="s">
         <v>182</v>
       </c>
       <c r="C186" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D186">
         <v>181</v>
@@ -4925,11 +4925,11 @@
       <c r="A187" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="B187" s="6" t="s">
+      <c r="B187" s="8" t="s">
         <v>183</v>
       </c>
       <c r="C187" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D187">
         <v>182</v>
@@ -4939,11 +4939,11 @@
       <c r="A188" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="B188" s="6" t="s">
+      <c r="B188" s="8" t="s">
         <v>184</v>
       </c>
       <c r="C188" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D188">
         <v>183</v>
@@ -4953,11 +4953,11 @@
       <c r="A189" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="B189" s="6" t="s">
+      <c r="B189" s="8" t="s">
         <v>185</v>
       </c>
       <c r="C189" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D189">
         <v>184</v>
@@ -4967,11 +4967,11 @@
       <c r="A190" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="B190" s="6" t="s">
+      <c r="B190" s="8" t="s">
         <v>186</v>
       </c>
       <c r="C190" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D190">
         <v>185</v>
@@ -4981,11 +4981,11 @@
       <c r="A191" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="B191" s="6" t="s">
+      <c r="B191" s="8" t="s">
         <v>187</v>
       </c>
       <c r="C191" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D191">
         <v>186</v>
@@ -4995,11 +4995,11 @@
       <c r="A192" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="B192" s="6" t="s">
+      <c r="B192" s="8" t="s">
         <v>188</v>
       </c>
       <c r="C192" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D192">
         <v>187</v>
@@ -5009,11 +5009,11 @@
       <c r="A193" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="B193" s="6" t="s">
+      <c r="B193" s="8" t="s">
         <v>189</v>
       </c>
       <c r="C193" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D193">
         <v>188</v>
@@ -5023,11 +5023,11 @@
       <c r="A194" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="B194" s="6" t="s">
+      <c r="B194" s="8" t="s">
         <v>190</v>
       </c>
       <c r="C194" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D194">
         <v>189</v>
@@ -5037,11 +5037,11 @@
       <c r="A195" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="B195" s="6" t="s">
+      <c r="B195" s="8" t="s">
         <v>191</v>
       </c>
       <c r="C195" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D195">
         <v>190</v>
@@ -5051,11 +5051,11 @@
       <c r="A196" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="B196" s="6" t="s">
+      <c r="B196" s="8" t="s">
         <v>192</v>
       </c>
       <c r="C196" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D196">
         <v>191</v>
@@ -5065,11 +5065,11 @@
       <c r="A197" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="B197" s="6" t="s">
+      <c r="B197" s="8" t="s">
         <v>193</v>
       </c>
       <c r="C197" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D197">
         <v>192</v>
@@ -5079,11 +5079,11 @@
       <c r="A198" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="B198" s="6" t="s">
+      <c r="B198" s="8" t="s">
         <v>194</v>
       </c>
       <c r="C198" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D198">
         <v>193</v>
@@ -5093,11 +5093,11 @@
       <c r="A199" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="B199" s="6" t="s">
+      <c r="B199" s="8" t="s">
         <v>195</v>
       </c>
       <c r="C199" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D199">
         <v>194</v>
@@ -5107,11 +5107,11 @@
       <c r="A200" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="B200" s="6" t="s">
+      <c r="B200" s="8" t="s">
         <v>196</v>
       </c>
       <c r="C200" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D200">
         <v>195</v>
@@ -5121,11 +5121,11 @@
       <c r="A201" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="B201" s="6" t="s">
+      <c r="B201" s="8" t="s">
         <v>197</v>
       </c>
       <c r="C201" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D201">
         <v>196</v>
@@ -5135,11 +5135,11 @@
       <c r="A202" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="B202" s="6" t="s">
+      <c r="B202" s="8" t="s">
         <v>198</v>
       </c>
       <c r="C202" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D202">
         <v>197</v>
@@ -5149,11 +5149,11 @@
       <c r="A203" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="B203" s="6" t="s">
+      <c r="B203" s="8" t="s">
         <v>199</v>
       </c>
       <c r="C203" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D203">
         <v>198</v>
@@ -5163,11 +5163,11 @@
       <c r="A204" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="B204" s="6" t="s">
+      <c r="B204" s="8" t="s">
         <v>200</v>
       </c>
       <c r="C204" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D204">
         <v>199</v>
@@ -5177,11 +5177,11 @@
       <c r="A205" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="B205" s="6" t="s">
+      <c r="B205" s="8" t="s">
         <v>201</v>
       </c>
       <c r="C205" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D205">
         <v>200</v>
@@ -5191,11 +5191,11 @@
       <c r="A206" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="B206" s="6" t="s">
+      <c r="B206" s="8" t="s">
         <v>202</v>
       </c>
       <c r="C206" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D206">
         <v>201</v>
@@ -5205,11 +5205,11 @@
       <c r="A207" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="B207" s="6" t="s">
+      <c r="B207" s="8" t="s">
         <v>203</v>
       </c>
       <c r="C207" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D207">
         <v>202</v>
@@ -5219,11 +5219,11 @@
       <c r="A208" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="B208" s="6" t="s">
+      <c r="B208" s="8" t="s">
         <v>204</v>
       </c>
       <c r="C208" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D208">
         <v>203</v>
@@ -5233,11 +5233,11 @@
       <c r="A209" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="B209" s="6" t="s">
+      <c r="B209" s="8" t="s">
         <v>205</v>
       </c>
       <c r="C209" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D209">
         <v>204</v>
@@ -5247,11 +5247,11 @@
       <c r="A210" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="B210" s="6" t="s">
+      <c r="B210" s="8" t="s">
         <v>206</v>
       </c>
       <c r="C210" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D210">
         <v>205</v>
@@ -5261,11 +5261,11 @@
       <c r="A211" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="B211" s="6" t="s">
+      <c r="B211" s="8" t="s">
         <v>207</v>
       </c>
       <c r="C211" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D211">
         <v>206</v>
@@ -5291,11 +5291,11 @@
       <c r="A214" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="B214" s="6" t="s">
+      <c r="B214" s="8" t="s">
         <v>209</v>
       </c>
       <c r="C214" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D214">
         <v>209</v>
@@ -5305,11 +5305,11 @@
       <c r="A215" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="B215" s="6" t="s">
+      <c r="B215" s="8" t="s">
         <v>210</v>
       </c>
       <c r="C215" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D215">
         <v>210</v>
@@ -5319,11 +5319,11 @@
       <c r="A216" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="B216" s="6" t="s">
+      <c r="B216" s="8" t="s">
         <v>211</v>
       </c>
       <c r="C216" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D216">
         <v>211</v>
@@ -5333,11 +5333,11 @@
       <c r="A217" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="B217" s="6" t="s">
+      <c r="B217" s="8" t="s">
         <v>212</v>
       </c>
       <c r="C217" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D217">
         <v>212</v>
@@ -5347,11 +5347,11 @@
       <c r="A218" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="B218" s="6" t="s">
+      <c r="B218" s="8" t="s">
         <v>213</v>
       </c>
       <c r="C218" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D218">
         <v>213</v>
@@ -5361,11 +5361,11 @@
       <c r="A219" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="B219" s="6" t="s">
+      <c r="B219" s="8" t="s">
         <v>214</v>
       </c>
       <c r="C219" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D219">
         <v>214</v>
@@ -5379,7 +5379,7 @@
         <v>215</v>
       </c>
       <c r="C220" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D220">
         <v>215</v>
@@ -5389,11 +5389,11 @@
       <c r="A221" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="B221" s="6" t="s">
+      <c r="B221" s="8" t="s">
         <v>216</v>
       </c>
       <c r="C221" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D221">
         <v>216</v>
@@ -5403,11 +5403,11 @@
       <c r="A222" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="B222" s="6" t="s">
+      <c r="B222" s="8" t="s">
         <v>217</v>
       </c>
       <c r="C222" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D222">
         <v>217</v>
@@ -5417,11 +5417,11 @@
       <c r="A223" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="B223" s="6" t="s">
+      <c r="B223" s="8" t="s">
         <v>218</v>
       </c>
       <c r="C223" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D223">
         <v>218</v>
@@ -5431,11 +5431,11 @@
       <c r="A224" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="B224" s="6" t="s">
+      <c r="B224" s="8" t="s">
         <v>219</v>
       </c>
       <c r="C224" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D224">
         <v>219</v>
@@ -5445,11 +5445,11 @@
       <c r="A225" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="B225" s="6" t="s">
+      <c r="B225" s="8" t="s">
         <v>220</v>
       </c>
       <c r="C225" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D225">
         <v>220</v>
@@ -5459,11 +5459,11 @@
       <c r="A226" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="B226" s="6" t="s">
+      <c r="B226" s="8" t="s">
         <v>221</v>
       </c>
       <c r="C226" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D226">
         <v>221</v>
@@ -5473,11 +5473,11 @@
       <c r="A227" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="B227" s="6" t="s">
+      <c r="B227" s="8" t="s">
         <v>222</v>
       </c>
       <c r="C227" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D227">
         <v>222</v>
@@ -5487,11 +5487,11 @@
       <c r="A228" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="B228" s="6" t="s">
+      <c r="B228" s="8" t="s">
         <v>223</v>
       </c>
       <c r="C228" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D228">
         <v>223</v>
@@ -5501,11 +5501,11 @@
       <c r="A229" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="B229" s="6" t="s">
+      <c r="B229" s="8" t="s">
         <v>224</v>
       </c>
       <c r="C229" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D229">
         <v>224</v>
@@ -5515,11 +5515,11 @@
       <c r="A230" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="B230" s="6" t="s">
+      <c r="B230" s="8" t="s">
         <v>225</v>
       </c>
       <c r="C230" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D230">
         <v>225</v>
@@ -5529,11 +5529,11 @@
       <c r="A231" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="B231" s="6" t="s">
+      <c r="B231" s="8" t="s">
         <v>226</v>
       </c>
       <c r="C231" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D231">
         <v>226</v>
@@ -5543,11 +5543,11 @@
       <c r="A232" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="B232" s="6" t="s">
+      <c r="B232" s="8" t="s">
         <v>227</v>
       </c>
       <c r="C232" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D232">
         <v>227</v>
@@ -5557,11 +5557,11 @@
       <c r="A233" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="B233" s="6" t="s">
+      <c r="B233" s="8" t="s">
         <v>228</v>
       </c>
       <c r="C233" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D233">
         <v>228</v>
@@ -5571,11 +5571,11 @@
       <c r="A234" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="B234" s="6" t="s">
+      <c r="B234" s="8" t="s">
         <v>229</v>
       </c>
       <c r="C234" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D234">
         <v>229</v>
@@ -5585,11 +5585,11 @@
       <c r="A235" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="B235" s="6" t="s">
+      <c r="B235" s="8" t="s">
         <v>230</v>
       </c>
       <c r="C235" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D235">
         <v>230</v>
@@ -5613,11 +5613,11 @@
       <c r="A238" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="B238" s="6" t="s">
+      <c r="B238" s="8" t="s">
         <v>232</v>
       </c>
       <c r="C238" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D238">
         <v>233</v>
@@ -5627,11 +5627,11 @@
       <c r="A239" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="B239" s="6" t="s">
+      <c r="B239" s="8" t="s">
         <v>233</v>
       </c>
       <c r="C239" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D239">
         <v>234</v>
@@ -5641,11 +5641,11 @@
       <c r="A240" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="B240" s="6" t="s">
+      <c r="B240" s="8" t="s">
         <v>234</v>
       </c>
       <c r="C240" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D240">
         <v>235</v>
@@ -5655,11 +5655,11 @@
       <c r="A241" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="B241" s="6" t="s">
+      <c r="B241" s="8" t="s">
         <v>235</v>
       </c>
       <c r="C241" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D241">
         <v>236</v>
@@ -5669,11 +5669,11 @@
       <c r="A242" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="B242" s="6" t="s">
+      <c r="B242" s="8" t="s">
         <v>236</v>
       </c>
       <c r="C242" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D242">
         <v>237</v>
@@ -5683,11 +5683,11 @@
       <c r="A243" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="B243" s="6" t="s">
+      <c r="B243" s="8" t="s">
         <v>237</v>
       </c>
       <c r="C243" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D243">
         <v>238</v>
@@ -5697,11 +5697,11 @@
       <c r="A244" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="B244" s="6" t="s">
+      <c r="B244" s="8" t="s">
         <v>238</v>
       </c>
       <c r="C244" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D244">
         <v>239</v>
@@ -5711,11 +5711,11 @@
       <c r="A245" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="B245" s="6" t="s">
+      <c r="B245" s="8" t="s">
         <v>239</v>
       </c>
       <c r="C245" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D245">
         <v>240</v>
@@ -5725,11 +5725,11 @@
       <c r="A246" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="B246" s="6" t="s">
+      <c r="B246" s="8" t="s">
         <v>240</v>
       </c>
       <c r="C246" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D246">
         <v>241</v>
@@ -5739,11 +5739,11 @@
       <c r="A247" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="B247" s="6" t="s">
+      <c r="B247" s="8" t="s">
         <v>241</v>
       </c>
       <c r="C247" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D247">
         <v>242</v>
@@ -5753,11 +5753,11 @@
       <c r="A248" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="B248" s="6" t="s">
+      <c r="B248" s="8" t="s">
         <v>242</v>
       </c>
       <c r="C248" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D248">
         <v>243</v>
@@ -5767,11 +5767,11 @@
       <c r="A249" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="B249" s="6" t="s">
+      <c r="B249" s="8" t="s">
         <v>243</v>
       </c>
       <c r="C249" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D249">
         <v>244</v>
@@ -5781,11 +5781,11 @@
       <c r="A250" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="B250" s="6" t="s">
+      <c r="B250" s="8" t="s">
         <v>244</v>
       </c>
       <c r="C250" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D250">
         <v>245</v>
@@ -5795,11 +5795,11 @@
       <c r="A251" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="B251" s="6" t="s">
+      <c r="B251" s="8" t="s">
         <v>245</v>
       </c>
       <c r="C251" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D251">
         <v>246</v>
@@ -5809,11 +5809,11 @@
       <c r="A252" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="B252" s="6" t="s">
+      <c r="B252" s="8" t="s">
         <v>246</v>
       </c>
       <c r="C252" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D252">
         <v>247</v>
@@ -5823,11 +5823,11 @@
       <c r="A253" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="B253" s="6" t="s">
+      <c r="B253" s="8" t="s">
         <v>247</v>
       </c>
       <c r="C253" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D253">
         <v>248</v>
@@ -5837,11 +5837,11 @@
       <c r="A254" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="B254" s="6" t="s">
+      <c r="B254" s="8" t="s">
         <v>248</v>
       </c>
       <c r="C254" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D254">
         <v>249</v>
@@ -5851,11 +5851,11 @@
       <c r="A255" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="B255" s="6" t="s">
+      <c r="B255" s="8" t="s">
         <v>249</v>
       </c>
       <c r="C255" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D255">
         <v>250</v>
@@ -5865,11 +5865,11 @@
       <c r="A256" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="B256" s="6" t="s">
+      <c r="B256" s="8" t="s">
         <v>250</v>
       </c>
       <c r="C256" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D256">
         <v>251</v>
@@ -5879,11 +5879,11 @@
       <c r="A257" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="B257" s="6" t="s">
+      <c r="B257" s="8" t="s">
         <v>251</v>
       </c>
       <c r="C257" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D257">
         <v>252</v>
@@ -5893,11 +5893,11 @@
       <c r="A258" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="B258" s="6" t="s">
+      <c r="B258" s="8" t="s">
         <v>252</v>
       </c>
       <c r="C258" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D258">
         <v>253</v>
@@ -5907,11 +5907,11 @@
       <c r="A259" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="B259" s="6" t="s">
+      <c r="B259" s="8" t="s">
         <v>253</v>
       </c>
       <c r="C259" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D259">
         <v>254</v>
@@ -5921,11 +5921,11 @@
       <c r="A260" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="B260" s="6" t="s">
+      <c r="B260" s="8" t="s">
         <v>254</v>
       </c>
       <c r="C260" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D260">
         <v>255</v>
@@ -5935,11 +5935,11 @@
       <c r="A261" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="B261" s="6" t="s">
+      <c r="B261" s="8" t="s">
         <v>255</v>
       </c>
       <c r="C261" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D261">
         <v>256</v>
@@ -5949,11 +5949,11 @@
       <c r="A262" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="B262" s="6" t="s">
+      <c r="B262" s="8" t="s">
         <v>256</v>
       </c>
       <c r="C262" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D262">
         <v>257</v>
@@ -5963,11 +5963,11 @@
       <c r="A263" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="B263" s="6" t="s">
+      <c r="B263" s="8" t="s">
         <v>257</v>
       </c>
       <c r="C263" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D263">
         <v>258</v>
@@ -5977,11 +5977,11 @@
       <c r="A264" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="B264" s="6" t="s">
+      <c r="B264" s="8" t="s">
         <v>258</v>
       </c>
       <c r="C264" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D264">
         <v>259</v>
@@ -5991,11 +5991,11 @@
       <c r="A265" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="B265" s="6" t="s">
+      <c r="B265" s="8" t="s">
         <v>259</v>
       </c>
       <c r="C265" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D265">
         <v>260</v>
@@ -6005,11 +6005,11 @@
       <c r="A266" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="B266" s="6" t="s">
+      <c r="B266" s="8" t="s">
         <v>260</v>
       </c>
       <c r="C266" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D266">
         <v>261</v>
@@ -6019,11 +6019,11 @@
       <c r="A267" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="B267" s="6" t="s">
+      <c r="B267" s="8" t="s">
         <v>261</v>
       </c>
       <c r="C267" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D267">
         <v>262</v>
@@ -6033,11 +6033,11 @@
       <c r="A268" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="B268" s="6" t="s">
+      <c r="B268" s="8" t="s">
         <v>262</v>
       </c>
       <c r="C268" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D268">
         <v>263</v>
@@ -6047,11 +6047,11 @@
       <c r="A269" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="B269" s="6" t="s">
+      <c r="B269" s="8" t="s">
         <v>263</v>
       </c>
       <c r="C269" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D269">
         <v>264</v>
@@ -6061,11 +6061,11 @@
       <c r="A270" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="B270" s="6" t="s">
+      <c r="B270" s="8" t="s">
         <v>264</v>
       </c>
       <c r="C270" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D270">
         <v>265</v>
@@ -6075,11 +6075,11 @@
       <c r="A271" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="B271" s="6" t="s">
+      <c r="B271" s="8" t="s">
         <v>88</v>
       </c>
       <c r="C271" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D271">
         <v>266</v>
@@ -6089,11 +6089,11 @@
       <c r="A272" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="B272" s="6" t="s">
+      <c r="B272" s="8" t="s">
         <v>265</v>
       </c>
       <c r="C272" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D272">
         <v>267</v>
@@ -6117,11 +6117,11 @@
       <c r="A275" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="B275" s="6" t="s">
+      <c r="B275" s="8" t="s">
         <v>267</v>
       </c>
       <c r="C275" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D275">
         <v>270</v>
@@ -6131,11 +6131,11 @@
       <c r="A276" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="B276" s="6" t="s">
+      <c r="B276" s="8" t="s">
         <v>268</v>
       </c>
       <c r="C276" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D276">
         <v>271</v>
@@ -6145,11 +6145,11 @@
       <c r="A277" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="B277" s="6" t="s">
+      <c r="B277" s="8" t="s">
         <v>269</v>
       </c>
       <c r="C277" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D277">
         <v>272</v>
@@ -6159,11 +6159,11 @@
       <c r="A278" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="B278" s="6" t="s">
+      <c r="B278" s="8" t="s">
         <v>270</v>
       </c>
       <c r="C278" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D278">
         <v>273</v>
@@ -6173,11 +6173,11 @@
       <c r="A279" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="B279" s="6" t="s">
+      <c r="B279" s="8" t="s">
         <v>271</v>
       </c>
       <c r="C279" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D279">
         <v>274</v>
@@ -6187,11 +6187,11 @@
       <c r="A280" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="B280" s="6" t="s">
+      <c r="B280" s="8" t="s">
         <v>272</v>
       </c>
       <c r="C280" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D280">
         <v>275</v>
@@ -6201,11 +6201,11 @@
       <c r="A281" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="B281" s="6" t="s">
+      <c r="B281" s="8" t="s">
         <v>273</v>
       </c>
       <c r="C281" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D281">
         <v>276</v>
@@ -6215,11 +6215,11 @@
       <c r="A282" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="B282" s="6" t="s">
+      <c r="B282" s="8" t="s">
         <v>274</v>
       </c>
       <c r="C282" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D282">
         <v>277</v>
@@ -6229,11 +6229,11 @@
       <c r="A283" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="B283" s="6" t="s">
+      <c r="B283" s="8" t="s">
         <v>275</v>
       </c>
       <c r="C283" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D283">
         <v>278</v>
@@ -6243,11 +6243,11 @@
       <c r="A284" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="B284" s="6" t="s">
+      <c r="B284" s="8" t="s">
         <v>276</v>
       </c>
       <c r="C284" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D284">
         <v>279</v>
@@ -6257,11 +6257,11 @@
       <c r="A285" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="B285" s="6" t="s">
+      <c r="B285" s="8" t="s">
         <v>277</v>
       </c>
       <c r="C285" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D285">
         <v>280</v>
@@ -6271,11 +6271,11 @@
       <c r="A286" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="B286" s="6" t="s">
+      <c r="B286" s="8" t="s">
         <v>278</v>
       </c>
       <c r="C286" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D286">
         <v>281</v>
@@ -6285,11 +6285,11 @@
       <c r="A287" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="B287" s="6" t="s">
+      <c r="B287" s="8" t="s">
         <v>279</v>
       </c>
       <c r="C287" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D287">
         <v>282</v>
@@ -6299,11 +6299,11 @@
       <c r="A288" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="B288" s="6" t="s">
+      <c r="B288" s="8" t="s">
         <v>280</v>
       </c>
       <c r="C288" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D288">
         <v>283</v>
@@ -6313,11 +6313,11 @@
       <c r="A289" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="B289" s="6" t="s">
+      <c r="B289" s="8" t="s">
         <v>281</v>
       </c>
       <c r="C289" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D289">
         <v>284</v>
@@ -6327,11 +6327,11 @@
       <c r="A290" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="B290" s="6" t="s">
+      <c r="B290" s="8" t="s">
         <v>282</v>
       </c>
       <c r="C290" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D290">
         <v>285</v>
@@ -6341,11 +6341,11 @@
       <c r="A291" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="B291" s="6" t="s">
+      <c r="B291" s="8" t="s">
         <v>283</v>
       </c>
       <c r="C291" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D291">
         <v>286</v>
@@ -6355,11 +6355,11 @@
       <c r="A292" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="B292" s="6" t="s">
+      <c r="B292" s="8" t="s">
         <v>284</v>
       </c>
       <c r="C292" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D292">
         <v>287</v>
@@ -6369,11 +6369,11 @@
       <c r="A293" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="B293" s="6" t="s">
+      <c r="B293" s="8" t="s">
         <v>285</v>
       </c>
       <c r="C293" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D293">
         <v>288</v>
@@ -6397,11 +6397,11 @@
       <c r="A296" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="B296" s="6" t="s">
+      <c r="B296" s="8" t="s">
         <v>287</v>
       </c>
       <c r="C296" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D296">
         <v>291</v>
@@ -6411,11 +6411,11 @@
       <c r="A297" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="B297" s="6" t="s">
+      <c r="B297" s="8" t="s">
         <v>288</v>
       </c>
       <c r="C297" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D297">
         <v>292</v>
@@ -6425,11 +6425,11 @@
       <c r="A298" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="B298" s="6" t="s">
+      <c r="B298" s="8" t="s">
         <v>289</v>
       </c>
       <c r="C298" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D298">
         <v>293</v>
@@ -6439,11 +6439,11 @@
       <c r="A299" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="B299" s="6" t="s">
+      <c r="B299" s="8" t="s">
         <v>290</v>
       </c>
       <c r="C299" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D299">
         <v>294</v>
@@ -6453,11 +6453,11 @@
       <c r="A300" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="B300" s="6" t="s">
+      <c r="B300" s="8" t="s">
         <v>291</v>
       </c>
       <c r="C300" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D300">
         <v>295</v>
@@ -6467,11 +6467,11 @@
       <c r="A301" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="B301" s="6" t="s">
+      <c r="B301" s="8" t="s">
         <v>292</v>
       </c>
       <c r="C301" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D301">
         <v>296</v>
@@ -6481,11 +6481,11 @@
       <c r="A302" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="B302" s="6" t="s">
+      <c r="B302" s="8" t="s">
         <v>293</v>
       </c>
       <c r="C302" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D302">
         <v>297</v>
@@ -6495,11 +6495,11 @@
       <c r="A303" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="B303" s="6" t="s">
+      <c r="B303" s="8" t="s">
         <v>294</v>
       </c>
       <c r="C303" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D303">
         <v>298</v>
@@ -6509,11 +6509,11 @@
       <c r="A304" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="B304" s="6" t="s">
+      <c r="B304" s="8" t="s">
         <v>295</v>
       </c>
       <c r="C304" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D304">
         <v>299</v>
@@ -6523,11 +6523,11 @@
       <c r="A305" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="B305" s="6" t="s">
+      <c r="B305" s="8" t="s">
         <v>296</v>
       </c>
       <c r="C305" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D305">
         <v>300</v>
@@ -6537,11 +6537,11 @@
       <c r="A306" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="B306" s="6" t="s">
+      <c r="B306" s="8" t="s">
         <v>297</v>
       </c>
       <c r="C306" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D306">
         <v>301</v>
@@ -6551,11 +6551,11 @@
       <c r="A307" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="B307" s="6" t="s">
+      <c r="B307" s="8" t="s">
         <v>298</v>
       </c>
       <c r="C307" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D307">
         <v>302</v>
@@ -6565,11 +6565,11 @@
       <c r="A308" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="B308" s="6" t="s">
+      <c r="B308" s="8" t="s">
         <v>299</v>
       </c>
       <c r="C308" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D308">
         <v>303</v>
@@ -6583,7 +6583,7 @@
         <v>300</v>
       </c>
       <c r="C309" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D309">
         <v>304</v>
@@ -6593,11 +6593,11 @@
       <c r="A310" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="B310" s="6" t="s">
+      <c r="B310" s="8" t="s">
         <v>301</v>
       </c>
       <c r="C310" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D310">
         <v>305</v>
@@ -6607,11 +6607,11 @@
       <c r="A311" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="B311" s="6" t="s">
+      <c r="B311" s="8" t="s">
         <v>302</v>
       </c>
       <c r="C311" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D311">
         <v>306</v>
@@ -6621,11 +6621,11 @@
       <c r="A312" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="B312" s="6" t="s">
+      <c r="B312" s="8" t="s">
         <v>303</v>
       </c>
       <c r="C312" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D312">
         <v>307</v>
@@ -6635,11 +6635,11 @@
       <c r="A313" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="B313" s="6" t="s">
+      <c r="B313" s="8" t="s">
         <v>304</v>
       </c>
       <c r="C313" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D313">
         <v>308</v>
@@ -6649,11 +6649,11 @@
       <c r="A314" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="B314" s="6" t="s">
+      <c r="B314" s="8" t="s">
         <v>305</v>
       </c>
       <c r="C314" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D314">
         <v>309</v>
@@ -6663,11 +6663,11 @@
       <c r="A315" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="B315" s="6" t="s">
+      <c r="B315" s="8" t="s">
         <v>306</v>
       </c>
       <c r="C315" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D315">
         <v>310</v>
@@ -6677,11 +6677,11 @@
       <c r="A316" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="B316" s="6" t="s">
+      <c r="B316" s="8" t="s">
         <v>307</v>
       </c>
       <c r="C316" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D316">
         <v>311</v>
@@ -6691,11 +6691,11 @@
       <c r="A317" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="B317" s="6" t="s">
+      <c r="B317" s="8" t="s">
         <v>308</v>
       </c>
       <c r="C317" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D317">
         <v>312</v>
@@ -6705,11 +6705,11 @@
       <c r="A318" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="B318" s="6" t="s">
+      <c r="B318" s="8" t="s">
         <v>309</v>
       </c>
       <c r="C318" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D318">
         <v>313</v>
@@ -6719,11 +6719,11 @@
       <c r="A319" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="B319" s="6" t="s">
+      <c r="B319" s="8" t="s">
         <v>310</v>
       </c>
       <c r="C319" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D319">
         <v>314</v>
@@ -6733,11 +6733,11 @@
       <c r="A320" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="B320" s="6" t="s">
+      <c r="B320" s="8" t="s">
         <v>311</v>
       </c>
       <c r="C320" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D320">
         <v>315</v>
@@ -6747,11 +6747,11 @@
       <c r="A321" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="B321" s="6" t="s">
+      <c r="B321" s="8" t="s">
         <v>312</v>
       </c>
       <c r="C321" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D321">
         <v>316</v>
@@ -6761,11 +6761,11 @@
       <c r="A322" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="B322" s="6" t="s">
+      <c r="B322" s="8" t="s">
         <v>313</v>
       </c>
       <c r="C322" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D322">
         <v>317</v>
@@ -6775,11 +6775,11 @@
       <c r="A323" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="B323" s="6" t="s">
+      <c r="B323" s="8" t="s">
         <v>314</v>
       </c>
       <c r="C323" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D323">
         <v>318</v>
@@ -6789,11 +6789,11 @@
       <c r="A324" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="B324" s="6" t="s">
+      <c r="B324" s="8" t="s">
         <v>315</v>
       </c>
       <c r="C324" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D324">
         <v>319</v>
@@ -6803,11 +6803,11 @@
       <c r="A325" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="B325" s="6" t="s">
+      <c r="B325" s="8" t="s">
         <v>316</v>
       </c>
       <c r="C325" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D325">
         <v>320</v>
@@ -6817,11 +6817,11 @@
       <c r="A326" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="B326" s="6" t="s">
+      <c r="B326" s="8" t="s">
         <v>317</v>
       </c>
       <c r="C326" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D326">
         <v>321</v>
@@ -6831,11 +6831,11 @@
       <c r="A327" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="B327" s="6" t="s">
+      <c r="B327" s="8" t="s">
         <v>318</v>
       </c>
       <c r="C327" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D327">
         <v>322</v>
@@ -6845,11 +6845,11 @@
       <c r="A328" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="B328" s="6" t="s">
+      <c r="B328" s="8" t="s">
         <v>319</v>
       </c>
       <c r="C328" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D328">
         <v>323</v>
@@ -6859,11 +6859,11 @@
       <c r="A329" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="B329" s="6" t="s">
+      <c r="B329" s="8" t="s">
         <v>320</v>
       </c>
       <c r="C329" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D329">
         <v>324</v>
@@ -6873,11 +6873,11 @@
       <c r="A330" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="B330" s="6" t="s">
+      <c r="B330" s="8" t="s">
         <v>321</v>
       </c>
       <c r="C330" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D330">
         <v>325</v>
@@ -6887,11 +6887,11 @@
       <c r="A331" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="B331" s="6" t="s">
+      <c r="B331" s="8" t="s">
         <v>322</v>
       </c>
       <c r="C331" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D331">
         <v>326</v>
@@ -6901,11 +6901,11 @@
       <c r="A332" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="B332" s="6" t="s">
+      <c r="B332" s="8" t="s">
         <v>323</v>
       </c>
       <c r="C332" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D332">
         <v>327</v>
@@ -6915,11 +6915,11 @@
       <c r="A333" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="B333" s="6" t="s">
+      <c r="B333" s="8" t="s">
         <v>324</v>
       </c>
       <c r="C333" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D333">
         <v>328</v>
@@ -6943,11 +6943,11 @@
       <c r="A336" s="10" t="s">
         <v>325</v>
       </c>
-      <c r="B336" s="6" t="s">
+      <c r="B336" s="8" t="s">
         <v>326</v>
       </c>
       <c r="C336" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D336">
         <v>331</v>
@@ -6957,11 +6957,11 @@
       <c r="A337" s="10" t="s">
         <v>325</v>
       </c>
-      <c r="B337" s="6" t="s">
+      <c r="B337" s="8" t="s">
         <v>327</v>
       </c>
       <c r="C337" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D337">
         <v>332</v>
@@ -6971,11 +6971,11 @@
       <c r="A338" s="10" t="s">
         <v>325</v>
       </c>
-      <c r="B338" s="6" t="s">
+      <c r="B338" s="8" t="s">
         <v>328</v>
       </c>
       <c r="C338" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D338">
         <v>333</v>
@@ -6985,11 +6985,11 @@
       <c r="A339" s="10" t="s">
         <v>325</v>
       </c>
-      <c r="B339" s="6" t="s">
+      <c r="B339" s="8" t="s">
         <v>329</v>
       </c>
       <c r="C339" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D339">
         <v>334</v>
@@ -6999,11 +6999,11 @@
       <c r="A340" s="10" t="s">
         <v>325</v>
       </c>
-      <c r="B340" s="6" t="s">
+      <c r="B340" s="8" t="s">
         <v>330</v>
       </c>
       <c r="C340" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D340">
         <v>335</v>
@@ -7013,11 +7013,11 @@
       <c r="A341" s="10" t="s">
         <v>325</v>
       </c>
-      <c r="B341" s="6" t="s">
+      <c r="B341" s="8" t="s">
         <v>331</v>
       </c>
       <c r="C341" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D341">
         <v>336</v>
@@ -7027,11 +7027,11 @@
       <c r="A342" s="10" t="s">
         <v>325</v>
       </c>
-      <c r="B342" s="6" t="s">
+      <c r="B342" s="8" t="s">
         <v>332</v>
       </c>
       <c r="C342" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D342">
         <v>337</v>
@@ -7041,11 +7041,11 @@
       <c r="A343" s="10" t="s">
         <v>325</v>
       </c>
-      <c r="B343" s="6" t="s">
+      <c r="B343" s="8" t="s">
         <v>333</v>
       </c>
       <c r="C343" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D343">
         <v>338</v>
@@ -7059,7 +7059,7 @@
         <v>334</v>
       </c>
       <c r="C344" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D344">
         <v>339</v>
@@ -7069,11 +7069,11 @@
       <c r="A345" s="10" t="s">
         <v>325</v>
       </c>
-      <c r="B345" s="6" t="s">
+      <c r="B345" s="8" t="s">
         <v>335</v>
       </c>
       <c r="C345" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D345">
         <v>340</v>
@@ -7083,11 +7083,11 @@
       <c r="A346" s="10" t="s">
         <v>325</v>
       </c>
-      <c r="B346" s="6" t="s">
+      <c r="B346" s="8" t="s">
         <v>336</v>
       </c>
       <c r="C346" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D346">
         <v>341</v>
@@ -7097,11 +7097,11 @@
       <c r="A347" s="10" t="s">
         <v>325</v>
       </c>
-      <c r="B347" s="6" t="s">
+      <c r="B347" s="8" t="s">
         <v>337</v>
       </c>
       <c r="C347" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D347">
         <v>342</v>
@@ -7111,11 +7111,11 @@
       <c r="A348" s="10" t="s">
         <v>325</v>
       </c>
-      <c r="B348" s="6" t="s">
+      <c r="B348" s="8" t="s">
         <v>338</v>
       </c>
       <c r="C348" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D348">
         <v>343</v>
@@ -7125,11 +7125,11 @@
       <c r="A349" s="10" t="s">
         <v>325</v>
       </c>
-      <c r="B349" s="6" t="s">
+      <c r="B349" s="8" t="s">
         <v>339</v>
       </c>
       <c r="C349" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D349">
         <v>344</v>
@@ -7139,11 +7139,11 @@
       <c r="A350" s="10" t="s">
         <v>325</v>
       </c>
-      <c r="B350" s="6" t="s">
+      <c r="B350" s="8" t="s">
         <v>340</v>
       </c>
       <c r="C350" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D350">
         <v>345</v>
@@ -7153,11 +7153,11 @@
       <c r="A351" s="10" t="s">
         <v>325</v>
       </c>
-      <c r="B351" s="6" t="s">
+      <c r="B351" s="8" t="s">
         <v>341</v>
       </c>
       <c r="C351" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D351">
         <v>346</v>
@@ -7167,11 +7167,11 @@
       <c r="A352" s="10" t="s">
         <v>325</v>
       </c>
-      <c r="B352" s="6" t="s">
+      <c r="B352" s="8" t="s">
         <v>342</v>
       </c>
       <c r="C352" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D352">
         <v>347</v>
@@ -7181,11 +7181,11 @@
       <c r="A353" s="10" t="s">
         <v>325</v>
       </c>
-      <c r="B353" s="6" t="s">
+      <c r="B353" s="8" t="s">
         <v>343</v>
       </c>
       <c r="C353" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D353">
         <v>348</v>
@@ -7209,11 +7209,11 @@
       <c r="A356" s="10" t="s">
         <v>344</v>
       </c>
-      <c r="B356" s="6" t="s">
+      <c r="B356" s="8" t="s">
         <v>345</v>
       </c>
       <c r="C356" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D356">
         <v>351</v>
@@ -7223,11 +7223,11 @@
       <c r="A357" s="10" t="s">
         <v>344</v>
       </c>
-      <c r="B357" s="6" t="s">
+      <c r="B357" s="8" t="s">
         <v>346</v>
       </c>
       <c r="C357" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D357">
         <v>352</v>
@@ -7237,11 +7237,11 @@
       <c r="A358" s="10" t="s">
         <v>344</v>
       </c>
-      <c r="B358" s="6" t="s">
+      <c r="B358" s="8" t="s">
         <v>347</v>
       </c>
       <c r="C358" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D358">
         <v>353</v>
@@ -7251,11 +7251,11 @@
       <c r="A359" s="10" t="s">
         <v>344</v>
       </c>
-      <c r="B359" s="6" t="s">
+      <c r="B359" s="8" t="s">
         <v>348</v>
       </c>
       <c r="C359" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D359">
         <v>354</v>
@@ -7265,11 +7265,11 @@
       <c r="A360" s="10" t="s">
         <v>344</v>
       </c>
-      <c r="B360" s="6" t="s">
+      <c r="B360" s="8" t="s">
         <v>349</v>
       </c>
       <c r="C360" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D360">
         <v>355</v>
@@ -7279,11 +7279,11 @@
       <c r="A361" s="10" t="s">
         <v>344</v>
       </c>
-      <c r="B361" s="6" t="s">
+      <c r="B361" s="8" t="s">
         <v>350</v>
       </c>
       <c r="C361" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D361">
         <v>356</v>
@@ -7293,11 +7293,11 @@
       <c r="A362" s="10" t="s">
         <v>344</v>
       </c>
-      <c r="B362" s="6" t="s">
+      <c r="B362" s="8" t="s">
         <v>351</v>
       </c>
       <c r="C362" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D362">
         <v>357</v>
@@ -7307,11 +7307,11 @@
       <c r="A363" s="10" t="s">
         <v>344</v>
       </c>
-      <c r="B363" s="6" t="s">
+      <c r="B363" s="8" t="s">
         <v>352</v>
       </c>
       <c r="C363" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D363">
         <v>358</v>
@@ -7321,11 +7321,11 @@
       <c r="A364" s="10" t="s">
         <v>344</v>
       </c>
-      <c r="B364" s="6" t="s">
+      <c r="B364" s="8" t="s">
         <v>353</v>
       </c>
       <c r="C364" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D364">
         <v>359</v>
@@ -7335,11 +7335,11 @@
       <c r="A365" s="10" t="s">
         <v>344</v>
       </c>
-      <c r="B365" s="6" t="s">
+      <c r="B365" s="8" t="s">
         <v>354</v>
       </c>
       <c r="C365" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D365">
         <v>360</v>
@@ -7349,11 +7349,11 @@
       <c r="A366" s="10" t="s">
         <v>344</v>
       </c>
-      <c r="B366" s="6" t="s">
+      <c r="B366" s="8" t="s">
         <v>355</v>
       </c>
       <c r="C366" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D366">
         <v>361</v>
@@ -7363,11 +7363,11 @@
       <c r="A367" s="10" t="s">
         <v>344</v>
       </c>
-      <c r="B367" s="6" t="s">
+      <c r="B367" s="8" t="s">
         <v>356</v>
       </c>
       <c r="C367" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D367">
         <v>362</v>
@@ -7377,11 +7377,11 @@
       <c r="A368" s="10" t="s">
         <v>344</v>
       </c>
-      <c r="B368" s="6" t="s">
+      <c r="B368" s="8" t="s">
         <v>357</v>
       </c>
       <c r="C368" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D368">
         <v>363</v>
@@ -7391,11 +7391,11 @@
       <c r="A369" s="10" t="s">
         <v>344</v>
       </c>
-      <c r="B369" s="6" t="s">
+      <c r="B369" s="8" t="s">
         <v>358</v>
       </c>
       <c r="C369" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D369">
         <v>364</v>
@@ -7405,11 +7405,11 @@
       <c r="A370" s="10" t="s">
         <v>344</v>
       </c>
-      <c r="B370" s="6" t="s">
+      <c r="B370" s="8" t="s">
         <v>359</v>
       </c>
       <c r="C370" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D370">
         <v>365</v>
@@ -7419,11 +7419,11 @@
       <c r="A371" s="10" t="s">
         <v>344</v>
       </c>
-      <c r="B371" s="6" t="s">
+      <c r="B371" s="8" t="s">
         <v>360</v>
       </c>
       <c r="C371" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D371">
         <v>366</v>
@@ -7433,11 +7433,11 @@
       <c r="A372" s="10" t="s">
         <v>344</v>
       </c>
-      <c r="B372" s="6" t="s">
+      <c r="B372" s="8" t="s">
         <v>361</v>
       </c>
       <c r="C372" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D372">
         <v>367</v>
@@ -7447,11 +7447,11 @@
       <c r="A373" s="10" t="s">
         <v>344</v>
       </c>
-      <c r="B373" s="6" t="s">
+      <c r="B373" s="8" t="s">
         <v>362</v>
       </c>
       <c r="C373" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D373">
         <v>368</v>
@@ -7461,11 +7461,11 @@
       <c r="A374" s="10" t="s">
         <v>344</v>
       </c>
-      <c r="B374" s="6" t="s">
+      <c r="B374" s="8" t="s">
         <v>363</v>
       </c>
       <c r="C374" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D374">
         <v>369</v>
@@ -7475,11 +7475,11 @@
       <c r="A375" s="10" t="s">
         <v>344</v>
       </c>
-      <c r="B375" s="6" t="s">
+      <c r="B375" s="8" t="s">
         <v>364</v>
       </c>
       <c r="C375" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D375">
         <v>370</v>
@@ -7489,11 +7489,11 @@
       <c r="A376" s="10" t="s">
         <v>344</v>
       </c>
-      <c r="B376" s="6" t="s">
+      <c r="B376" s="8" t="s">
         <v>365</v>
       </c>
       <c r="C376" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D376">
         <v>371</v>
@@ -7503,11 +7503,11 @@
       <c r="A377" s="10" t="s">
         <v>344</v>
       </c>
-      <c r="B377" s="6" t="s">
+      <c r="B377" s="8" t="s">
         <v>366</v>
       </c>
       <c r="C377" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D377">
         <v>372</v>
@@ -7517,11 +7517,11 @@
       <c r="A378" s="10" t="s">
         <v>344</v>
       </c>
-      <c r="B378" s="6" t="s">
+      <c r="B378" s="8" t="s">
         <v>367</v>
       </c>
       <c r="C378" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D378">
         <v>373</v>
@@ -7531,11 +7531,11 @@
       <c r="A379" s="10" t="s">
         <v>344</v>
       </c>
-      <c r="B379" s="6" t="s">
+      <c r="B379" s="8" t="s">
         <v>368</v>
       </c>
       <c r="C379" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D379">
         <v>374</v>
@@ -7545,11 +7545,11 @@
       <c r="A380" s="10" t="s">
         <v>344</v>
       </c>
-      <c r="B380" s="6" t="s">
+      <c r="B380" s="8" t="s">
         <v>369</v>
       </c>
       <c r="C380" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D380">
         <v>375</v>
@@ -7559,11 +7559,11 @@
       <c r="A381" s="10" t="s">
         <v>344</v>
       </c>
-      <c r="B381" s="6" t="s">
+      <c r="B381" s="8" t="s">
         <v>370</v>
       </c>
       <c r="C381" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D381">
         <v>376</v>
@@ -7573,11 +7573,11 @@
       <c r="A382" s="10" t="s">
         <v>344</v>
       </c>
-      <c r="B382" s="6" t="s">
+      <c r="B382" s="8" t="s">
         <v>371</v>
       </c>
       <c r="C382" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D382">
         <v>377</v>
@@ -7587,11 +7587,11 @@
       <c r="A383" s="10" t="s">
         <v>344</v>
       </c>
-      <c r="B383" s="6" t="s">
+      <c r="B383" s="8" t="s">
         <v>372</v>
       </c>
       <c r="C383" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D383">
         <v>378</v>
@@ -7601,11 +7601,11 @@
       <c r="A384" s="10" t="s">
         <v>344</v>
       </c>
-      <c r="B384" s="6" t="s">
+      <c r="B384" s="8" t="s">
         <v>373</v>
       </c>
       <c r="C384" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D384">
         <v>379</v>
@@ -7615,11 +7615,11 @@
       <c r="A385" s="10" t="s">
         <v>344</v>
       </c>
-      <c r="B385" s="6" t="s">
+      <c r="B385" s="8" t="s">
         <v>374</v>
       </c>
       <c r="C385" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D385">
         <v>380</v>
@@ -7629,11 +7629,11 @@
       <c r="A386" s="10" t="s">
         <v>344</v>
       </c>
-      <c r="B386" s="6" t="s">
+      <c r="B386" s="8" t="s">
         <v>375</v>
       </c>
       <c r="C386" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D386">
         <v>381</v>
@@ -7643,11 +7643,11 @@
       <c r="A387" s="10" t="s">
         <v>344</v>
       </c>
-      <c r="B387" s="6" t="s">
+      <c r="B387" s="8" t="s">
         <v>376</v>
       </c>
       <c r="C387" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D387">
         <v>382</v>
@@ -7657,11 +7657,11 @@
       <c r="A388" s="10" t="s">
         <v>344</v>
       </c>
-      <c r="B388" s="6" t="s">
+      <c r="B388" s="8" t="s">
         <v>377</v>
       </c>
       <c r="C388" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D388">
         <v>383</v>
@@ -7671,11 +7671,11 @@
       <c r="A389" s="10" t="s">
         <v>344</v>
       </c>
-      <c r="B389" s="6" t="s">
+      <c r="B389" s="8" t="s">
         <v>378</v>
       </c>
       <c r="C389" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D389">
         <v>384</v>
@@ -7685,11 +7685,11 @@
       <c r="A390" s="10" t="s">
         <v>344</v>
       </c>
-      <c r="B390" s="6" t="s">
+      <c r="B390" s="8" t="s">
         <v>378</v>
       </c>
       <c r="C390" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D390">
         <v>385</v>
@@ -7699,11 +7699,11 @@
       <c r="A391" s="10" t="s">
         <v>344</v>
       </c>
-      <c r="B391" s="6" t="s">
+      <c r="B391" s="8" t="s">
         <v>379</v>
       </c>
       <c r="C391" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D391">
         <v>386</v>
@@ -7713,11 +7713,11 @@
       <c r="A392" s="10" t="s">
         <v>344</v>
       </c>
-      <c r="B392" s="6" t="s">
+      <c r="B392" s="8" t="s">
         <v>380</v>
       </c>
       <c r="C392" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D392">
         <v>387</v>
@@ -7727,11 +7727,11 @@
       <c r="A393" s="10" t="s">
         <v>344</v>
       </c>
-      <c r="B393" s="6" t="s">
+      <c r="B393" s="8" t="s">
         <v>381</v>
       </c>
       <c r="C393" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D393">
         <v>388</v>
@@ -7741,11 +7741,11 @@
       <c r="A394" s="10" t="s">
         <v>344</v>
       </c>
-      <c r="B394" s="6" t="s">
+      <c r="B394" s="8" t="s">
         <v>382</v>
       </c>
       <c r="C394" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D394">
         <v>389</v>
@@ -7755,11 +7755,11 @@
       <c r="A395" s="10" t="s">
         <v>344</v>
       </c>
-      <c r="B395" s="6" t="s">
+      <c r="B395" s="8" t="s">
         <v>383</v>
       </c>
       <c r="C395" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D395">
         <v>390</v>
@@ -7769,11 +7769,11 @@
       <c r="A396" s="10" t="s">
         <v>344</v>
       </c>
-      <c r="B396" s="6" t="s">
+      <c r="B396" s="8" t="s">
         <v>384</v>
       </c>
       <c r="C396" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D396">
         <v>391</v>
@@ -7783,11 +7783,11 @@
       <c r="A397" s="10" t="s">
         <v>344</v>
       </c>
-      <c r="B397" s="6" t="s">
+      <c r="B397" s="8" t="s">
         <v>385</v>
       </c>
       <c r="C397" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D397">
         <v>392</v>
@@ -7797,11 +7797,11 @@
       <c r="A398" s="10" t="s">
         <v>344</v>
       </c>
-      <c r="B398" s="6" t="s">
+      <c r="B398" s="8" t="s">
         <v>386</v>
       </c>
       <c r="C398" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D398">
         <v>393</v>
@@ -7811,11 +7811,11 @@
       <c r="A399" s="10" t="s">
         <v>344</v>
       </c>
-      <c r="B399" s="6" t="s">
+      <c r="B399" s="8" t="s">
         <v>387</v>
       </c>
       <c r="C399" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D399">
         <v>394</v>
@@ -7839,11 +7839,11 @@
       <c r="A402" s="10" t="s">
         <v>388</v>
       </c>
-      <c r="B402" s="6" t="s">
+      <c r="B402" s="8" t="s">
         <v>389</v>
       </c>
       <c r="C402" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D402">
         <v>397</v>
@@ -7853,11 +7853,11 @@
       <c r="A403" s="10" t="s">
         <v>388</v>
       </c>
-      <c r="B403" s="6" t="s">
+      <c r="B403" s="8" t="s">
         <v>390</v>
       </c>
       <c r="C403" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D403">
         <v>398</v>
@@ -7867,11 +7867,11 @@
       <c r="A404" s="10" t="s">
         <v>388</v>
       </c>
-      <c r="B404" s="6" t="s">
+      <c r="B404" s="8" t="s">
         <v>391</v>
       </c>
       <c r="C404" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D404">
         <v>399</v>
@@ -7881,11 +7881,11 @@
       <c r="A405" s="10" t="s">
         <v>388</v>
       </c>
-      <c r="B405" s="6" t="s">
+      <c r="B405" s="8" t="s">
         <v>90</v>
       </c>
       <c r="C405" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D405">
         <v>400</v>
@@ -7895,11 +7895,11 @@
       <c r="A406" s="10" t="s">
         <v>388</v>
       </c>
-      <c r="B406" s="6" t="s">
+      <c r="B406" s="8" t="s">
         <v>392</v>
       </c>
       <c r="C406" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D406">
         <v>401</v>
@@ -7909,11 +7909,11 @@
       <c r="A407" s="10" t="s">
         <v>388</v>
       </c>
-      <c r="B407" s="6" t="s">
+      <c r="B407" s="8" t="s">
         <v>393</v>
       </c>
       <c r="C407" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D407">
         <v>402</v>
@@ -7937,11 +7937,11 @@
       <c r="A410" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="B410" s="6" t="s">
+      <c r="B410" s="8" t="s">
         <v>395</v>
       </c>
       <c r="C410" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D410">
         <v>405</v>
@@ -7951,11 +7951,11 @@
       <c r="A411" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="B411" s="6" t="s">
+      <c r="B411" s="8" t="s">
         <v>396</v>
       </c>
       <c r="C411" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D411">
         <v>406</v>
@@ -7965,11 +7965,11 @@
       <c r="A412" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="B412" s="6" t="s">
+      <c r="B412" s="8" t="s">
         <v>397</v>
       </c>
       <c r="C412" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D412">
         <v>407</v>
@@ -7979,11 +7979,11 @@
       <c r="A413" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="B413" s="6" t="s">
+      <c r="B413" s="8" t="s">
         <v>398</v>
       </c>
       <c r="C413" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D413">
         <v>408</v>
@@ -7993,11 +7993,11 @@
       <c r="A414" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="B414" s="6" t="s">
+      <c r="B414" s="8" t="s">
         <v>399</v>
       </c>
       <c r="C414" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D414">
         <v>409</v>
@@ -8007,11 +8007,11 @@
       <c r="A415" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="B415" s="6" t="s">
+      <c r="B415" s="8" t="s">
         <v>400</v>
       </c>
       <c r="C415" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D415">
         <v>410</v>
@@ -8021,11 +8021,11 @@
       <c r="A416" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="B416" s="6" t="s">
+      <c r="B416" s="8" t="s">
         <v>401</v>
       </c>
       <c r="C416" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D416">
         <v>411</v>
@@ -8035,11 +8035,11 @@
       <c r="A417" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="B417" s="6" t="s">
+      <c r="B417" s="8" t="s">
         <v>274</v>
       </c>
       <c r="C417" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D417">
         <v>412</v>
@@ -8049,11 +8049,11 @@
       <c r="A418" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="B418" s="6" t="s">
+      <c r="B418" s="8" t="s">
         <v>402</v>
       </c>
       <c r="C418" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D418">
         <v>413</v>
@@ -8063,11 +8063,11 @@
       <c r="A419" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="B419" s="6" t="s">
+      <c r="B419" s="8" t="s">
         <v>403</v>
       </c>
       <c r="C419" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D419">
         <v>414</v>
@@ -8077,11 +8077,11 @@
       <c r="A420" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="B420" s="6" t="s">
+      <c r="B420" s="8" t="s">
         <v>404</v>
       </c>
       <c r="C420" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D420">
         <v>415</v>
@@ -8091,11 +8091,11 @@
       <c r="A421" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="B421" s="6" t="s">
+      <c r="B421" s="8" t="s">
         <v>405</v>
       </c>
       <c r="C421" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D421">
         <v>416</v>
@@ -8105,11 +8105,11 @@
       <c r="A422" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="B422" s="6" t="s">
+      <c r="B422" s="8" t="s">
         <v>406</v>
       </c>
       <c r="C422" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D422">
         <v>417</v>
@@ -8119,11 +8119,11 @@
       <c r="A423" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="B423" s="6" t="s">
+      <c r="B423" s="8" t="s">
         <v>407</v>
       </c>
       <c r="C423" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D423">
         <v>418</v>
@@ -8133,11 +8133,11 @@
       <c r="A424" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="B424" s="6" t="s">
+      <c r="B424" s="8" t="s">
         <v>408</v>
       </c>
       <c r="C424" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D424">
         <v>419</v>
@@ -8147,11 +8147,11 @@
       <c r="A425" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="B425" s="6" t="s">
+      <c r="B425" s="8" t="s">
         <v>409</v>
       </c>
       <c r="C425" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D425">
         <v>420</v>
@@ -8161,11 +8161,11 @@
       <c r="A426" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="B426" s="6" t="s">
+      <c r="B426" s="8" t="s">
         <v>410</v>
       </c>
       <c r="C426" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D426">
         <v>421</v>
@@ -8175,11 +8175,11 @@
       <c r="A427" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="B427" s="6" t="s">
+      <c r="B427" s="8" t="s">
         <v>411</v>
       </c>
       <c r="C427" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D427">
         <v>422</v>
@@ -8189,11 +8189,11 @@
       <c r="A428" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="B428" s="6" t="s">
+      <c r="B428" s="8" t="s">
         <v>412</v>
       </c>
       <c r="C428" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D428">
         <v>423</v>
@@ -8203,11 +8203,11 @@
       <c r="A429" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="B429" s="6" t="s">
+      <c r="B429" s="8" t="s">
         <v>413</v>
       </c>
       <c r="C429" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D429">
         <v>424</v>
@@ -8217,11 +8217,11 @@
       <c r="A430" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="B430" s="6" t="s">
+      <c r="B430" s="8" t="s">
         <v>414</v>
       </c>
       <c r="C430" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D430">
         <v>425</v>
@@ -8231,11 +8231,11 @@
       <c r="A431" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="B431" s="6" t="s">
+      <c r="B431" s="8" t="s">
         <v>415</v>
       </c>
       <c r="C431" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D431">
         <v>426</v>
@@ -8245,11 +8245,11 @@
       <c r="A432" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="B432" s="6" t="s">
+      <c r="B432" s="8" t="s">
         <v>416</v>
       </c>
       <c r="C432" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D432">
         <v>427</v>
@@ -8259,11 +8259,11 @@
       <c r="A433" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="B433" s="6" t="s">
+      <c r="B433" s="8" t="s">
         <v>417</v>
       </c>
       <c r="C433" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D433">
         <v>428</v>
@@ -8273,11 +8273,11 @@
       <c r="A434" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="B434" s="6" t="s">
+      <c r="B434" s="8" t="s">
         <v>418</v>
       </c>
       <c r="C434" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D434">
         <v>429</v>
@@ -8287,11 +8287,11 @@
       <c r="A435" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="B435" s="6" t="s">
+      <c r="B435" s="8" t="s">
         <v>419</v>
       </c>
       <c r="C435" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D435">
         <v>430</v>
@@ -8301,11 +8301,11 @@
       <c r="A436" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="B436" s="6" t="s">
+      <c r="B436" s="8" t="s">
         <v>420</v>
       </c>
       <c r="C436" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D436">
         <v>431</v>
@@ -8315,11 +8315,11 @@
       <c r="A437" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="B437" s="6" t="s">
+      <c r="B437" s="8" t="s">
         <v>421</v>
       </c>
       <c r="C437" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D437">
         <v>432</v>
@@ -8329,11 +8329,11 @@
       <c r="A438" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="B438" s="6" t="s">
+      <c r="B438" s="8" t="s">
         <v>422</v>
       </c>
       <c r="C438" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D438">
         <v>433</v>
@@ -8343,11 +8343,11 @@
       <c r="A439" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="B439" s="6" t="s">
+      <c r="B439" s="8" t="s">
         <v>423</v>
       </c>
       <c r="C439" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D439">
         <v>434</v>
@@ -8357,11 +8357,11 @@
       <c r="A440" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="B440" s="6" t="s">
+      <c r="B440" s="8" t="s">
         <v>424</v>
       </c>
       <c r="C440" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D440">
         <v>435</v>
@@ -8371,11 +8371,11 @@
       <c r="A441" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="B441" s="6" t="s">
+      <c r="B441" s="8" t="s">
         <v>425</v>
       </c>
       <c r="C441" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D441">
         <v>436</v>
@@ -8385,11 +8385,11 @@
       <c r="A442" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="B442" s="6" t="s">
+      <c r="B442" s="8" t="s">
         <v>426</v>
       </c>
       <c r="C442" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D442">
         <v>437</v>
@@ -8399,11 +8399,11 @@
       <c r="A443" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="B443" s="6" t="s">
+      <c r="B443" s="8" t="s">
         <v>427</v>
       </c>
       <c r="C443" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D443">
         <v>438</v>
@@ -8413,11 +8413,11 @@
       <c r="A444" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="B444" s="6" t="s">
+      <c r="B444" s="8" t="s">
         <v>428</v>
       </c>
       <c r="C444" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D444">
         <v>439</v>
@@ -8427,11 +8427,11 @@
       <c r="A445" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="B445" s="6" t="s">
+      <c r="B445" s="8" t="s">
         <v>429</v>
       </c>
       <c r="C445" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D445">
         <v>440</v>
@@ -8441,11 +8441,11 @@
       <c r="A446" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="B446" s="6" t="s">
+      <c r="B446" s="8" t="s">
         <v>430</v>
       </c>
       <c r="C446" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D446">
         <v>441</v>
@@ -8455,11 +8455,11 @@
       <c r="A447" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="B447" s="6" t="s">
+      <c r="B447" s="8" t="s">
         <v>431</v>
       </c>
       <c r="C447" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D447">
         <v>442</v>
@@ -8469,11 +8469,11 @@
       <c r="A448" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="B448" s="6" t="s">
+      <c r="B448" s="8" t="s">
         <v>432</v>
       </c>
       <c r="C448" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D448">
         <v>443</v>
@@ -8483,11 +8483,11 @@
       <c r="A449" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="B449" s="6" t="s">
+      <c r="B449" s="8" t="s">
         <v>433</v>
       </c>
       <c r="C449" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D449">
         <v>444</v>
@@ -8497,11 +8497,11 @@
       <c r="A450" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="B450" s="6" t="s">
+      <c r="B450" s="8" t="s">
         <v>434</v>
       </c>
       <c r="C450" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D450">
         <v>445</v>
@@ -8511,11 +8511,11 @@
       <c r="A451" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="B451" s="6" t="s">
+      <c r="B451" s="8" t="s">
         <v>435</v>
       </c>
       <c r="C451" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D451">
         <v>446</v>
@@ -8525,11 +8525,11 @@
       <c r="A452" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="B452" s="6" t="s">
+      <c r="B452" s="8" t="s">
         <v>436</v>
       </c>
       <c r="C452" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D452">
         <v>447</v>
@@ -8539,11 +8539,11 @@
       <c r="A453" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="B453" s="6" t="s">
+      <c r="B453" s="8" t="s">
         <v>437</v>
       </c>
       <c r="C453" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D453">
         <v>448</v>
@@ -8553,11 +8553,11 @@
       <c r="A454" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="B454" s="6" t="s">
+      <c r="B454" s="8" t="s">
         <v>438</v>
       </c>
       <c r="C454" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D454">
         <v>449</v>
@@ -8567,11 +8567,11 @@
       <c r="A455" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="B455" s="6" t="s">
+      <c r="B455" s="8" t="s">
         <v>439</v>
       </c>
       <c r="C455" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D455">
         <v>450</v>
@@ -8581,11 +8581,11 @@
       <c r="A456" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="B456" s="6" t="s">
+      <c r="B456" s="8" t="s">
         <v>440</v>
       </c>
       <c r="C456" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D456">
         <v>451</v>
@@ -8595,11 +8595,11 @@
       <c r="A457" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="B457" s="6" t="s">
+      <c r="B457" s="8" t="s">
         <v>441</v>
       </c>
       <c r="C457" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D457">
         <v>452</v>
@@ -8609,11 +8609,11 @@
       <c r="A458" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="B458" s="6" t="s">
+      <c r="B458" s="8" t="s">
         <v>442</v>
       </c>
       <c r="C458" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D458">
         <v>453</v>
@@ -8623,11 +8623,11 @@
       <c r="A459" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="B459" s="6" t="s">
+      <c r="B459" s="8" t="s">
         <v>443</v>
       </c>
       <c r="C459" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D459">
         <v>454</v>
@@ -8637,11 +8637,11 @@
       <c r="A460" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="B460" s="6" t="s">
+      <c r="B460" s="8" t="s">
         <v>444</v>
       </c>
       <c r="C460" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D460">
         <v>455</v>
@@ -8651,11 +8651,11 @@
       <c r="A461" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="B461" s="6" t="s">
+      <c r="B461" s="8" t="s">
         <v>445</v>
       </c>
       <c r="C461" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D461">
         <v>456</v>
@@ -8665,11 +8665,11 @@
       <c r="A462" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="B462" s="6" t="s">
+      <c r="B462" s="8" t="s">
         <v>446</v>
       </c>
       <c r="C462" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D462">
         <v>457</v>
@@ -8679,11 +8679,11 @@
       <c r="A463" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="B463" s="6" t="s">
+      <c r="B463" s="8" t="s">
         <v>447</v>
       </c>
       <c r="C463" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D463">
         <v>458</v>
@@ -8693,11 +8693,11 @@
       <c r="A464" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="B464" s="6" t="s">
+      <c r="B464" s="8" t="s">
         <v>448</v>
       </c>
       <c r="C464" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D464">
         <v>459</v>
@@ -8707,11 +8707,11 @@
       <c r="A465" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="B465" s="6" t="s">
+      <c r="B465" s="8" t="s">
         <v>449</v>
       </c>
       <c r="C465" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D465">
         <v>460</v>
@@ -8721,11 +8721,11 @@
       <c r="A466" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="B466" s="6" t="s">
+      <c r="B466" s="8" t="s">
         <v>450</v>
       </c>
       <c r="C466" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D466">
         <v>461</v>
@@ -8735,11 +8735,11 @@
       <c r="A467" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="B467" s="6" t="s">
+      <c r="B467" s="8" t="s">
         <v>451</v>
       </c>
       <c r="C467" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D467">
         <v>462</v>
@@ -8749,11 +8749,11 @@
       <c r="A468" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="B468" s="6" t="s">
+      <c r="B468" s="8" t="s">
         <v>452</v>
       </c>
       <c r="C468" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D468">
         <v>463</v>
@@ -8763,11 +8763,11 @@
       <c r="A469" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="B469" s="6" t="s">
+      <c r="B469" s="8" t="s">
         <v>453</v>
       </c>
       <c r="C469" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D469">
         <v>464</v>
@@ -8792,11 +8792,11 @@
       <c r="A472" s="5" t="s">
         <v>454</v>
       </c>
-      <c r="B472" s="6" t="s">
+      <c r="B472" s="8" t="s">
         <v>455</v>
       </c>
       <c r="C472" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D472">
         <v>467</v>
@@ -8806,11 +8806,11 @@
       <c r="A473" s="5" t="s">
         <v>454</v>
       </c>
-      <c r="B473" s="6" t="s">
+      <c r="B473" s="8" t="s">
         <v>456</v>
       </c>
       <c r="C473" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D473">
         <v>468</v>
@@ -8820,11 +8820,11 @@
       <c r="A474" s="5" t="s">
         <v>454</v>
       </c>
-      <c r="B474" s="6" t="s">
+      <c r="B474" s="8" t="s">
         <v>457</v>
       </c>
       <c r="C474" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D474">
         <v>469</v>
@@ -8834,11 +8834,11 @@
       <c r="A475" s="5" t="s">
         <v>454</v>
       </c>
-      <c r="B475" s="6" t="s">
+      <c r="B475" s="8" t="s">
         <v>458</v>
       </c>
       <c r="C475" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D475">
         <v>470</v>
@@ -8848,11 +8848,11 @@
       <c r="A476" s="5" t="s">
         <v>454</v>
       </c>
-      <c r="B476" s="6" t="s">
+      <c r="B476" s="8" t="s">
         <v>459</v>
       </c>
       <c r="C476" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D476">
         <v>471</v>
@@ -8862,11 +8862,11 @@
       <c r="A477" s="5" t="s">
         <v>454</v>
       </c>
-      <c r="B477" s="6" t="s">
+      <c r="B477" s="8" t="s">
         <v>460</v>
       </c>
       <c r="C477" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D477">
         <v>472</v>
@@ -8876,11 +8876,11 @@
       <c r="A478" s="5" t="s">
         <v>454</v>
       </c>
-      <c r="B478" s="6" t="s">
+      <c r="B478" s="8" t="s">
         <v>461</v>
       </c>
       <c r="C478" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D478">
         <v>473</v>
@@ -8890,11 +8890,11 @@
       <c r="A479" s="5" t="s">
         <v>454</v>
       </c>
-      <c r="B479" s="6" t="s">
+      <c r="B479" s="8" t="s">
         <v>462</v>
       </c>
       <c r="C479" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D479">
         <v>474</v>
@@ -8904,11 +8904,11 @@
       <c r="A480" s="5" t="s">
         <v>454</v>
       </c>
-      <c r="B480" s="6" t="s">
+      <c r="B480" s="8" t="s">
         <v>463</v>
       </c>
       <c r="C480" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D480">
         <v>475</v>
@@ -8918,11 +8918,11 @@
       <c r="A481" s="5" t="s">
         <v>454</v>
       </c>
-      <c r="B481" s="6" t="s">
+      <c r="B481" s="8" t="s">
         <v>464</v>
       </c>
       <c r="C481" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D481">
         <v>476</v>
